--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
@@ -22,15 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="599">
   <si>
     <t>background_ancestry_Davion.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Federated Suns. MechWarriors who hail from the Federated Suns tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.\r\n"</t>
-  </si>
-  <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Federated Suns. MechWarriors who hail from the Federated Suns tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault."</t>
+    <t>"You were born and raised in the Federation. MechWarriors who hail from the Federated Suns tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Федерации. Мехвоины из Федеративных Солнц, как правило, обладают более отточенными навыками и лучшим снаряжением, чем их собратья из других регионов космоса. Они часто считают себя праведными воинами и поборниками свободы - иногда доходя до крайности.\r\n"</t>
   </si>
   <si>
     <t/>
@@ -39,7 +39,7 @@
     <t>background_ancestry_Davion.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
   </si>
   <si>
     <t>"Вы родились и выросли в [[DM.Factions[faction_Davion],Федерации Солнц]]."</t>
@@ -60,13 +60,13 @@
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Davion],Federated Suns]] tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.\r\n\r\nThough nearly extinguished by the [[DM.Factions[faction_Kurita],Draconis Combine]] in the [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],First Succession War]], the Federated Suns - a constitutional monarchy ruled by the renowned [[DM.BaseDescriptionDefs[LoreHouseDavion],House Davion]] - has become arguably the most powerful of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]. Through skillful military campaigns and subtle diplomacy, House Davion has significantly increased the number of star systems under its control in the last two centuries."</t>
   </si>
   <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_Davion],Federated Suns]] tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.\n\nThough nearly extinguished by the [[DM.Factions[faction_Kurita],Draconis Combine]] in the [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],First Succession War]], the Federated Suns - a constitutional monarchy ruled by the renowned [[DM.BaseDescriptionDefs[LoreHouseDavion],House Davion]] - has become arguably the most powerful of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]. Through skillful military campaigns and subtle diplomacy, House Davion has significantly increased the number of star systems under its control in the last two centuries."</t>
+    <t>"Мехвоины, родом из [[DM.Factions[faction_Davion],Федеративных Солнц]], как правило, обладают более отточенными навыками и лучшим снаряжением, чем их собратья из других регионов космоса. Они часто считают себя праведными воинами и поборниками свободы - иногда до крайности.\r\n\r\nВ своё время почти полностью уничтоженная [[DM.Factions[faction_Kurita]],Синдикатом Дракона]] в [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],Первую войну за наследство]], Федеративные Солнца - конституционная монархия, управляемая знаменитым [[DM.BaseDescriptionDefs[LoreHouseDavion],Домом Дэвион]] - позже стала, пожалуй, самой могущественной из пяти великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]]. Благодаря умелым военным кампаниям и тонкой дипломатии, Дом Дэвион за последние два столетия значительно увеличил число контролируемых им звездных систем."</t>
   </si>
   <si>
     <t>background_ancestry_Davion.OptionName</t>
   </si>
   <si>
-    <t>"Federated Suns (Davion)"</t>
+    <t>"The Federated Suns (Davion)"</t>
   </si>
   <si>
     <t>"Федерация Солнц (Дэвион)"</t>
@@ -75,19 +75,19 @@
     <t>background_ancestry_DeepPeriphery.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Deep Periphery. MechWarriors that hail from the Deep Periphery are rare, but even rarer is the MechWarrior who will admit to such an origin. Beyond the outermost edges of the Periphery lie depths of space that remain uncharted and unknown to most of human civilization, littered with abandoned colonies and small outposts.\r\n"</t>
-  </si>
-  <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Deep Periphery. MechWarriors that hail from the Deep Periphery are rare, but even rarer is the MechWarrior who will admit to such an origin. Beyond the outermost edges of the Periphery lie depths of space that remain uncharted and unknown to most of human civilization, littered with abandoned colonies and small outposts."</t>
+    <t>"You were born and raised in the Deep Periphery. MechWarriors that hail from the Deep Periphery are rare, but even rarer is the MechWarrior who will admit to such an origin. Beyond the outermost edges of the Periphery lie depths of space that remain uncharted and unknown to most of human civilization, littered with abandoned colonies and small outposts.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Глубокой Периферии. Мехвоины, родом оттуда, встречаются нечасто, но еще реже встречаются мехвоины, которые признаются в этом. За пределами Периферии лежат глубины космоса, которые остаются неизведанными и неизвестными для большинства человеческих цивилизаций, захламленные заброшенными колониями и небольшими аванпостами.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_DeepPeriphery.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]]."</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли на [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Периферии]]."</t>
+    <t>"You were born and raised in the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]]."</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Глубокой Периферии]]."</t>
   </si>
   <si>
     <t>background_ancestry_DeepPeriphery.Description.Name</t>
@@ -105,34 +105,37 @@
     <t>"MechWarriors that hail from the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]] are rare, but even rarer is the MechWarrior who will admit to such an origin. \r\n\r\nBeyond the outermost edges of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]] lie depths of space that remain uncharted and unknown to most of human civilization. Little is known about these regions, but they are far from uninhabited. The Deep Periphery is littered with abandoned colonies and small outposts, isolated from the rest of humanity. After the fall of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]], General [[DM.BaseDescriptionDefs[LoreKerensky],Aleksandr Kerensky]] led the remnants of the [[DM.BaseDescriptionDefs[LoreSLDF],Star League Defense Force]] into the Deep Periphery, disappearing from the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and from recorded history."</t>
   </si>
   <si>
-    <t>"MechWarriors that hail from the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]] are rare, but even rarer is the MechWarrior who will admit to such an origin. \n\nBeyond the outermost edges of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]] lie depths of space that remain uncharted and unknown to most of human civilization. Little is known about these regions, but they are far from uninhabited. The Deep Periphery is littered with abandoned colonies and small outposts, isolated from the rest of humanity. After the fall of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]], General [[DM.BaseDescriptionDefs[LoreKerensky],Aleksandr Kerensky]] led the remnants of the [[DM.BaseDescriptionDefs[LoreSLDF],Star League Defense Force]] into the Deep Periphery, disappearing from the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and from recorded history."</t>
+    <t>"Мехвоины из [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Глубокой Периферии]] встречаются редко, но ещё реже встречаются мехвоины, которые признаются в этом. \r\n\r\nЗа крайними границами [[DM.BaseDescriptionDefs[LoreRimwardPeriphery]],Периферии]] простираются глубины космоса, которые остаются неизведанными и неизвестными для большинства представителей человеческой цивилизации. Об этих регионах мало что известно, но они далеко не необитаемы. Глубокая Периферия усеяна заброшенными колониями и небольшими аванпостами, изолированными от остального человечества. После падения [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]] генерал [[DM.BaseDescriptionDefs[LoreKerensky]],Александр Керенский]] повёл остатки [[DM.BaseDescriptionDefs[LoreSLDF],Сил обороны Звездной Лиги]] в Глубокую Периферию и исчез из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], став историей."</t>
   </si>
   <si>
     <t>background_ancestry_DeepPeriphery.OptionName</t>
   </si>
   <si>
-    <t>"Deep Periphery"</t>
+    <t>"The Deep Periphery"</t>
   </si>
   <si>
     <t>background_ancestry_Freeborn.BioDescription</t>
   </si>
   <si>
-    <t>"Born by Natural means within the [[DM.BaseDescriptionDefs[LoreClans],Clans]] has your status always been Second Class, but that didnt curb your ambition to become more then a Footnote in the Clan's Society"</t>
+    <t>"Born by natural means within the [[DM.BaseDescriptionDefs[LoreClans],Clans]], your status has always been second class. However, this has done nothing to curb your ambition to become more than just a footnote in the known universe, let alone just the Clans."</t>
+  </si>
+  <si>
+    <t>"Рожденный естественным путем в [[DM.BaseDescriptionDefs[LoreClans],Кланах]], ваш статус всегда был второго сорта. Однако это нисколько не сдерживает вашего стремления стать чем-то большим для известной вселенной, не говоря уже о Кланах."</t>
   </si>
   <si>
     <t>background_ancestry_Freeborn.Description.Details</t>
   </si>
   <si>
-    <t>"You are a [[DM.BaseDescriptionDefs[LoreClans],Clans]] [[DM.BaseDescriptionDefs[LoreFreeborn],Free Born]] Warrior."</t>
-  </si>
-  <si>
-    <t>"Ты - [[DM.BaseDescriptionDefs[LoreFreeborn],вольнорожденный]] воин [[DM.BaseDescriptionDefs[LoreClans],кланов]]. Вольняга."</t>
+    <t>"You were born a [[DM.BaseDescriptionDefs[LoreFreeborn],freeborn]] [[DM.BaseDescriptionDefs[LoreClans],Clan]] member."</t>
+  </si>
+  <si>
+    <t>"Вы родились [[DM.BaseDescriptionDefs[LoreFreeborn],вольнорожденным]] [[DM.BaseDescriptionDefs[LoreClans],клановцем]]."</t>
   </si>
   <si>
     <t>background_ancestry_Freeborn.Description.Name</t>
   </si>
   <si>
-    <t>"Free Born"</t>
+    <t>"Freeborn"</t>
   </si>
   <si>
     <t>"Вольнорожденный"</t>
@@ -147,19 +150,25 @@
     <t>background_ancestry_Freeborn.OptionName</t>
   </si>
   <si>
+    <t>"Clan Space (Freeborn)"</t>
+  </si>
+  <si>
+    <t>"Пространство Кланов (вольнорожденный)"</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Draconis Combine. MechWarriors who hail from the Combine tend to be fierce, disciplined, and relentless fighters. Over centuries of rule, House Kurita has united the Combine into a single culture, heavily molded around medieval Japanese society.\r\n"</t>
-  </si>
-  <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Draconis Combine. MechWarriors who hail from the Combine tend to be fierce, disciplined, and relentless fighters. Over centuries of rule, House Kurita has united the Combine into a single culture, heavily molded around medieval Japanese society."</t>
+    <t>"You were born and raised in the Draconis Combine. MechWarriors who hail from the Combine tend to be fierce, disciplined, and relentless fighters. Over centuries of rule, House Kurita has united the Combine into a single culture, heavily molded around medieval Japanese society.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Синдикате Дракона. Мехвоины из Синдиката обычно являются свирепыми, дисциплинированными и неумолимыми бойцами. За века своего правления Дом Курита объединил Синдикат под единой культурой, в значительной степени сформированной на основе средневекового японского общества.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_Kurita.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.Factions[faction_Kurita],Draconis Combine]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_Kurita],Draconis Combine]]."</t>
   </si>
   <si>
     <t>"Вы родились и выросли в [[DM.Factions[faction_Kurita],Синдикате Дракона]]."</t>
@@ -180,10 +189,13 @@
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Kurita],Combine]] tend to be fierce, disciplined, and relentless fighters, no matter the odds they might face on the battlefield.\r\n\r\nAlthough the Draconis Combine is as ethnically diverse as any of the vast interstellar empires, it is also one of the most culturally homogenous. Over centuries of rule, the founding [[DM.BaseDescriptionDefs[LoreHouseKurita],House Kurita]] has succeeded in uniting the people of the Combine into a single culture, one heavily molded around medieval Japanese society. While some, most notably the descendants of the conquered [[DM.BaseDescriptionDefs[LoreRaselhague],Principality of Rasalhague]], continue to chafe at the uniformity of Draconis society, overall this has created a more cohesive populace and military than seen in the other Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_Kurita],Синдиката]] обычно являются свирепыми, дисциплинированными и неумолимыми бойцами, независимо от того, с какими трудностями они сталкиваются на поле боя.\r\n\r\nНесмотря на этническое разнообразие в Синдикате Дракона, как и в любой огромной межзвездной империи, оно также является одним из самых однородных в культурном отношении. За столетия правления, [[DM.BaseDescriptionDefs[LoreHouseKurita],Дому Курита]] удалось объединить народ Синдиката под единой культурой, в значительной степени сформированной на основе средневекового японского общества. Хотя некоторые, в первую очередь потомки завоеванного [[DM.BaseDescriptionDefs[LoreRaselhague]],Княжества Расальхаг]], по-прежнему недовольны единообразием общества Дракона, в целом это привело к созданию более сплоченного населения и армии, чем в других Великих домах [[DM.BaseDescriptionDefs[LoreInnerSphere]],Внутренней Сферы]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.OptionName</t>
   </si>
   <si>
-    <t>"Draconis Combine (Kurita)"</t>
+    <t>"The Draconis Combine (Kurita)"</t>
   </si>
   <si>
     <t>"Синдикат Дракона (Курита)"</t>
@@ -192,16 +204,16 @@
     <t>background_ancestry_Liao.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Capellan Confederation. MechWarriors who hail from the Capellan Confederation are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them. Most Capellans take great pride in their citizenship, which must be earned through service to the state.\r\n"</t>
-  </si>
-  <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Capellan Confederation. MechWarriors who hail from the Capellan Confederation are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them. Most Capellans take great pride in their citizenship, which must be earned through service to the state."</t>
+    <t>"You were born and raised in the Capellan Confederation. MechWarriors who hail from the Capellan Confederation are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them. Most Capellans take great pride in their citizenship, which must be earned through service to the state.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Капелланской Конфедерации. Мехвоины Капелланской Конфедерации - это преданные и стойкие бойцы, способные держать оборону и часто удивлять тех противников, которые совершают ошибку, недооценивая их. Большинство капелланцев гордятся своим гражданством, которое они ещё должны заслужить, работая на благо государства.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_Liao.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.Factions[faction_Liao],Capellan Confederation]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_Liao],Capellan Confederation]]."</t>
   </si>
   <si>
     <t>"Вы родились и выросли в [[DM.Factions[faction_Liao],Конфедерации Капеллы]]."</t>
@@ -222,13 +234,13 @@
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Liao],Capellan Confederation]] are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them.\r\n\r\nThe Capellan Confederation has suffered the most at the hands of the other [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] over the last two centuries of war, having lost nearly half of the territory it once controlled at the height of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s rule. Over time, the leadership of [[DM.BaseDescriptionDefs[LoreHouseLiao],House Liao]] has transformed the Capellan Confederation into a socialist police state with a highly regulated economy. Most Capellans take great pride in their citizenship, which must be earned through service to the state."</t>
   </si>
   <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_Liao],Capellan Confederation]] are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them.\n\nThe Capellan Confederation has suffered the most at the hands of the other [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] over the last two centuries of war, having lost nearly half of the territory it once controlled at the height of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s rule. Over time, the leadership of [[DM.BaseDescriptionDefs[LoreHouseLiao],House Liao]] has transformed the Capellan Confederation into a socialist police state with a highly regulated economy. Most Capellans take great pride in their citizenship, which must be earned through service to the state."</t>
+    <t>"Мехвоины из [[DM.Factions[faction_Liao],Капелланской Конфедерации]] - это преданные и стойкие бойцы, способные держать строй и часто удивлять тех противников, которые совершили ошибку, недооценив их.\r\n\r\nЗа последние два столетия войны Капелланская Конфедерация больше всех пострадала от рук других [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]], потеряв почти половину территории, которую она когда-то контролировала в период расцвета [[DM.BaseDescriptionDefs[LoreStarLeague],Звездной Лиги]]. Со временем руководство [[DM.BaseDescriptionDefs[LoreHouseLiao]],Дома Ляо]] превратило Капелланскую Конфедерацию в социалистическое полицейское государство с жестко регулируемой экономикой. Большинство капелланцев гордятся своим гражданством, которое ещё нужно заслужить, трудясь на благо государства."</t>
   </si>
   <si>
     <t>background_ancestry_Liao.OptionName</t>
   </si>
   <si>
-    <t>"Capellan Confederation (Liao)"</t>
+    <t>"The Capellan Confederation (Liao)"</t>
   </si>
   <si>
     <t>"Конфедерация Капеллы (Ляо)"</t>
@@ -237,16 +249,16 @@
     <t>background_ancestry_Magistracy.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Magistracy of Canopus. MechWarriors who hail from the Magistracy of Canopus often favor clever and unorthodox tactics on the field. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.\r\n"</t>
-  </si>
-  <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Magistracy of Canopus. MechWarriors who hail from the Magistracy of Canopus often favor clever and unorthodox tactics on the field. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit."</t>
+    <t>"You were born and raised in the Magistracy of Canopus. MechWarriors who hail from the Magistracy of Canopus often favor clever and unorthodox tactics on the field. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Магистрате Канопуса. Мехвоины и мехвоинессы из Магистрата Канопуса часто предпочитают умные и неординарные тактики на поле боя. Магистрат поддерживает открытое общество, обеспечивающее личную свободу всех граждан и их право жить так, как они считают нужным.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_Magistracy.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]]."</t>
   </si>
   <si>
     <t>"Вы родились и выросли в [[DM.Factions[faction_MagistracyOfCanopus],Магистрате Канопуса]]."</t>
@@ -267,13 +279,13 @@
     <t>"MechWarriors who hail from the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]] can run the gamut of skill and fighting styles, but they often favor clever and unorthodox tactics on the field.\r\n\r\nWhile smaller than the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Magistracy of Canopus is one of the major powers of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. The Magistracy is a matriarchal society led by a Magestrix. This is an elected position open to any woman but largely controlled by [[DM.BaseDescriptionDefs[LoreHouseCentrella],House Centrella]] due to the family's popularity. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit."</t>
   </si>
   <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]] can run the gamut of skill and fighting styles, but they often favor clever and unorthodox tactics on the field.\n\nWhile smaller than the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Magistracy of Canopus is one of the major powers of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. The Magistracy is a matriarchal society led by a Magestrix. This is an elected position open to any woman but largely controlled by [[DM.BaseDescriptionDefs[LoreHouseCentrella],House Centrella]] due to the family's popularity. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit."</t>
+    <t>"Мехвоины из [[DM.Factions[faction_MagistracyOfCanopus]],Магистрата Канопуса]] могут обладать самыми разными навыками и стилями боя, но на поле боя они часто предпочитают умные и нестандартные тактики.\r\n\r\nПусть он и меньше, чем великие [[DM.BaseDescriptionDefs[LoreSuccessorState],Государства-наследники]] из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], Магистрат Канопуса является одной из крупнейших держав [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Магистрат представляет собой матриархальное общество, во главе которого стоит магистра. Это выборная должность, открытая для любой женщины, но в значительной степени контролируемая [[DM.BaseDescriptionDefs[LoreHouseCentrella]],Домом Сентрелла]] из-за популярности семьи. Магистрат поддерживает открытое общество, обеспечивающее личную свободу всех граждан и их право жить так, как они считают нужным."</t>
   </si>
   <si>
     <t>background_ancestry_Magistracy.OptionName</t>
   </si>
   <si>
-    <t>"Magistracy of Canopus"</t>
+    <t>"The Magistracy of Canopus"</t>
   </si>
   <si>
     <t>"Магистрат Канопуса"</t>
@@ -282,16 +294,16 @@
     <t>background_ancestry_Marik.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Free Worlds League. MechWarriors who hail from the Free Worlds League tend to be passionate, enduring fighters who value justice and equality above all else. The cultural diversity and independence of the Free Worlds League is at once the greatest strength of the Free Worlds League, and its greatest weaknesses.\r\n"</t>
-  </si>
-  <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Free Worlds League. MechWarriors who hail from the Free Worlds League tend to be passionate, enduring fighters who value justice and equality above all else. The cultural diversity and independence of the Free Worlds League is at once the greatest strength of the Free Worlds League, and its greatest weaknesses."</t>
+    <t>"You were born and raised in the Free Worlds League. MechWarriors who hail from the Free Worlds League tend to be passionate, enduring fighters who value justice and equality above all else. The cultural diversity and independence of the Free Worlds League is at once the greatest strength of the Free Worlds League, and its greatest weaknesses.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Лиге Свободных Миров. Мехвоины Лиги, как правило, страстные, стойкие бойцы, превыше всего ценящие справедливость и равенство. Культурное разнообразие и независимость Лиги Свободных Миров - это одновременно и её величайшая сила, и величайшая слабость.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_Marik.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.Factions[faction_Marik],Free Worlds League]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_Marik],Free Worlds League]]."</t>
   </si>
   <si>
     <t>"Вы родились и выросли в [[DM.Factions[faction_Marik],Лиге Свободных Миров]]."</t>
@@ -312,13 +324,13 @@
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Marik],Free Worlds League]] tend to be passionate, enduring fighters who value justice and equality above all else.\r\n\r\nThe oldest, and theoretically most democratic, of the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Free Worlds League is actually a broad coalition of many minor noble houses. For most of the League's history, it has been ruled under martial law by a Captain-General, who by tradition is from [[DM.BaseDescriptionDefs[LoreHouseMarik],House Marik]]. The cultural diversity and relative independence of its component regions are at once the greatest strength of the Free Worlds League, and its greatest weaknesses."</t>
   </si>
   <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_Marik],Free Worlds League]] tend to be passionate, enduring fighters who value justice and equality above all else.\n\nThe oldest, and theoretically most democratic, of the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Free Worlds League is actually a broad coalition of many minor noble houses. For most of the League's history, it has been ruled under martial law by a Captain-General, who by tradition is from [[DM.BaseDescriptionDefs[LoreHouseMarik],House Marik]]. The cultural diversity and relative independence of its component regions are at once the greatest strength of the Free Worlds League, and its greatest weaknesses."</t>
+    <t>"Мехвоины из [[DM.Factions[faction_Marik]],Лиги Свободных Миров]], как правило, страстные, стойкие бойцы, которые превыше всего ценят справедливость и равенство.\r\n\r\nСамая старая и теоретически самая демократичная из великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]] [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], Лига Свободных Миров на самом деле представляет собой коалицию многих мелких знатных домов. На протяжении большей части истории Лиги она управлялась на основе военного положения капитан-генералом, который по традиции является представителем [[DM.BaseDescriptionDefs[LoreHouseMarik],Дома Марик]]. Культурное разнообразие и относительная независимость входящих в нее регионов являются одновременно и величайшей силой Лиги, и ее слабостью."</t>
   </si>
   <si>
     <t>background_ancestry_Marik.OptionName</t>
   </si>
   <si>
-    <t>"Free Worlds League (Marik)"</t>
+    <t>"The Free Worlds League (Marik)"</t>
   </si>
   <si>
     <t>"Лига Свободных Миров (Марик)"</t>
@@ -327,16 +339,19 @@
     <t>background_ancestry_Periphery.BioDescription</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Rimward Periphery. There is no easy way to characterize MechWarriors hailing from the Rimward Periphery - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors. The Periphery is the galaxy's frontier, and petty politics and piracy rule the region."</t>
+    <t>"You were born and raised in the Periphery. There is no easy way to characterize MechWarriors hailing from the Periphery - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors. The Periphery is the galaxy's frontier, and petty politics and piracy rule the region."</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли на Периферии. Мехвоинов из Периферии охарактеризовать нелегко - они могут быть кем угодно, от мелких головорезов до безжалостных тактиков и опытных и благородных воинов. Периферия - это граница галактики, где правит мелочная политика и пиратство."</t>
   </si>
   <si>
     <t>background_ancestry_Periphery.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]."</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли на [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]."</t>
+    <t>"You were born and raised in the [[DM.BaseDescriptionDefs[LorePeriphery], Periphery]]."</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]]."</t>
   </si>
   <si>
     <t>background_ancestry_Periphery.Description.Name</t>
@@ -354,16 +369,13 @@
     <t>"There is no easy way to characterize MechWarriors hailing from the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors.\r\n\r\nThe nations and minor noble houses of the Rimward Periphery have long played a role in shaping humanity - the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s downfall began in the Periphery, eventually leading to the current tattered state of these disparate star systems on the edge of known space. The Periphery is still the galaxy's frontier, where the Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] play deadly politics, petty bandit kingdoms thrive, and pirate bands prey on the minor noble houses trying to survive in this hostile environment."</t>
   </si>
   <si>
-    <t>"There is no easy way to characterize MechWarriors hailing from the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors.\n\nThe nations and minor noble houses of the Rimward Periphery have long played a role in shaping humanity - the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s downfall began in the Periphery, eventually leading to the current tattered state of these disparate star systems on the edge of known space. The Periphery is still the galaxy's frontier, where the Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] play deadly politics, petty bandit kingdoms thrive, and pirate bands prey on the minor noble houses trying to survive in this hostile environment."</t>
+    <t>"Нет такого одного слова, чтобы охарактеризовать мехвоинов, родом из [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Они могут быть кем угодно - от мелких бандитов до безжалостных тактиков и опытных и благородных воинов.\r\n\r\nНации и мелкие дворянские дома Окраинной Периферии давно сыграли свою роль в формировании человечества - падение [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]] началось именно на Периферии, что в итоге привело к нынешнему плачевному состоянию этих разрозненных звездных систем на краю известного космоса. Периферия по-прежнему является границей галактики, где Великие Дома [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]] играют в смертельно опасную политику, где процветают мелкие бандитские королевства, а пиратские банды охотятся на мелкие дворянские дома, пытающиеся выжить в этой враждебной среде."</t>
   </si>
   <si>
     <t>background_ancestry_Periphery.OptionName</t>
   </si>
   <si>
-    <t>"The Rimward Periphery"</t>
-  </si>
-  <si>
-    <t>"Окраинная Периферия"</t>
+    <t>"The Periphery"</t>
   </si>
   <si>
     <t>background_ancestry_Steiner.BioDescription</t>
@@ -372,16 +384,16 @@
     <t>"Decades ago, your family came to the Aurigan Reach from the Lyran Commonwealth. MechWarriors who hail from the Lyran Commonwealth tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield. Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth.\r\n"</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Lyran Commonwealth. MechWarriors who hail from the Lyran Commonwealth tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield. Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth."</t>
+    <t>"Десятилетия назад ваша семья прибыла в Aurigan Reach из Лиранского Содружества. Мехвоины из Лиранского Содружества, как правило, выносливы, хорошо экипированы и обучены, хотя и заслужили репутацию людей, не отличающихся особым стратегическим мышлением на поле боя. Богатство - главная сила торговых князей Лиранского Содружества.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_Steiner.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in the [[DM.Factions[faction_Steiner],Lyran Commonwealth]]."</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Steiner],Содружестве Лиры]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_Steiner],Lyran Commonwealth]]."</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Steiner],Лиранском Содружестве]]."</t>
   </si>
   <si>
     <t>background_ancestry_Steiner.Description.Name</t>
@@ -399,16 +411,16 @@
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Steiner],Lyran Commonwealth]] tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield.\r\n\r\nWealth is the greatest strength of the merchant princes of the Lyran Commonwealth, ruled by [[DM.BaseDescriptionDefs[LoreHouseSteiner],House Steiner]]. Despite a number of humiliating defeats in the first two [[DM.BaseDescriptionDefs[LoreSuccessionWars],Succession Wars]], the Lyran Commonwealth has bounced back thanks to the combined strength of its economy (the biggest of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]) and its control of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]'s largest functioning BattleMech factories. What the Lyran Commonwealth may lack in military prowess, it makes up for with raw numbers and industrial scale."</t>
   </si>
   <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_Steiner],Lyran Commonwealth]] tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield.\n\nWealth is the greatest strength of the merchant princes of the Lyran Commonwealth, ruled by [[DM.BaseDescriptionDefs[LoreHouseSteiner],House Steiner]]. Despite a number of humiliating defeats in the first two [[DM.BaseDescriptionDefs[LoreSuccessionWars],Succession Wars]], the Lyran Commonwealth has bounced back thanks to the combined strength of its economy (the biggest of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]) and its control of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]'s largest functioning BattleMech factories. What the Lyran Commonwealth may lack in military prowess, it makes up for with raw numbers and industrial scale."</t>
+    <t>"Мехвоины из [[DM.Factions[faction_Steiner],Лиранского Содружества]], как правило, выносливы, хорошо экипированы и обучены, хотя и заслужили репутацию не особо стратегически мыслящих на поле боя.\r\n\r\nБлагосостояние - главная сила торговых князей Лиранского Содружества, управляемого [[DM.BaseDescriptionDefs[LoreHouseSteiner],Домом Штайнер]]. Несмотря на ряд унизительных поражений в первых двух [[DM.BaseDescriptionDefs[LoreSuccessionWars]],Наследных войнах]], Лиранское Содружество вырвалось вперед благодаря совокупной мощи своей экономики (самой большой среди пяти великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]]) и контролю над крупнейшими действующими заводами боевых мехов во [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сфере]]. То, чего Лиранскому Содружеству, возможно, не хватает в военной доблести, оно компенсирует численностью и промышленными масштабами."</t>
   </si>
   <si>
     <t>background_ancestry_Steiner.OptionName</t>
   </si>
   <si>
-    <t>"Lyran Commonwealth (Steiner)"</t>
-  </si>
-  <si>
-    <t>"Содружество Лиры (Штайнер)"</t>
+    <t>"The Lyran Commonwealth (Steiner)"</t>
+  </si>
+  <si>
+    <t>"Лиранское Содружество (Штайнер)"</t>
   </si>
   <si>
     <t>background_ancestry_Taurians.BioDescription</t>
@@ -417,1144 +429,1396 @@
     <t>"Decades ago, your family came to the Aurigan Reach from the Taurian Concordat. MechWarriors who hail from the Taurian Concordat tend to be stubborn and aggressive but are nonetheless skilled and perceptive combatants. Founded as a constitutional monarchy under the leadership of House Calderon, the Taurian Concordat is the strongest military power of the Rimward Periphery.\r\n"</t>
   </si>
   <si>
-    <t>"Decades ago, your family came to the Aurigan Reach from the Taurian Concordat. MechWarriors who hail from the Taurian Concordat tend to be stubborn and aggressive but are nonetheless skilled and perceptive combatants. Founded as a constitutional monarchy under the leadership of House Calderon, the Taurian Concordat is the strongest military power of the Rimward Periphery."</t>
+    <t>"Десятилетия назад ваша семья прибыла в Aurigan Reach из Таурианского Конкордата. Мехвоины оттуда, как правило, упрямы и агрессивны, но, тем не менее, являются опытными и проницательными бойцами. Основанный как конституционная монархия под руководством Дома Кальдерон, Таурианский Конкордат является сильнейшей военной державой Окраинной Периферии.\r\n"</t>
   </si>
   <si>
     <t>background_ancestry_Taurians.Description.Details</t>
   </si>
   <si>
-    <t>"You have been born and raised in [[DM.Factions[LoreRaselhague],Raselhague]]."</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[LoreRaselhague],Расальхаге]]."</t>
+    <t>"You were born and raised in the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]]."</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_TaurianConcordat],Таурианском Конкордате]]."</t>
   </si>
   <si>
     <t>background_ancestry_Taurians.Description.Name</t>
   </si>
   <si>
+    <t>"Taurians"</t>
+  </si>
+  <si>
+    <t>"Таурианцы"</t>
+  </si>
+  <si>
+    <t>background_ancestry_Taurians.OptionDescription</t>
+  </si>
+  <si>
+    <t>"MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. \r\n\r\nFounded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
+  </si>
+  <si>
+    <t>"Мехвоины из [[DM.Factions[faction_TaurianConcordat],Таурианского Конкордата]], как правило, упрямы и агрессивны. Они могут быстро разгневаться, но, тем не менее, являются опытными и проницательными бойцами.\r\n\r\nОснованный как конституционная монархия под руководством [[DM.BaseDescriptionDefs[LoreHouseCalderon]],Дома Кальдерон]], Таурианский Конкордат является сильнейшей военной державой [[DM.BaseDescriptionDefs[LoreRimwardPeriphery]],Окраинной Периферии]]. Это также одно из старейших сохранившихся поселений человеческой цивилизации, что сформировалось задолго до создания [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]]. Граждане таурианцы пользуются широкими свободами, гарантированными Уставом Конкордата, и гордятся тем, что защищают эти свободы, неся обязательную службу. Таурианский Конкордат долгое время находился во враждебных отношениях со [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферой]], особенно с [[DM.Factions[faction_Davion],Федеративными Солнцами]]."</t>
+  </si>
+  <si>
+    <t>background_ancestry_Taurians.OptionName</t>
+  </si>
+  <si>
+    <t>"The Taurian Concordat"</t>
+  </si>
+  <si>
+    <t>"Таурианский Конкордат"</t>
+  </si>
+  <si>
+    <t>background_ancestry_TestTubeBaby.BioDescription</t>
+  </si>
+  <si>
+    <t>"You were created a [[DM.BaseDescriptionDefs[LoreTrueborn],trueborn]] member of the [[DM.BaseDescriptionDefs[LoreClans],Clans]]. Washed out from the eugenics program, you are still determined to earn your place in the Remembrance."</t>
+  </si>
+  <si>
+    <t>"Вы были созданы [[DM.BaseDescriptionDefs[LoreTrueborn],вернорожденным]] членом [[DM.BaseDescriptionDefs[LoreClans],Кланов]]. Изгнанные из программы евгеники, вы всё ещё полны решимости заслужить своё место в Предании."</t>
+  </si>
+  <si>
+    <t>background_ancestry_TestTubeBaby.Description.Details</t>
+  </si>
+  <si>
+    <t>"You were created a [[DM.BaseDescriptionDefs[LoreTrueborn],trueborn]] member of the [[DM.BaseDescriptionDefs[LoreClans],Clans]].\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorAll],All Skills]].\nCannot command [[DM.BaseDescriptionDefs[ConceptVehicle],vehicles]]."</t>
+  </si>
+  <si>
+    <t>"Вы были созданы [[DM.BaseDescriptionDefs[LoreTrueborn],вернорожденным]] членом [[DM.BaseDescriptionDefs[LoreClans],Кланов]].\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorAll],ко всем навыкам]].\nНе будет управлять [[DM.BaseDescriptionDefs[ConceptVehicle],транспортными средствами]]."</t>
+  </si>
+  <si>
+    <t>background_ancestry_TestTubeBaby.Description.Name</t>
+  </si>
+  <si>
+    <t>"Trueborn"</t>
+  </si>
+  <si>
+    <t>"Вернорождённый"</t>
+  </si>
+  <si>
+    <t>background_ancestry_TestTubeBaby.OptionDescription</t>
+  </si>
+  <si>
+    <t>background_ancestry_TestTubeBaby.OptionName</t>
+  </si>
+  <si>
+    <t>"A Clan Laboratory (Trueborn)"</t>
+  </si>
+  <si>
+    <t>"Лаборатория Кланов (вернорожденный)"</t>
+  </si>
+  <si>
+    <t>background_career_banzai.BioDescription</t>
+  </si>
+  <si>
+    <t>"After years of working for Dr. Banzai, you have stuck out on your own and were given one of Team Banzai's treasured Hatchetmen as a reward for exceptional service.\r\n"</t>
+  </si>
+  <si>
+    <t>"После многих лет работы на доктора Банзая, вы положительно отличились и получили в награду за службу одну из сокровищ команды Банзая - Hatchetman.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_banzai.Description.Details</t>
+  </si>
+  <si>
+    <t>"[[DM.BaseDescriptionDefs[LoreTeamBanzai],Team Banzai]] has the nicest toys!\nQuirks: [[DM.BaseDescriptionDefs[QuirkGladiator],Gladiator]], [[DM.BaseDescriptionDefs[QuirkPainShunt],Pain Shunt]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Neural Implants]]\nUnit: random [[DM.BaseDescriptionDefs[LoreHatchetmanRT],Hatchetman]]"</t>
+  </si>
+  <si>
+    <t>"[[DM.BaseDescriptionDefs[LoreTeamBanzai],Команда Банзай]] имеет самые классные игрушки!\nСклонности: [[DM.BaseDescriptionDefs[QuirkGladiator],Гладиатор]], [[DM.BaseDescriptionDefs[QuirkPainShunt],Шунтирование]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Нейроимплантанты]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreHatchetmanRT],Hatchetman]]"</t>
+  </si>
+  <si>
+    <t>background_career_banzai.Description.Name</t>
+  </si>
+  <si>
+    <t>"Team Banzai Test Pilot"</t>
+  </si>
+  <si>
+    <t>"Пилот-испытатель команды Банзая"</t>
+  </si>
+  <si>
+    <t>background_career_banzai.OptionDescription</t>
+  </si>
+  <si>
+    <t>"Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>"Устав жить под чужим гнетом, вы примкнули к местной пиратской банде в [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Это была неуправляемая, но эффективная команда - бродя по Периферии, вы могли постоянно нападать на плохо защищенные торговые караваны и склады снабжения. Хотя рейды иногда перерастали в бои, вы быстро поняли, что для успешного пиратства нужно оказаться в нужном месте, в нужное время, с нужными угрозами и хорошей демонстрацией силы.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>background_career_banzai.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_freelancer.BioDescription</t>
+  </si>
+  <si>
+    <t>"Desperate to escape your past, you roamed the Rimward Periphery as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you have been able to eke out a decent living thus far.\r\n"</t>
+  </si>
+  <si>
+    <t>"Отчаянно желая убежать от своего прошлого, вы скитались по Окраинной Периферии как фрилансер, подписываясь на любое мало-мальское дело, что можно было найти для мехвоина. И параллельно с привыканием к странствующему образу жизни, вы обнаружили, что от такой жизни в кармане лишь тяжелеет.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_freelancer.Description.Details</t>
+  </si>
+  <si>
+    <t>"Someone always needs some work done.\nQuirks: [[DM.BaseDescriptionDefs[QuirkDrunk],Drunk]], [[DM.BaseDescriptionDefs[QuirkReckless],Reckless]]\nUnit: random [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]]"</t>
+  </si>
+  <si>
+    <t>"Всегда нужен тот, кто берёт и делает.\nСклонности: [[DM.BaseDescriptionDefs[QuirkDrunk],Пьянь]], [[DM.BaseDescriptionDefs[QuirkReckless],Безрассудство]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]]"</t>
+  </si>
+  <si>
+    <t>background_career_freelancer.Description.Name</t>
+  </si>
+  <si>
+    <t>"Freelancer"</t>
+  </si>
+  <si>
+    <t>"Фрилансер"</t>
+  </si>
+  <si>
+    <t>background_career_freelancer.OptionDescription</t>
+  </si>
+  <si>
+    <t>"You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>"Вы скитались по [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]] в качестве фрилансера, подписываясь на любые контракты в качестве наемного мехвоина. Это была одинокая жизнь. Но когда вы освоились с кочующим образом жизни, вы обнаружили, что можете прилично зарабатывать, помогая жителям приграничья.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>background_career_freelancer.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_gladiator.BioDescription</t>
+  </si>
+  <si>
+    <t>"Eager to escape your past, you took your Blackjack and your skills as a MechWarrior to the famed arena planet of Solaris VII. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\r\n"</t>
+  </si>
+  <si>
+    <t>"Стремясь убежать от своего прошлого, вы взяли свой Blackjack и свои навыки мехвоина на знаменитую планету-арену Солярис VII. Там вы зарабатывали на жизнь как гладиатор, сражаясь для публики на небольших аренах, перебиваясь от чека до чека.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_gladiator.Description.Details</t>
+  </si>
+  <si>
+    <t>"A [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris 7]] Gladiator, ready to rumble.\nQuirks: [[DM.BaseDescriptionDefs[QuirkGladiator],Gladiator]], [[DM.BaseDescriptionDefs[QuirkHonest],Honest]]\nEquipment: assorted [[DM.BaseDescriptionDefs[StarterBundleGladiator],gladiator equipment]]."</t>
+  </si>
+  <si>
+    <t>"Гладиатор [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris 7]], готовый к бою.\nСклонности: [[DM.BaseDescriptionDefs[QuirkGladiator], Гладиатор]], [[DM.BaseDescriptionDefs[QuirkHonest], Честный]]\nЭкипировка: набор [[DM.BaseDescriptionDefs[StarterBundleGladiator], гладиаторского снаряжения]]."</t>
+  </si>
+  <si>
+    <t>background_career_gladiator.Description.Name</t>
+  </si>
+  <si>
+    <t>"Solaris Gladiator"</t>
+  </si>
+  <si>
+    <t>"Гладиатор Соляриса"</t>
+  </si>
+  <si>
+    <t>background_career_gladiator.OptionDescription</t>
+  </si>
+  <si>
+    <t>"You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
+  </si>
+  <si>
+    <t>"Вы отправились на знаменитую планету-арену [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. Там вы зарабатывали на жизнь как гладиатор, сражаясь для толпы на небольших аренах, перебиваясь от чека до чека.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
+  </si>
+  <si>
+    <t>background_career_gladiator.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_infantry.BioDescription</t>
+  </si>
+  <si>
+    <t>"Following a disastrous mission that saw the rest of your unit all but wiped out, you picked up what was left to start anew. It wasn't easy as a lone battlesuit trooper, but you had experience and grit enough to make a name for yourself and pull a company together.\r\n"</t>
+  </si>
+  <si>
+    <t>"После катастрофы на одной из миссий, в ходе которой остатки вашего подразделения были практически стёрты с лица земли, вы подобрали то, что осталось, чтобы начать все заново. Одинокому бойцу в боевой броне пришлось нелегко, но у вас хватило опыта и упорства, чтобы сделать себе имя и собрать компанию воедино.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_infantry.Description.Details</t>
+  </si>
+  <si>
+    <t>"For a battle armor pilot, war always brings a paycheck.\nQuirks: [[DM.BaseDescriptionDefs[QuirkBrave],Brave]], [[DM.BaseDescriptionDefs[QuirkDependable],Dependable]].\nUnit: random [[DM.BaseDescriptionDefs[ConceptBattleArmor],battle armor]] squad\nEquipment: assorted battle armor weapons"</t>
+  </si>
+  <si>
+    <t>"Для пилота боевой брони война всегда приносит зарплату.\nСклонности: [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]], [[DM.BaseDescriptionDefs[QuirkDependable],Надёжность]].\nЮнит: случайный отряд [[DM.BaseDescriptionDefs[ConceptBattleArmor], в боевой броне]]\nОснащение: различное оружие для боевой брони"</t>
+  </si>
+  <si>
+    <t>background_career_infantry.Description.Name</t>
+  </si>
+  <si>
+    <t>"Battlesuit Infantry"</t>
+  </si>
+  <si>
+    <t>"Боевая пехота"</t>
+  </si>
+  <si>
+    <t>background_career_infantry.OptionDescription</t>
+  </si>
+  <si>
+    <t>"Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
+  </si>
+  <si>
+    <t>"Не будучи уверенным в своих перспективах, вы отправились в [[DM.BaseDescriptionDefs[LoreCoromodir]],Коромодир]], столицу [[DM.BaseDescriptionDefs[LoreAuriganCoalition]],Ауриганской коалиции]], и поступили на службу в армию Коалиции. Вы быстро поднялись по служебной лестнице, отличившись как надежный мехвоин. Жизнь солдата не была гламурной, но она вас вполне устраивала.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
+  </si>
+  <si>
+    <t>background_career_infantry.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_inheritor.BioDescription</t>
+  </si>
+  <si>
+    <t>"You took to plying yourself as a mercenary and found yourself traveling the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]. While you're not the best pilot, you've been lucky enough to make it this far and a gift from a distant relative might prove to be the break you were looking for.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы стали наемником и пустились в путешествие по [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сфере]]. Хотя вы и не самый лучший пилот, вам в достаточной мере везло проделать такой путь, а ещё подарок от дальнего родственника может оказаться именно тем переломным моментом, который вы искали.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_inheritor.Description.Details</t>
+  </si>
+  <si>
+    <t>"It belonged in a museum, but now it's yours.\nQuirks: [[DM.BaseDescriptionDefs[QuirkLucky],Lucky]], [[DM.BaseDescriptionDefs[QuirkNoble],Noble]]\nUnit: random rare 'Mech"</t>
+  </si>
+  <si>
+    <t>"Ему место в музее, но теперь он ваш.\nСклонности: [[DM.BaseDescriptionDefs[QuirkLucky],Удача]], [[DM.BaseDescriptionDefs[QuirkNoble],Аристократия]]\nЮнит: случайный редкий мех"</t>
+  </si>
+  <si>
+    <t>background_career_inheritor.Description.Name</t>
+  </si>
+  <si>
+    <t>"Inheritor"</t>
+  </si>
+  <si>
+    <t>"Наследник"</t>
+  </si>
+  <si>
+    <t>background_career_inheritor.OptionDescription</t>
+  </si>
+  <si>
+    <t>"It may have been years since you last spoke to your great-uncle but you must have left an impression or you were simply the only one left in the family. While his passing didn't leave you with his money; it did leave you with some information on his business contacts, his prized 'Mech freshly pulled out of mothballs, and a request to make a name for yourself."</t>
+  </si>
+  <si>
+    <t>"Прошли годы с тех пор, как вы в последний раз общались со своим двоюродным дедом, но вы, должно быть, оставили о себе хорошее впечатление или просто были единственным, кто остался в семье. Хотя его смерть не принесла вам его денег, она оставила вам некоторую информацию о его деловых контактах, его наградной мех, только что вытащенный из нафталина, и наказ прославиться."</t>
+  </si>
+  <si>
+    <t>background_career_inheritor.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_mercenary.BioDescription</t>
+  </si>
+  <si>
+    <t>"Eager to get away from your past and make a name for yourself, you joined up with a minor mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\r\n"</t>
+  </si>
+  <si>
+    <t>"Стремясь уйти от прошлого и заявить о себе, вы присоединились к небольшому подразделению наемников. Интеграция в сплоченную команду заняла некоторое время, но в конце концов вы доказали свою состоятельность и стали частью семьи.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_mercenary.Description.Details</t>
+  </si>
+  <si>
+    <t>"For a seasoned mercenary, war pays well.\nQuirks: [[DM.BaseDescriptionDefs[QuirkAthletic],Athletic]], [[DM.BaseDescriptionDefs[QuirkMechWarrior],MechWarrior]]\nUnit: random [[DM.BaseDescriptionDefs[StarterBundleMercenary],advanced unit]]&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>"Для опытного наемника война хорошо оплачивается.\nСклонности: [[DM.BaseDescriptionDefs[QuirkAthletic],Атлетичность]], [[DM.BaseDescriptionDefs[QuirkMechWarrior],Мехвоин]]\nЮнит: случайный [[DM.BaseDescriptionDefs[StarterBundleMercenary],продвинутый юнит]]"</t>
+  </si>
+  <si>
+    <t>background_career_mercenary.Description.Name</t>
+  </si>
+  <si>
+    <t>"Mercenary"</t>
+  </si>
+  <si>
+    <t>"Наёмник"</t>
+  </si>
+  <si>
+    <t>background_career_mercenary.OptionDescription</t>
+  </si>
+  <si>
+    <t>"Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>"Стремясь уйти ото всего этого, вы присоединились к небольшому наёмному подразделению [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]]. Интеграция в сплоченную команду заняла какое-то время, но в итоге вы доказали свою состоятельность и стали частью семьи.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>background_career_mercenary.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_merchant_guard.BioDescription</t>
+  </si>
+  <si>
+    <t>"You've spent most of your lift running some kind of grift. Hell, even getting MechWarrior training was something of a happy accident. A shame that your Lyran mentor at the time wasn't too thrilled when you tried to pay him D-Bills. Once all that was settled (it wasn't), you left (fled) your way to brighter prospects, sprinkling a little cash here and there to grease the wheels and buy your way to the head of a small mercenary company. What is it they say? War is business?\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы потратили большую часть своих подъёмных проворачивая различные аферы. Черт, да даже попадание в программу подготовки мехвоинов было чем-то вроде счастливой случайности. Жаль только, что ваш лиранский наставник был не особо рад, когда вы попытались заплатить ему не Це-Биллами, а Де-Биллами. Но когда всё утряслось (не утряслось), вы оставили (сбежали) свой криминальный путь ради более ярких перспектив, подкидывая деньжат тут и там, чтобы «смазать колёса» и купить себе путь к месту главы небольшого наемного подразделения. Как там говорится? Война - это бизнес?\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_merchant_guard.Description.Details</t>
+  </si>
+  <si>
+    <t>"There's always money in the banana stand.\nQuirks: [[DM.BaseDescriptionDefs[QuirkDishonest],Dishonest]], [[DM.BaseDescriptionDefs[QuirkMerchant],Merchant]]\nEquipment: 3 million [[DM.BaseDescriptionDefs[LoreCBill],C-Bills]] (or local equivalent)"</t>
+  </si>
+  <si>
+    <t>"В ларьке с горячими пирожками всегда есть деньги.\nСклонности: [[DM.BaseDescriptionDefs[QuirkDishonest],Непорядочность]], [[DM.BaseDescriptionDefs[QuirkMerchant],Торговец]]\nОборудование: 3 миллиона [[DM.BaseDescriptionDefs[LoreCBill],C-Bills]] (или местный эквивалент)"</t>
+  </si>
+  <si>
+    <t>background_career_merchant_guard.Description.Name</t>
+  </si>
+  <si>
+    <t>"Very Legitimate Merchant"</t>
+  </si>
+  <si>
+    <t>"Очень законопослушный торговец"</t>
+  </si>
+  <si>
+    <t>background_career_merchant_guard.OptionDescription</t>
+  </si>
+  <si>
+    <t>"You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
+  </si>
+  <si>
+    <t>"Вы поступили на работу охранником в небольшую гильдию торговцев, обеспечивая безопасность их караванов, совершавших торговые рейсы между [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферой]] и [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Периферией]]. Это была в основном безмятежная жизнь, но вам также удалось применить свои навыки мехвоина в случайных стычках с пиратами и несговорчивыми местными властями.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
+  </si>
+  <si>
+    <t>background_career_merchant_guard.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_pirate.BioDescription</t>
+  </si>
+  <si>
+    <t>"The school of hard knocks is for people who think that the only way to the top of the food chain is brute force. Officer training school is for the people who &lt;i&gt;know&lt;/i&gt; the only way to the top of the food chain is brute force &lt;i&gt;applied by people under your command&lt;/i&gt;. You graduated, did a brief stint in the organised military, dropped out, had a jaunt through the private sector, and now you find yourself at the head of your own mercenary company, with a whole slew of people ready to do the brute force for you.\r\n"</t>
+  </si>
+  <si>
+    <t>"Школа тяжелых ударов - для тех, кто считает, что единственный путь к вершине пищевой цепи - это грубая сила. Школа подготовки офицеров - для тех, кто знает, что единственный путь к вершине пищевой цепи - это грубая сила, применяемая людьми под твоим командованием. Вы закончили школу, немного послужили в вооруженных силах, бросили, поработали в частном секторе, а теперь оказались во главе собственной компании наемников, с целым штатом людей, готовых применить грубую силу вместо вас.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_pirate.Description.Details</t>
+  </si>
+  <si>
+    <t>"Somebody's gotta keep the kids in line.\nQuirks: [[DM.BaseDescriptionDefs[QuirkCommand],Commander]], [[DM.BaseDescriptionDefs[QuirkOfficer],Officer]]\nUnit: choice of [[DM.BaseDescriptionDefs[StarterBundleOfficer],Command Vehicle]]"</t>
+  </si>
+  <si>
+    <t>"Кто-то должен держать детей в узде.\nСклонности: [[DM.BaseDescriptionDefs[QuirkCommand],Командующий]], [[DM.BaseDescriptionDefs[QuirkOfficer],Офицер]]\nЮнит: [[DM.BaseDescriptionDefs[StarterBundleOfficer],Командный транспорт]]"</t>
+  </si>
+  <si>
+    <t>background_career_pirate.Description.Name</t>
+  </si>
+  <si>
+    <t>"Officer"</t>
+  </si>
+  <si>
+    <t>"Офицер"</t>
+  </si>
+  <si>
+    <t>background_career_pirate.OptionDescription</t>
+  </si>
+  <si>
+    <t>background_career_pirate.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_protomech.BioDescription</t>
+  </si>
+  <si>
+    <t>"In the Clans' mad scramble to find suitable pilots for the ProtoMech project, you were among those selected for experimentation. While you failed to meet the frankly absurd conditions of the program, you became adept at piloting the unusual machines. Discarded once you were deemed useless, you took to the great expanse of space and landed yourself a comfortable job at the head of a mercenary company, ready to put your unconventional skills to use.\r\n"</t>
+  </si>
+  <si>
+    <t>"В ходе отчаянных поисков подходящих пилотов для проекта «Протомех» вы оказались в числе тех, кто был отобран для экспериментов. Несмотря на несоблюдение откровенно абсурдных условий программы, вы стали искусным пилотом этих необычных машин. Но когда вы перестали быть нужным, от вас избавились, и вы отправились покорять просторы космоса и нашли себе подходящую работу главы компании наёмников, место, где ваши нестандартные навыки вновь пойдут в дело.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_protomech.Description.Details</t>
+  </si>
+  <si>
+    <t>"They're 'Mechs! But &lt;i&gt;smaller!&lt;/i&gt;\nQuirks: [[DM.BaseDescriptionDefs[QuirkMechWarrior],MechWarrior]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Neural Implants]]\nUnit: random [[DM.BaseDescriptionDefs[ConceptProtoMech],ProtoMech]]"</t>
+  </si>
+  <si>
+    <t>"Это мехи! Но маленькие!\nСклонности: [[DM.BaseDescriptionDefs[QuirkMechWarrior],Мехвоин]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Нейроимплантаты]]\nЮнит: случайный [[DM.BaseDescriptionDefs[ConceptProtoMech],протомех]]"</t>
+  </si>
+  <si>
+    <t>background_career_protomech.Description.Name</t>
+  </si>
+  <si>
+    <t>"ProtoMech Test Subject"</t>
+  </si>
+  <si>
+    <t>"Испытатель протомехов"</t>
+  </si>
+  <si>
+    <t>background_career_protomech.OptionDescription</t>
+  </si>
+  <si>
+    <t>"You were an attempt by the science caste to convert a mechwarrior to a protomech pilot."</t>
+  </si>
+  <si>
+    <t>"Вы были попыткой касты учёных превратить мехвоина в пилота протомеха."</t>
+  </si>
+  <si>
+    <t>background_career_protomech.OptionName</t>
+  </si>
+  <si>
+    <t>"ProtoMech Pilot Test Subject"</t>
+  </si>
+  <si>
+    <t>"Пилот-испытатель протомехов"</t>
+  </si>
+  <si>
+    <t>background_career_soldier.BioDescription</t>
+  </si>
+  <si>
+    <t>"You signed up for your local militia as soon as you came of age. While it wasn't glamorous, the life of a soldier suited you just fine. Things took a turn for the worse several years deep, however, and you found yourself burnt out on a gruelling campaign against local pirates who were conspicuously more armed than intelligence would've had you believe. You toughed through it, but swore you'd never commit to ops that you weren't in control of any longer, and founded your own mercenary company far away from the little speck you once called home.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы записались в местное ополчение, как только достигли совершеннолетия. Жизнь солдата не была гламурной, но вполне устраивала вас. Однако через несколько лет все пошло наперекосяк, и вы поняли, что перегорели, во время изнурительной кампании против местных пиратов, которые оказались вооружены гораздо лучше, чем можно было предположить по данным разведки. Вы выстояли, но поклялись, что больше никогда не будете участвовать в операциях, которые не контролируете, и основали собственную компанию наемников, подальше от маленького городка, который вы когда-то звали домом.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_soldier.Description.Details</t>
+  </si>
+  <si>
+    <t>"War. War never changes. But, by God, do we wish it did.\nQuirks: [[DM.BaseDescriptionDefs[QuirkBrave],Brave]], [[DM.BaseDescriptionDefs[QuirkMilitary],Ex-Military]]\nEquipment: assorted [[DM.BaseDescriptionDefs[StarterBundleSoldier],LosTech weaponry]]"</t>
+  </si>
+  <si>
+    <t>"Война. Война никогда не меняется. Но, ей-богу, лучше бы она изменилась.\nСклонности: [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]], [[DM.BaseDescriptionDefs[QuirkMilitary],Бывший военный]]\nЭкипировка: набор [[DM.BaseDescriptionDefs[StarterBundleSoldier],лостех оружия]]"</t>
+  </si>
+  <si>
+    <t>background_career_soldier.Description.Name</t>
+  </si>
+  <si>
+    <t>"Enlisted MechWarrior"</t>
+  </si>
+  <si>
+    <t>"Солдат"</t>
+  </si>
+  <si>
+    <t>background_career_soldier.OptionDescription</t>
+  </si>
+  <si>
+    <t>background_career_soldier.OptionName</t>
+  </si>
+  <si>
+    <t>background_career_veteran.BioDescription</t>
+  </si>
+  <si>
+    <t>"Through many years of exceptional service, you found yourself shortlisted for a strike against Clan Smoke Jaguar - Operation DAMOCLES. Along with three other Second Star League veterans, you fought your way through the Smoke Jaguar chain of command, salvaging what 'Mechs you could along the way. In the final confrontation with the would-be leader of the Clan, your salvaged 'Mech was destroyed, but you were ultimately successful. Now, with your Bushwacker in tow, you think it's time for something a little quieter.\r\n"</t>
+  </si>
+  <si>
+    <t>"Благодаря многолетней службе вы попали в список участников операции «ДАМОКЛ», направленной против клана Дымчатого Ягуара. Вместе с тремя другими ветеранами Второй Звездной Лиги вы пробились через командный состав Дымчатого Ягуара, забирая по пути все возможные мехи. В финальной схватке с предполагаемым лидером клана, ваш трофейный мех был уничтожен, но в итоге вы победили. Теперь, со своим Bushwacker на буксире, вы считаете, что настало время для чего-то более спокойного.\r\n"</t>
+  </si>
+  <si>
+    <t>background_career_veteran.Description.Details</t>
+  </si>
+  <si>
+    <t>"You survived [[DM.BaseDescriptionDefs[LoreDAMOCLES],Operation DAMOCLES]]. The rest is child's play.\nQuirks: [[DM.BaseDescriptionDefs[QuirkMilitary],Ex-Military]], [[DM.BaseDescriptionDefs[QuirkLucky],Lucky]]\nUnit: random [[DM.BaseDescriptionDefs[LoreBushwacker],Bushwacker]]"</t>
+  </si>
+  <si>
+    <t>"Вы выжили в [[DM.BaseDescriptionDefs[LoreDAMOCLES],Операции «ДАМОКЛ»]]. Всё остальное теперь - детские игры.\nСклонности: [[DM.BaseDescriptionDefs[QuirkMilitary],Бывший военный]], [[DM.BaseDescriptionDefs[QuirkLucky],Везение]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreBushwacker],Bushwacker]]"</t>
+  </si>
+  <si>
+    <t>background_career_veteran.Description.Name</t>
+  </si>
+  <si>
+    <t>"Commando Veteran"</t>
+  </si>
+  <si>
+    <t>"Ветеран спецназа"</t>
+  </si>
+  <si>
+    <t>background_career_veteran.OptionDescription</t>
+  </si>
+  <si>
+    <t>background_career_veteran.OptionName</t>
+  </si>
+  <si>
+    <t>background_youth_accident.BioDescription</t>
+  </si>
+  <si>
+    <t>"When you were young, you were always fascinated with space. Either you spent your life amongst the stars, or you wished you could.\r\n"</t>
+  </si>
+  <si>
+    <t>"Ещё с юности вы были очарованы космосом. Вы либо провели свою жизнь среди звезд, либо мечтали об этом.\r\n"</t>
+  </si>
+  <si>
+    <t>background_youth_accident.Description.Details</t>
+  </si>
+  <si>
+    <t>"Space has always called to you.\nQuirks: [[DM.BaseDescriptionDefs[QuirkHonest],Honest]], [[DM.BaseDescriptionDefs[QuirkSpacer],Spacer]]"</t>
+  </si>
+  <si>
+    <t>"Космос всегда влек вас.\nСклонности: [[DM.BaseDescriptionDefs[QuirkHonest],Честность]], [[DM.BaseDescriptionDefs[QuirkSpacer],Космонавт]]"</t>
+  </si>
+  <si>
+    <t>background_youth_accident.Description.Name</t>
+  </si>
+  <si>
+    <t>"Space"</t>
+  </si>
+  <si>
+    <t>"Космос"</t>
+  </si>
+  <si>
+    <t>background_youth_accident.OptionDescription</t>
+  </si>
+  <si>
+    <t>"The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.\r\n\r\nAfter selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>"Остальные члены вашей семьи погибли в результате несчастного случая на [[DM.BaseDescriptionDefs[LoreJumpShip],прыгуне]], после которого вы обнаружили, что они не оставили после себя ничего, кроме кучи долгов.\r\n\r\nПродав все, чтобы расплатиться с долгами, вы отправились в самостоятельное плавание, имея в распоряжении только родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]].\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>background_youth_accident.OptionName</t>
+  </si>
+  <si>
+    <t>background_youth_bankrupt.BioDescription</t>
+  </si>
+  <si>
+    <t>"For almost all your life, you've been drawn to games of chance. Be it simple monetary gambling, or risking your life on the field of battle.\r\n"</t>
+  </si>
+  <si>
+    <t>"Почти всю жизнь вас привлекали азартные игры, будь то простая денежная игра или риск расстаться с жизнью на поле боя.\r\n"</t>
+  </si>
+  <si>
+    <t>background_youth_bankrupt.Description.Details</t>
+  </si>
+  <si>
+    <t>"You and old Lady Luck have a complicated relationship.\nQuirks: [[DM.BaseDescriptionDefs[QuirkJinxed],Jinxed]], [[DM.BaseDescriptionDefs[QuirkLucky],Lucky]]"</t>
+  </si>
+  <si>
+    <t>"У вас со старушкой госпожой Удачей сложные отношения.\nСклонности: [[DM.BaseDescriptionDefs[QuirkJinxed],Невезение]], [[DM.BaseDescriptionDefs[QuirkLucky],Везение]]"</t>
+  </si>
+  <si>
+    <t>background_youth_bankrupt.Description.Name</t>
+  </si>
+  <si>
+    <t>"Gambler"</t>
+  </si>
+  <si>
+    <t>"Азартный игрок"</t>
+  </si>
+  <si>
+    <t>background_youth_bankrupt.OptionDescription</t>
+  </si>
+  <si>
+    <t>"As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.\r\n\r\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>"По мере взросления, вы наблюдали, как состояние, доход и влияние вашей семьи постепенно уменьшались - пока не осталось ничего. Ваши родители, доведенные до отчаяния, покончили с собой.\r\n\r\nНе имея ничего, кроме родового [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]], вы отправились искать новой жизни для себя.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>background_youth_bankrupt.OptionName</t>
+  </si>
+  <si>
+    <t>"Gambling"</t>
+  </si>
+  <si>
+    <t>"Азартные игры"</t>
+  </si>
+  <si>
+    <t>background_youth_betrayed.BioDescription</t>
+  </si>
+  <si>
+    <t>"In your spare time, you used to live and breathe technology. Whether you were tinkering with various systems, or scouring through every TechManual under the sun, you always found the technology that made the universe ticks to be fascinating.\r\n"</t>
+  </si>
+  <si>
+    <t>"В свое свободное время вы жили и дышали технологиями. Возились ли вы с электроникой или перечитывали все технические руководства, что видел свет, вы всегда находили технологии, что заставляют вселенную работать, увлекательными.\r\n"</t>
+  </si>
+  <si>
+    <t>background_youth_betrayed.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hardware and software both have always seemed so simple.\nQuirks: [[DM.BaseDescriptionDefs[QuirkLosTech],LosTech Experience]], [[DM.BaseDescriptionDefs[QuirkTech],Technician]]"</t>
+  </si>
+  <si>
+    <t>"Аппаратное и программное обеспечение всегда давались легко.\nСклонности: [[DM.BaseDescriptionDefs[QuirkLosTech],Знаток лостеха]], [[DM.BaseDescriptionDefs[QuirkTech],Тех]]"</t>
+  </si>
+  <si>
+    <t>background_youth_betrayed.Description.Name</t>
+  </si>
+  <si>
+    <t>"Tech"</t>
+  </si>
+  <si>
+    <t>"Техника"</t>
+  </si>
+  <si>
+    <t>background_youth_betrayed.OptionDescription</t>
+  </si>
+  <si>
+    <t>"Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.\r\n\r\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>"Вашу семью предали и лишили власти. Вы одолели предателей, но были единственным выжившим членом вашего дома. \r\n\r\nИмея при себе только фамильный [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]], вы отправились искать новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
+    <t>background_youth_betrayed.OptionName</t>
+  </si>
+  <si>
+    <t>"Technology"</t>
+  </si>
+  <si>
+    <t>background_youth_exile.BioDescription</t>
+  </si>
+  <si>
+    <t>"You have ever been looking to the past, perhaps to a fault. Any period of history, be it pre-spaceflight or as recent as the Age of War, has always piqued your interest. Despite not having a formal education in the field, your knowledge of some eras rivals even the most accredited historians.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы всегда стремились в прошлое, возможно, даже очень. Любой период истории, будь то до космических полетов или совсем недавняя Эра войн, всегда вызывала у вас интерес. Несмотря на отсутствие формального образования в этой области, ваши знания о некоторых эрах превосходят знания даже самых признанных историков.\r\n"</t>
+  </si>
+  <si>
+    <t>background_youth_exile.Description.Details</t>
+  </si>
+  <si>
+    <t>"A long time ago, you used to read of times long ago.\nQuirks: [[DM.BaseDescriptionDefs[QuirkBookish],Bookish]], [[DM.BaseDescriptionDefs[QuirkLosTech],LosTech Experience]]"</t>
+  </si>
+  <si>
+    <t>"Давным-давно вы читали о временах давно минувших.\nСклонности: [[DM.BaseDescriptionDefs[QuirkBookish],Любовь к книгам]], [[DM.BaseDescriptionDefs[QuirkLosTech],Знаток лостеха]]"</t>
+  </si>
+  <si>
+    <t>background_youth_exile.Description.Name</t>
+  </si>
+  <si>
+    <t>"History"</t>
+  </si>
+  <si>
+    <t>"История"</t>
+  </si>
+  <si>
+    <t>background_youth_exile.OptionDescription</t>
+  </si>
+  <si>
+    <t>"Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.\r\n\r\nYou stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>"Когда-то вы были многообещающим молодым отпрыском своей семьи, но совершили непростительный проступок и были приговорены к пожизненному изгнанию.\r\n\r\nВы похитили родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] и отправились на поиски новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>background_youth_exile.OptionName</t>
+  </si>
+  <si>
+    <t>background_youth_loner.BioDescription</t>
+  </si>
+  <si>
+    <t>"In your youth, while others your age had myriad interests, you fought tooth and nail to justify your own existence. Life was tough, so you had to be tougher.\r\n"</t>
+  </si>
+  <si>
+    <t>"В молодости, когда у других людей вашего возраста был миллиард различных увлечений, вы упорно боролись за свое существование. Жизнь была суровой, а вам приходилось быть ещё суровее.\r\n"</t>
+  </si>
+  <si>
+    <t>background_youth_loner.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hobbies were a luxury you could not afford to have.\nQuirks: [[DM.BaseDescriptionDefs[QuirkAssassin],Assassin]], [[DM.BaseDescriptionDefs[QuirkBrave],Brave]]"</t>
+  </si>
+  <si>
+    <t>"Хобби - это роскошь, которую вы не могли себе позволить.\nСклонности: [[DM.BaseDescriptionDefs[QuirkAssassin],Ассасин]], [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]]"</t>
+  </si>
+  <si>
+    <t>background_youth_loner.Description.Name</t>
+  </si>
+  <si>
+    <t>"Loner"</t>
+  </si>
+  <si>
+    <t>"Одиночка"</t>
+  </si>
+  <si>
+    <t>background_youth_loner.OptionDescription</t>
+  </si>
+  <si>
+    <t>"As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.\r\n\r\nFinally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>"Будучи наследником знатной семьи, вы росли ни в чем не нуждаясь. И, как выяснилось... вы не смогли вынести изнеженной дворянской жизни.\r\n\r\nВ итоге, однажды ночью вы украли родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] и отправились на поиски новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
+    <t>background_youth_loner.OptionName</t>
+  </si>
+  <si>
+    <t>"Survival"</t>
+  </si>
+  <si>
+    <t>"Выживач"</t>
+  </si>
+  <si>
+    <t>backgroundquestion_ancestry.Description.Name</t>
+  </si>
+  <si>
+    <t>"You were born in..."</t>
+  </si>
+  <si>
+    <t>"Вы родились в..."</t>
+  </si>
+  <si>
+    <t>backgroundquestion_career.Description.Name</t>
+  </si>
+  <si>
+    <t>"Coming of age you choose the career of..."</t>
+  </si>
+  <si>
+    <t>"Повзрослев, вы выбрали карьеру..."</t>
+  </si>
+  <si>
+    <t>backgroundquestion_youth.Description.Name</t>
+  </si>
+  <si>
+    <t>"In your youth you had interest in..."</t>
+  </si>
+  <si>
+    <t>"В молодости, вы всегда интересовались..."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventBanzai.Description.Details</t>
+  </si>
+  <si>
+    <t>"You Reall worked with Dr. Banzai and they even gave you one these fine toys?."</t>
+  </si>
+  <si>
+    <t>"Вы действительно работали с Dr. Banzai? И они даже дали вам одну из их прекрасных игрушек?"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventBanzai.Description.Name</t>
+  </si>
+  <si>
+    <t>"Commander Gear"</t>
+  </si>
+  <si>
+    <t>"Командирское снаряжение"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventBanzai.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>"proceed"</t>
+  </si>
+  <si>
+    <t>"продолжить"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventBanzai.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Go check out your 'Mech."</t>
+  </si>
+  <si>
+    <t>"Вперёд, зацени свой мех."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventBanzai.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"With that grin still on your face, you follow Yang to the 'Mech Bay. It's sure been a while since you saw your 'Mech."</t>
+  </si>
+  <si>
+    <t>"С ухмылкой на лице вы следуете за Яном в ангар мехов. Давненько уже вы не видели свой мех."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventBanzai.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"CommanderGearLoot"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventCorsair.Description.Details</t>
+  </si>
+  <si>
+    <t>"Tally-ho thats some fine stashed loot ya got here, Boss."</t>
+  </si>
+  <si>
+    <t>"Хо-хо! Поглядите-ка, а тут у нас приличная добыча припрятана, кэп."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventCorsair.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventCorsair.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>"Lets open the toys."</t>
+  </si>
+  <si>
+    <t>"Давайте-ка заценим игрушки."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventCorsair.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Make it so."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventCorsair.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"You nod in the affirmative. \"Sounds good to me. Let's see exactly what old Bobbert was throwing at us.\"\n\nReadying the 'Mech takes another few hours, as Yang tosses out wrecked components and complains about \"inelegant\" workmanship. The irony is apparently lost on him as he crams the chassis full of rat's nests of his own design."</t>
+  </si>
+  <si>
+    <t>"Вы утвердительно киваете. «Звучит хорошо. Давайте конкретно взглянем на то, что именно подкинул нам старина Бобберт.»\n\nПодготовка меха занимает еще несколько часов, за это время Ян избавился от нескольких разбитых компонентов и проел все уши про «неэлегантное качество сборки». Ирония ситуации, по-видимому, ускользнула от него, пока он продолжал начинять шасси самодельными поделками."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventCorsair.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFreelancer.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. Your Hunchback was pretty shot up but we've got it back in working Order, best go over and check it's right."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. Ваш Hunchback был в довольно плачевном состоянии, но мы привели его в порядок. Лучше зайдите посмотрите сами."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFreelancer.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFreelancer.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFreelancer.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"To the 'Mech Bay!"</t>
+  </si>
+  <si>
+    <t>"В ангар мехов!"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFreelancer.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"You follow Yang to the 'Mech Bay as he rattles off all the advanced techniques and procedures used to restore your 'Mech to fighting shape."</t>
+  </si>
+  <si>
+    <t>"Пока вы следуете за Яном в ангар мехов, тот почти успел перечислить все передовые методы и процедуры, используемые для восстановления вашего меха до боевой формы."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFreelancer.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. Thats some juicy toys you got off-planet here."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. Неплохие такие игрушки вы прихватили с планеты."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"You were \"Dragonforce\"! You were known for using &lt;b&gt;handheld flamers&lt;/b&gt; and &lt;b&gt;industrial TSM&lt;/b&gt;."</t>
+  </si>
+  <si>
+    <t>"Вас прозвали «Сила дракона»! Вы были известны тем, что использовали ручные огнемёты и промышленные миомеры тройной силы."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"As you make your way down to the cargo bays, you open up a little more to Yang about your past, including your callsign and who your main rivals were.\n\n\"That was you?\" he asks, somewhat bewildered. \"Well, I can see why you moved on.\""</t>
+  </si>
+  <si>
+    <t>"Когда вы спускаетесь в грузовые отсеки, вы рассказываете Яну немного больше о своем прошлом, включая ваш позывной и то, кем были ваши главные соперники.\n\n«Так это были вы?» - спросил он, несколько озадаченный. «Что ж, понятно, почему вы ушли.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"You were \"Slayer\"! Your signatures were &lt;b&gt;large melee weapons&lt;/b&gt;, made possible by use of &lt;b&gt;TSM&lt;/b&gt;."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_2.Options2.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_2.Options2.Name</t>
+  </si>
+  <si>
+    <t>"You were \"Iron Maiden\"! Your 'Mechs were adorned with &lt;b&gt;spiked armor&lt;/b&gt; and fitted with &lt;b&gt;MASC&lt;/b&gt;."</t>
+  </si>
+  <si>
+    <t>"Вас прозвали «Железной девой»! Ваши мехи были украшены шипастой бронёй и снабжены MASC."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_2_0.Options2.0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_2_0.Options2.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_3.Options3.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_3.Options3.Name</t>
+  </si>
+  <si>
+    <t>"You were \"Megadeth\"! Your 'Mech carried &lt;b&gt;Thunderbolt missiles&lt;/b&gt;."</t>
+  </si>
+  <si>
+    <t>"Вас прозвали «Мегасмерть»! Ваш мех был вооружён ракетами Thunderbolt."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_3_0.Options3.0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventGladiator.outcome_3_0.Options3.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInfantry.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInfantry.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Check out the new toys."</t>
+  </si>
+  <si>
+    <t>"Заценить новые игрушки."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInfantry.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"You follow Yang down to the cargo bays, passing MechTechs hurrying in the other direction on various jobs.\n\n\"Y'know, Boss,\" Yang begins as you round a corner, \"I've always wondered why an infantryman would want to lead a group of Mechjocks. Haven't you spent the last few years tryin' to avoid being stepped on by 'em?\"\n\nYou blink at the unexpected question, taking some time to mull it over. \"I guess I just wanted to turn the tables. Now I'm the one higher up and they're the ones dancing to my tune.\"\n\nYang chuckles quietly. \"I can respect that, Boss. I can respect that.\""</t>
+  </si>
+  <si>
+    <t>"Вы следуете за Яном вниз к грузовым отсекам, проходя мимо техов, спешащих в другом направлении по разным делам.\n\n«Знаете, босс,»- начал Ян, когда вы завернули за угол, «мне всегда было интересно, почему пехотинец захотел возглавить группу мехводов. Разве вы не провели последние несколько лет, пытаясь не быть раздавленными ими?»\n\nВы моргаете от неожиданного вопроса и некоторое время обдумываете его. «Полагаю, я просто захотел обернуть ситуацию. Теперь я - тот, кто сверху, а они пляшут под мою дудку.»\n\nЯн тихо хихикает. «Достойно уважения, босс. Такое я уважаю.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInfantry.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInheritor.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInheritor.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Check out the \"little treasure\"."</t>
+  </si>
+  <si>
+    <t>"Заценить «маленькое сокровище»."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInheritor.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"You and Yang make your way to the 'Mech Bay in silence. Once you arrive, you're greeted with the sight of an oddly familiar BattleMech. Familiar, yet you can't quite remember why."</t>
+  </si>
+  <si>
+    <t>"Вы и Ян молча добираетесь до ангара мехов. По прибытии вас встречает странно знакомый боевой мех. Знакомый, но вы не можете вспомнить, откуда."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInheritor.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMercenary.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. Some toys from your Old Unit, eh?."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. Пара игрушек из прошлого подразделения, да?"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMercenary.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMercenary.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMercenary.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"See what your old pals sent you."</t>
+  </si>
+  <si>
+    <t>"Посмотреть, что вам прислали ваши старые приятели."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMercenary.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"You nod in the affirmative and Yang turns to lead you to the bay containing the ride in question."</t>
+  </si>
+  <si>
+    <t>"Вы утвердительно киваете, и Ян ведёт вас к отсеку, в котором находится обсуждаемая машина."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMercenary.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. 3 Mill straight to our Funds? No wonder we got an Argo."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. 3 миллиона прямиком на наш счет? Неудивительно, что мы смогли позволить себе Арго."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Trawl the local network for buyers."</t>
+  </si>
+  <si>
+    <t>"Прочесать местную сеть в поисках покупателей."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"Your listing for the holovid series lasts a whole two hours at the outrageous price before you get your first bite. It seems that entertainment is pretty hard to come by in this system, or perhaps you found a very dedicated collector.\n\nWith the utmost secrecy, you organise a dead drop to prevent anybody in the crew from learning of the deed and cash out."</t>
+  </si>
+  <si>
+    <t>"Торги по продаже серии головидео провисели два часа по возмутительно высокой цене, прежде чем хоть кто-то клюнул. Похоже, сфера развлечений не такая уж и прибыльная в этой системе, и вам, вероятно, повезло, что нашёлся какой-то преданный коллекционер.\n\nВ обстановке строжайшей секретности вы организуете «закладку», чтобы никто из экипажа не узнал о сделке и не получил деньги."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"Option 1"</t>
+  </si>
+  <si>
+    <t>"Вариант 1"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. This [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] should really help to get this company off the ground."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. Этот [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] реально поможет нам быть на высоте ;)"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Take the AWACS."</t>
+  </si>
+  <si>
+    <t>"Взять AWACS."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"\"Well, I'm not about to look a gift VTOL in the mouth,\" you say. \"Grab Sumire to load up the [[DM.MechDefs[vehicledef_AWACS],AWACS]] onto the Leopard and bring it back up the Argo.\"\n\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\nYou wait.\n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.\n\nAn hour or so later and you find yourself the proud owner of an AWACS Command VTOL."</t>
+  </si>
+  <si>
+    <t>"«Ну, я не собираюсь заглядывать дарёному VTOL'у в рот,» - говорите вы. «Захвати Сумир и вместе погрузите [[DM.MechDefs[vehicledef_AWACS],AWACS]] на Леопард, а затем домой на Арго.»\n\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он проходит в противоположную сторону, к мостику. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель командирского VTOL AWACS."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_0_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"\"Well, I'm not about to look a gift [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] in the mouth,\" you say. \"Grab Sumire to load it up onto the Leopard and bring it back up the Argo.\"\n\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\nYou wait.\n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.\n\nAn hour or so later and you find yourself the proud owner of an Oracle Mobile HQ."</t>
+  </si>
+  <si>
+    <t>"«Ну, я не собираюсь заглядывать дарёному [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] в рот,» - говорите вы. «Захвати Сумир и вместе погрузите его на Леопард, а затем домой на Арго.»\n\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он проходит в противоположную сторону, к мостику. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель мобильной базы Oracle."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_0_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventOfficer.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"Take the Oracle."</t>
+  </si>
+  <si>
+    <t>"Взять Oracle."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventProtomech.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventProtomech.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"See it through."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventProtomech.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"\"Thanks for the heads up, Yang,\" you say. The feeling isn't pleasant, but you feel a small amount of empathy for the machines. In a way, they were discarded just as much as you were. \"Let me know when they're ready.\"\n\nYang nods and turns to leave. He pauses to clap a hand on your shoulder. \"Will do, Boss,\" he answers, \"will do.\""</t>
+  </si>
+  <si>
+    <t>"«Спасибо, что предупредил, Ян,» - говорите вы. Ощущение не из приятных, но вы даже несколько сочувствуете машинам. В каком-то смысле, они были выброшены так же, как и вы. «Дай знать, когда они будут готовы.»\n\nЯн кивает и поворачивается, чтобы уйти. Он притормаживает, оборачивается и хлопает вас по плечу. «Всё будет сделано, босс,» - отвечает он, - «всё будет.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventProtomech.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. Thats a lot of Ammo you've brought with you."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. Да у вас целая гора боеприпасов!"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>"[Energy Weapons]"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Two Snub-Nose PPCs with double heat sinks."</t>
+  </si>
+  <si>
+    <t>"Две Snub-Nose PPC с двойными радиаторами."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"Before you commit to hauling the crates onto the Leopard to bring home, you figure it can't hurt to check on the goods.\n\nApproaching the crate on top of the stack, you dial the code you'd been given into the keypad. With a satisfying click, the locking mechanism releases and the lid cracks open.\n\nInside you find neatly packaged - with notably more care given than you've seen most military equipment subject to - a pair of BattleMech [[DM.BaseDescriptionDefs[LoreSNPPC],Snub-Nose PPCs]]. Inspecting another crate reveals something even more intriguing - Star League era [[DM.BaseDescriptionDefs[LoreDHS],double heat sinks]]!\n\n\"Nice,\" you say to yourself, clicking the crates back closed. \"Alright, let's get this all onto the Leopard and get out of here.\""</t>
+  </si>
+  <si>
+    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованные - заметно бережнее, чем обычно пакуют военное оборудование - пару [[DM.BaseDescriptionDefs[LoreSNPPC],Snub-Nose PPCs]] для мехов. При осмотре другого ящика обнаруживается нечто еще более интригующее - [[DM.BaseDescriptionDefs[LoreDHS]],двойные охладители]] времён Звездной Лиги!\n\n«Нормально,» - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>"[Ballistic Weapons]"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"An Ultra AC/5 with ammo."</t>
+  </si>
+  <si>
+    <t>"Ультра-автопушка UAC/5 с боеприпасами."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"Before you commit to hauling the crates onto the Leopard to bring home, you figure it can't hurt to check on the goods.\n\nApproaching the crate on top of the stack, you dial the code you'd been given into the keypad. With a satisfying click, the locking mechanism releases and the lid cracks open.\n\nInside you find neatly packaged - with notably more care given than you've seen most military equipment subject to - a Star League era [[DM.BaseDescriptionDefs[LoreUAC],Ultra AC/5]]. In one of the accompanying crates, you find ammo for the weapon.\n\n\"Nice,\" you say to yourself, clicking the crates back closed. \"Alright, let's get this all onto the Leopard and get out of here.\""</t>
+  </si>
+  <si>
+    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованную - заметно бережнее, чем обычно пакуют военное оборудование - [[DM.BaseDescriptionDefs[LoreUAC],Ultra AC/5]] времён Звездной Лиги. В одном из соседних ящиков вы находите и патроны к ней.\n\n«Нормально», - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_2.Options2.Details</t>
+  </si>
+  <si>
+    <t>"[Missile Weapons]"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_2.Options2.Name</t>
+  </si>
+  <si>
+    <t>"Two LRM-15 launchers and Artemis IV FCS with ammo."</t>
+  </si>
+  <si>
+    <t>"Две установки LRM-15 и Artemis IV FCS с боеприпасами."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_2_0.Options2.0.Details</t>
+  </si>
+  <si>
+    <t>"Before you commit to hauling the crates onto the Leopard to bring home, you figure it can't hurt to check on the goods.\n\nApproaching the crate on top of the stack, you dial the code you'd been given into the keypad. With a satisfying click, the locking mechanism releases and the lid cracks open.\n\nInside you find neatly packaged - with notably more care given than you've seen most military equipment subject to - an [[DM.BaseDescriptionDefs[LoreLRM],LRM-15]] launcher and paired [[DM.BaseDescriptionDefs[LoreArtemisIV],Artemis IV FCS]]. A second, identical crate sits next to it. In one of the smaller accompanying crates, you find ammo for the weapons.\n\n\"Nice,\" you say to yourself, clicking the crates back closed. \"Alright, let's get this all onto the Leopard and get out of here.\""</t>
+  </si>
+  <si>
+    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованную - заметно бережнее, чем обычно пакуют военное оборудование - пусковую установку [[DM.BaseDescriptionDefs[LoreLRM],LRM-15]] и к ней - [[DM.BaseDescriptionDefs[LoreArtemisIV],Artemis IV FCS]]. Рядом - ещё один ящик, точно такой же. В соседнем ящике поменьше вы находите и боеприпасы к ним.\n\n«Нормально,» - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventSoldier.outcome_2_0.Options2.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventVeteran.Description.Details</t>
+  </si>
+  <si>
+    <t>"Hey Boss, we've unpacked your Stash. Thats a pretty fine toy they've let you keep there."</t>
+  </si>
+  <si>
+    <t>"Эй, босс, мы наконец распаковали ваш тайник. Неплохую такую вещицу вам оставили."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventVeteran.Description.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventVeteran.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>CommanderGearEventVeteran.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Reunite with your old friend."</t>
+  </si>
+  <si>
+    <t>"Воссоединиться со своим старым другом."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventVeteran.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"The 'Mech Bay is as stuffy and noisy as you remember them always being. However, your mind is focused solely on one thing: your 'Mech. Walking at a brisk stride you pass the bustling MechTechs, deftly step around various coolant spills and flying sparks until finally you behold her - your Bushwacker. She looks just as beautiful as the day you left her.\n\n\"I hope she didn't mind being kept in the broom closet all that time,\" you remark.\n\nYang shrugs. \"Eh. She had to come out eventually.\""</t>
+  </si>
+  <si>
+    <t>"В ангаре мехов так же душно и шумно, как и всегда. Однако все ваши мысли сосредоточены лишь на одном: на вашем мехе. Бодрым шагом вы проходите мимо суетящихся техов, ловко обходя лужи пролитого хладагента и летящие искры, пока, наконец, не видите его - своего Bushwacker. Он выглядит так же прекрасно, как и в день, когда вы оставили его.\n\n«Надеюсь, он не возражал поторчать в чулане всё это время,» - комментируете вы.\n\nЯн пожимает плечами. «Да не. Он всё равно рано ли поздно бы вышел.»"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventVeteran.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>event with box CommanderGearEventOfficer.Description.Details</t>
+  </si>
+  <si>
+    <t>"You get a message from your Chief MechTech [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]]:\r\n\r\n\"Commander {Commander.LastName}, we have managed to re-assemble that mech you had shipped up here. What a beauty she is. Those are some strings you must have pulled with your contacts back home.\""</t>
+  </si>
+  <si>
+    <t>"Вы получаете сообщение от вашего главного мехтеха, [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Яна]]:\r\n\r\n«Командующий {Commander.LastName}, нам удалось пересобрать мех, который вы прислали нам. Получился просто красавец. Вы, должно быть, потянули за правильные нитки с вашими контактами на родине.»"</t>
+  </si>
+  <si>
+    <t>event with box CommanderGearEventOfficer.Description.Name</t>
+  </si>
+  <si>
+    <t>event with box CommanderGearEventOfficer.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>event with box CommanderGearEventOfficer.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Sweet."</t>
+  </si>
+  <si>
+    <t>"Класс."</t>
+  </si>
+  <si>
+    <t>event with box CommanderGearEventOfficer.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]] continues: \"Either way, Commander. When you've got some time, check it out in the Mechbay, and we can look it over, or mix it up a little from stock configuration.\"\r\n\r\n\r\nYou reply: \"I'll be right along, Yang. Keep up the good work.\"\r\n\r\n\r\n"</t>
+  </si>
+  <si>
+    <t>"[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Ян]] продолжает: «Как бы то ни было, командир, когда у вас будет время, загляните в ангар. осмотрим его вместе, может изменим чего.»\r\n\r\nВы отвечаете: «Скоро буду, Ян. Продолжайте в том же духе.»\r\n\r\n"</t>
+  </si>
+  <si>
+    <t>event with box CommanderGearEventOfficer.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"AncestralMechLoot"</t>
+  </si>
+  <si>
+    <t>"Мех по наследству"</t>
+  </si>
+  <si>
+    <t>background_ancestry_FRR.Description.Details</t>
+  </si>
+  <si>
+    <t>"You were born and raised in the [[DM.Factions[faction_Rasalhague],Free Rasalhague Republic]]."</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Rasalhague],Свободной Республике Расальхаг]]."</t>
+  </si>
+  <si>
+    <t>background_ancestry_FRR.Description.Name</t>
+  </si>
+  <si>
     <t>"Rasalhague"</t>
   </si>
   <si>
     <t>"Расальхаг"</t>
   </si>
   <si>
-    <t>background_ancestry_Taurians.OptionDescription</t>
-  </si>
-  <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. \r\n\r\nFounded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
-  </si>
-  <si>
-    <t>"MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. \n\nFounded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
-  </si>
-  <si>
-    <t>background_ancestry_Taurians.OptionName</t>
-  </si>
-  <si>
-    <t>background_ancestry_TestTubeBaby.BioDescription</t>
-  </si>
-  <si>
-    <t>"You are a [[DM.BaseDescriptionDefs[LoreClans],Clans]] [[DM.BaseDescriptionDefs[LoreTrueBorn],True Born]] Warrior. Washed out from the Eugenics Program are you still determined to make your Mark in the Remembrance."</t>
-  </si>
-  <si>
-    <t>background_ancestry_TestTubeBaby.Description.Details</t>
-  </si>
-  <si>
-    <t>"You are a [[DM.BaseDescriptionDefs[LoreClans],Clans]] [[DM.BaseDescriptionDefs[LoreTrueBorn],True Born]]. Bred to be the Ultimate Warrior. &lt;b&gt;&lt;color=#ff9900&gt;+1 All Skills. Cannot Command Tanks..&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Вы - [[DM.BaseDescriptionDefs[LoreTrueBorn],вернорожденный]] воин [[DM.BaseDescriptionDefs[LoreClans],кланов]]. Выращенный, чтобы стать совершенным воином. &lt;b&gt;&lt;color=#ff9900&gt;+1 ко всем навыкам. Не будет водить танк..&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_ancestry_TestTubeBaby.Description.Name</t>
-  </si>
-  <si>
-    <t>"True Born"</t>
-  </si>
-  <si>
-    <t>"Вернорождённый"</t>
-  </si>
-  <si>
-    <t>background_ancestry_TestTubeBaby.OptionDescription</t>
-  </si>
-  <si>
-    <t>background_ancestry_TestTubeBaby.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_banzai.BioDescription</t>
-  </si>
-  <si>
-    <t>"After Years of working for Dr. Banzai you have stuck out on your own and been given one of the Companys treasured Hatchetmen for exceptional service.\r\n"</t>
-  </si>
-  <si>
-    <t>background_career_banzai.Description.Details</t>
-  </si>
-  <si>
-    <t>"Team Banzai has the nicest toys.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Gladiator, Neural Implants &amp; Pain Shunt. Random Hatchetman&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Team Banzai has the nicest toys. &lt;b&gt;&lt;color=#ff9900&gt;Особенность: Gladiator, Neural Implants &amp; Pain Shunt. Random Hatchetman&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_banzai.Description.Name</t>
-  </si>
-  <si>
-    <t>"Testpilot"</t>
-  </si>
-  <si>
-    <t>background_career_banzai.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>background_career_banzai.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_freelancer.BioDescription</t>
-  </si>
-  <si>
-    <t>"Desperate to escape your past, you roamed the Rimward Periphery as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.\r\n"</t>
-  </si>
-  <si>
-    <t>"Desperate to escape your past, you roamed the Rimward Periphery as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier."</t>
-  </si>
-  <si>
-    <t>background_career_freelancer.Description.Details</t>
-  </si>
-  <si>
-    <t>"Someone always needs some Work done. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Reckless&amp;Drunk. Mech: Random Hunchback&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Во вселенной всегда найдутся те, кто заплатит за грязную работёнку. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Безрассудный&amp;Пьяница. Мех: случайный Hunchback&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_freelancer.Description.Name</t>
-  </si>
-  <si>
-    <t>"Freelancer"</t>
-  </si>
-  <si>
-    <t>"Фрилансер"</t>
-  </si>
-  <si>
-    <t>background_career_freelancer.OptionDescription</t>
-  </si>
-  <si>
-    <t>"You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>background_career_freelancer.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_gladiator.BioDescription</t>
-  </si>
-  <si>
-    <t>"Eager to escape your past, you took your Blackjack and your skills as a MechWarrior to the famed arena planet of Solaris VII. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\r\n"</t>
-  </si>
-  <si>
-    <t>"Eager to escape your past, you took your Blackjack and your skills as a MechWarrior to the famed arena planet of Solaris VII. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck."</t>
-  </si>
-  <si>
-    <t>background_career_gladiator.Description.Details</t>
-  </si>
-  <si>
-    <t>"A [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris]] Gladiator. Living for the Spectacle!.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Gladiator&amp;Honest. Gladitorial Gear.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Гладиатор [[DM.BaseDescriptionDefs[LoreSolaris7],Соляриса]]. Жить ради зрелища! &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Гладиатор&amp;Честный. Гладиаторские предметы.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_gladiator.Description.Name</t>
-  </si>
-  <si>
-    <t>"Gladiator"</t>
-  </si>
-  <si>
-    <t>"Гладиатор"</t>
-  </si>
-  <si>
-    <t>background_career_gladiator.OptionDescription</t>
-  </si>
-  <si>
-    <t>"You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
-  </si>
-  <si>
-    <t>"You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
-  </si>
-  <si>
-    <t>background_career_gladiator.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_infantry.BioDescription</t>
-  </si>
-  <si>
-    <t>"Unsure of your prospects, you traveled to Coromodir, the capital of the Aurigan Coalition, and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.\r\n"</t>
-  </si>
-  <si>
-    <t>background_career_infantry.Description.Details</t>
-  </si>
-  <si>
-    <t>"Trained as a Battle Armour Pilot, War always bring a Paycheck.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Dependable&amp;Brave. Spare BA suit and Weapons.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Trained as a Battle Armour Pilot, War always bring a Paycheck. &lt;b&gt;&lt;color=#ff9900&gt;Особенность: Dependable&amp;Brave. Spare BA suit and Weapons.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_infantry.Description.Name</t>
-  </si>
-  <si>
-    <t>"BA Pilot"</t>
-  </si>
-  <si>
-    <t>background_career_infantry.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
-  </si>
-  <si>
-    <t>background_career_infantry.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_inheritor.BioDescription</t>
-  </si>
-  <si>
-    <t>"You took to plying yourself as a mercenary and found yourself traveling the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]. While you're not the best pilot, you've been lucky enough to make it this far and a gift from a distant relative might prove to be the break you were looking for. \r\n"</t>
-  </si>
-  <si>
-    <t>background_career_inheritor.Description.Details</t>
-  </si>
-  <si>
-    <t>"It belonged in a museum but now it's yours.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Lucky&amp;Noble. Mech: Random Rare Mech.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"It belonged in a museum but now it's yours. &lt;b&gt;&lt;color=#ff9900&gt;Особенность: Lucky&amp;Noble. Mech: Random Rare Mech.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_inheritor.Description.Name</t>
-  </si>
-  <si>
-    <t>"Inheritor"</t>
-  </si>
-  <si>
-    <t>background_career_inheritor.OptionDescription</t>
-  </si>
-  <si>
-    <t>"It may have been years since you last spoke to your great-uncle but you must have left an impression or you were simply the only one left in the family. While his passing didn't leave you with his money; it did leave you with some information on his business contacts, his prized 'Mech freshly pulled out of mothballs, and a request to make a name for yourself."</t>
-  </si>
-  <si>
-    <t>background_career_inheritor.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_mercenary.BioDescription</t>
-  </si>
-  <si>
-    <t>"Eager to get away from your past and make a name for yourself, you joined up with a minor Inner Sphere mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\r\n"</t>
-  </si>
-  <si>
-    <t>"Eager to get away from your past and make a name for yourself, you joined up with a minor Inner Sphere mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family."</t>
-  </si>
-  <si>
-    <t>background_career_mercenary.Description.Details</t>
-  </si>
-  <si>
-    <t>"A [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] Mercenary. War does Pay Well.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Athletic&amp;Mechwarrior. Random Advanced Unit.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Наёмник из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]]. Война хорошо оплачивается. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Атлетичный&amp;Мехвоин. Случайная продвинутая единица техники.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_mercenary.Description.Name</t>
-  </si>
-  <si>
-    <t>"Mercenary"</t>
-  </si>
-  <si>
-    <t>"Наёмник"</t>
-  </si>
-  <si>
-    <t>background_career_mercenary.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>background_career_mercenary.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_merchant_guard.BioDescription</t>
-  </si>
-  <si>
-    <t>"You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the Inner Sphere and the Periphery. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.\r\n"</t>
-  </si>
-  <si>
-    <t>"You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the Inner Sphere and the Periphery. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments."</t>
-  </si>
-  <si>
-    <t>background_career_merchant_guard.Description.Details</t>
-  </si>
-  <si>
-    <t>"Trading all the odd bits and goods you could.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Merchant&amp;Dishonest. 3 Mill Starting Money.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Торговля всевозможными товарами. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Торговец&amp;Нечестный. 3 миллиона личный капитал.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_merchant_guard.Description.Name</t>
-  </si>
-  <si>
-    <t>"Merchant"</t>
-  </si>
-  <si>
-    <t>"Торговец"</t>
-  </si>
-  <si>
-    <t>background_career_merchant_guard.OptionDescription</t>
-  </si>
-  <si>
-    <t>"You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
-  </si>
-  <si>
-    <t>"You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
-  </si>
-  <si>
-    <t>background_career_merchant_guard.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_pirate.BioDescription</t>
-  </si>
-  <si>
-    <t>"Tired of living under the authority of others, you fell in with a local pirate gang in the Rimward Periphery. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.\r\n"</t>
-  </si>
-  <si>
-    <t>"Tired of living under the authority of others, you fell in with a local pirate gang in the Rimward Periphery. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force."</t>
-  </si>
-  <si>
-    <t>background_career_pirate.Description.Details</t>
-  </si>
-  <si>
-    <t>"Order and Discipline!.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Officer&amp;Command. Vehicle: [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] OR [[DM.BaseDescriptionDefs[LoreOracle ACMV],Oracle ACMV]]&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Порядок и дисциплина! &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Офицер&amp;Командование. Транспорт: [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] ИЛИ [[DM.BaseDescriptionDefs[LoreOracle ACMV],Oracle ACMV]]&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_pirate.Description.Name</t>
-  </si>
-  <si>
-    <t>"Officer"</t>
-  </si>
-  <si>
-    <t>"Офицер"</t>
-  </si>
-  <si>
-    <t>background_career_pirate.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>background_career_pirate.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_protomech.BioDescription</t>
-  </si>
-  <si>
-    <t>"You were an attempt by the science caste to convert a mechwarrior to a protomech pilot.\r\n"</t>
-  </si>
-  <si>
-    <t>background_career_protomech.Description.Details</t>
-  </si>
-  <si>
-    <t>"You were an attempt by the science caste to convert a mechwarrior to a protomech pilot.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Neural Implants &amp; Mechwarrior. Random Protomech.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"You were an attempt by the science caste to convert a mechwarrior to a protomech pilot. &lt;b&gt;&lt;color=#ff9900&gt;Особенность: Neural Implants &amp; Mechwarrior. Random Protomech.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_protomech.Description.Name</t>
-  </si>
-  <si>
-    <t>"Test Subject"</t>
-  </si>
-  <si>
-    <t>background_career_protomech.OptionDescription</t>
-  </si>
-  <si>
-    <t>"You were an attempt by the science caste to convert a mechwarrior to a protomech pilot."</t>
-  </si>
-  <si>
-    <t>background_career_protomech.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_soldier.BioDescription</t>
-  </si>
-  <si>
-    <t>"Unsure of your prospects, you traveled to Coromodir, the capital of the Aurigan Coalition, and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine."</t>
-  </si>
-  <si>
-    <t>background_career_soldier.Description.Details</t>
-  </si>
-  <si>
-    <t>"Enlisted as a Soldier, War always bring a Paycheck.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Dependable&amp;Brave. Large assortment of Items.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Записан в солдаты. Война всегда хорошо оплачивается. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Надежный&amp;Храбрый. Широкий ассортимент предметов.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_soldier.Description.Name</t>
-  </si>
-  <si>
-    <t>"Soldier"</t>
-  </si>
-  <si>
-    <t>"Солдат"</t>
-  </si>
-  <si>
-    <t>background_career_soldier.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
-  </si>
-  <si>
-    <t>background_career_soldier.OptionName</t>
-  </si>
-  <si>
-    <t>background_career_veteran.BioDescription</t>
-  </si>
-  <si>
-    <t>"A Survivor of Operation Damocles, you have left your Military past to look for something that less likely results in you getting stranded among Crazy Clanners.\r\n"</t>
-  </si>
-  <si>
-    <t>"A Survivor of Operation Damocles, you have left your Military past to look for something that less likely results in you getting stranded among Crazy Clanners."</t>
-  </si>
-  <si>
-    <t>background_career_veteran.Description.Details</t>
-  </si>
-  <si>
-    <t>"Veteran of Operation:Damocles. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Lucky&amp;Military. Mech: Random Bushwacker&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Ветеран операции «Дамокл». &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Удачливый&amp;Военный. Мех: случайный Bushwacker&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_career_veteran.Description.Name</t>
-  </si>
-  <si>
-    <t>"Veteran"</t>
-  </si>
-  <si>
-    <t>"Ветеран"</t>
-  </si>
-  <si>
-    <t>background_career_veteran.OptionDescription</t>
-  </si>
-  <si>
-    <t>background_career_veteran.OptionName</t>
-  </si>
-  <si>
-    <t>background_youth_accident.BioDescription</t>
-  </si>
-  <si>
-    <t>"The rest of your family died in a freak JumpShip accident, after which you discovered they had left nothing behind but piles of debt. After selling everything to settle the debt, you set off on your own, with only your family's ancestral Blackjack left to your name.\r\n"</t>
-  </si>
-  <si>
-    <t>"The rest of your family died in a freak JumpShip accident, after which you discovered they had left nothing behind but piles of debt. After selling everything to settle the debt, you set off on your own, with only your family's ancestral Blackjack left to your name."</t>
-  </si>
-  <si>
-    <t>background_youth_accident.Description.Details</t>
-  </si>
-  <si>
-    <t>"Space always called to you. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Space&amp;Honest.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Космос всегда манил вас. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Космос&amp;Честный.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_youth_accident.Description.Name</t>
-  </si>
-  <si>
-    <t>"Space"</t>
-  </si>
-  <si>
-    <t>"Космос"</t>
-  </si>
-  <si>
-    <t>background_youth_accident.OptionDescription</t>
-  </si>
-  <si>
-    <t>"The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.\r\n\r\nAfter selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.\n\nAfter selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>background_youth_accident.OptionName</t>
-  </si>
-  <si>
-    <t>"Space."</t>
-  </si>
-  <si>
-    <t>background_youth_bankrupt.BioDescription</t>
-  </si>
-  <si>
-    <t>"As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself.\r\n"</t>
-  </si>
-  <si>
-    <t>"As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself."</t>
-  </si>
-  <si>
-    <t>background_youth_bankrupt.Description.Details</t>
-  </si>
-  <si>
-    <t>"Lady Luck and you are well aquainted. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Jinxed&amp;Lucky.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Госпожа Удача и вы - хорошие приятели. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Сглаз&amp;Удачливый.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_youth_bankrupt.Description.Name</t>
-  </si>
-  <si>
-    <t>"Gambler"</t>
-  </si>
-  <si>
-    <t>"Азартные игры"</t>
-  </si>
-  <si>
-    <t>background_youth_bankrupt.OptionDescription</t>
-  </si>
-  <si>
-    <t>"As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.\r\n\r\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.\n\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>background_youth_bankrupt.OptionName</t>
-  </si>
-  <si>
-    <t>background_youth_betrayed.BioDescription</t>
-  </si>
-  <si>
-    <t>"Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself.\r\n"</t>
-  </si>
-  <si>
-    <t>"Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself."</t>
-  </si>
-  <si>
-    <t>background_youth_betrayed.Description.Details</t>
-  </si>
-  <si>
-    <t>"Youve always fiddled with your Tech. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Tech&amp;Comstar.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Вы всегда любили возиться со своей техникой. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Тех&amp;КомСтар.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_youth_betrayed.Description.Name</t>
-  </si>
-  <si>
-    <t>"Tech"</t>
-  </si>
-  <si>
-    <t>"Техника"</t>
-  </si>
-  <si>
-    <t>background_youth_betrayed.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.\r\n\r\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.\n\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>background_youth_betrayed.OptionName</t>
-  </si>
-  <si>
-    <t>"Tech."</t>
-  </si>
-  <si>
-    <t>background_youth_exile.BioDescription</t>
-  </si>
-  <si>
-    <t>"Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile. You stole away with the family's ancestral Blackjack and set off to find a new life to call your own.\r\n"</t>
-  </si>
-  <si>
-    <t>"Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile. You stole away with the family's ancestral Blackjack and set off to find a new life to call your own."</t>
-  </si>
-  <si>
-    <t>background_youth_exile.Description.Details</t>
-  </si>
-  <si>
-    <t>"The Past held your Dreams. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: LosTech&amp;Bookish.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Вы всегда грезили прошлыми временами. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: ЛосТех&amp;Книжный червь.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_youth_exile.Description.Name</t>
-  </si>
-  <si>
-    <t>"History"</t>
-  </si>
-  <si>
-    <t>"История"</t>
-  </si>
-  <si>
-    <t>background_youth_exile.OptionDescription</t>
-  </si>
-  <si>
-    <t>"Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.\r\n\r\nYou stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.\n\nYou stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>background_youth_exile.OptionName</t>
-  </si>
-  <si>
-    <t>background_youth_loner.BioDescription</t>
-  </si>
-  <si>
-    <t>"As the heir to a noble family, you grew up wanting for nothing. As it turns out, you couldn't stand a life of pampered nobility. Finally, one night you stole away with the family's ancestral Blackjack and set off to find a new life to call your own.\r\n"</t>
-  </si>
-  <si>
-    <t>"As the heir to a noble family, you grew up wanting for nothing. As it turns out, you couldn't stand a life of pampered nobility. Finally, one night you stole away with the family's ancestral Blackjack and set off to find a new life to call your own."</t>
-  </si>
-  <si>
-    <t>background_youth_loner.Description.Details</t>
-  </si>
-  <si>
-    <t>"You've always been a Loner. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Brave&amp;Assassin.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Вы всегда были одиночкой. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Храбрый&amp;Убийца.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>background_youth_loner.Description.Name</t>
-  </si>
-  <si>
-    <t>"Struck Out On Own, Disgusted with Nobility"</t>
-  </si>
-  <si>
-    <t>"Всегда добивался всего сам. Отвращение к знати."</t>
-  </si>
-  <si>
-    <t>background_youth_loner.OptionDescription</t>
-  </si>
-  <si>
-    <t>"As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.\r\n\r\nFinally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.\n\nFinally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\n\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>background_youth_loner.OptionName</t>
-  </si>
-  <si>
-    <t>"Loner"</t>
-  </si>
-  <si>
-    <t>"Одинокий волк"</t>
-  </si>
-  <si>
-    <t>backgroundquestion_ancestry.Description.Name</t>
-  </si>
-  <si>
-    <t>"You Were Born in..."</t>
-  </si>
-  <si>
-    <t>"Вы родились в..."</t>
-  </si>
-  <si>
-    <t>backgroundquestion_career.Description.Name</t>
-  </si>
-  <si>
-    <t>"Coming of Age you choose the Career of...."</t>
-  </si>
-  <si>
-    <t>"Повзрослев, вы выбрали карьеру..."</t>
-  </si>
-  <si>
-    <t>backgroundquestion_youth.Description.Name</t>
-  </si>
-  <si>
-    <t>"You Interests had always been...."</t>
-  </si>
-  <si>
-    <t>"Вы всегда интересовались..."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventBanzai.Description.Details</t>
-  </si>
-  <si>
-    <t>"You Reall worked with Dr. Banzai and they even gave you one these fine toys?."</t>
-  </si>
-  <si>
-    <t>"Вы правда работали с Dr. Banzai? Даже получили за это одну из этих прекрасных игрушек!"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventBanzai.Description.Name</t>
-  </si>
-  <si>
-    <t>"Commander Gear"</t>
-  </si>
-  <si>
-    <t>"Командирское снаряжение"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventBanzai.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>"Lets open the toys."</t>
-  </si>
-  <si>
-    <t>"Давайте заценим игрушки."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventBanzai.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"Sweet."</t>
-  </si>
-  <si>
-    <t>"Отлично."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventBanzai.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Let's See what they did to my Boy."</t>
-  </si>
-  <si>
-    <t>"Давайте поглядим что они сделали с моим малышом."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventBanzai.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>"CommanderGearLoot"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventCorsair.Description.Details</t>
-  </si>
-  <si>
-    <t>"Tally-ho thats some fine stashed loot ya got here, Boss."</t>
-  </si>
-  <si>
-    <t>"Хо-хо! Поглядите-ка, а тут у нас приличная добыча припрятана, кэп."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventCorsair.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventCorsair.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventCorsair.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventCorsair.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventCorsair.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventFreelancer.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. Your Hunchback was pretty shot up but we've got it back in working Order, best go over and check it's right."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Ваш Hunchback был в довольно плачевном состоянии, но мы привели его в порядок. Лучше зайдите посмотрите сами."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventFreelancer.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventFreelancer.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventFreelancer.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventFreelancer.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventFreelancer.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. Thats some juicy toys you got off-planet here."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Неплохие такие игрушки вы прихватили с планеты."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"'Dragonforce'  (Handheld Flamers + ITSM)"</t>
-  </si>
-  <si>
-    <t>"«Сила дракона» (ручные огнемёты + ITSM)"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Oh.  That was you?   I understand why you aren't going by that anymore."</t>
-  </si>
-  <si>
-    <t>"А. Так это были вы? Теперь я понимаю, почему вы больше так не поступаете."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>"'Slayer'   (Large melee weapon + TSM)"</t>
-  </si>
-  <si>
-    <t>"'Slayer' (Large melee weapon + TSM)"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_2.Options2.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_2.Options2.Name</t>
-  </si>
-  <si>
-    <t>"'Iron Maiden'   (Spiked Armor + MASC)"</t>
-  </si>
-  <si>
-    <t>"'Iron Maiden' (Spiked Armor + MASC)"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_2_0.Options2.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_2_0.Options2.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_3.Options3.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_3.Options3.Name</t>
-  </si>
-  <si>
-    <t>"'Megadeth'   (TBM Launchers + Ammo)"</t>
-  </si>
-  <si>
-    <t>"'Megadeth' (TBM Launchers + Ammo)"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_3_0.Options3.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventGladiator.outcome_3_0.Options3.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInfantry.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInfantry.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInfantry.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Lets see the Fireworks."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInfantry.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInheritor.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>"Alright, what the hell is it?"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInheritor.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInheritor.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Let's see what shape its's in."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventInheritor.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMercenary.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. Some toys from your Old Unit, eh?."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Пара игрушек из прошлого подразделения, да?"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMercenary.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMercenary.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMercenary.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMercenary.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Let's check out the Goodies."</t>
-  </si>
-  <si>
-    <t>"Давай-ка проверим добро."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMercenary.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMerchant.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. 3 Mill straight to our Funds? No wonder we got an Argo."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. 3 миллиона прямиком на наш счет? Неудивительно, что мы смогли позволить себе Арго."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMerchant.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMerchant.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMerchant.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMerchant.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Thats a lot of Dough."</t>
-  </si>
-  <si>
-    <t>"Это большая куча бабок."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventMerchant.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. This [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] should really help to get this company off the ground."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Этот [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] реально поможет нам быть на высоте ;)"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"AWACS."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Check it out in the MechBay"</t>
-  </si>
-  <si>
-    <t>"Загляни в ангар"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_0_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_0_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventOfficer.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>"Oracle."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventProtomech.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventProtomech.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventProtomech.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventProtomech.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. Thats a lot of Ammo you've brought with you."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Да у вас целая гора боеприпасов!"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"2 PPCs with DHS kit"</t>
-  </si>
-  <si>
-    <t>"2 PPC с DHS комплектом."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Поглядим что тут у нас."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>"UAC5 with ammo"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_2.Options2.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_2.Options2.Name</t>
-  </si>
-  <si>
-    <t>"LRM20 with ammo"</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_2_0.Options2.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventSoldier.outcome_2_0.Options2.0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventVeteran.Description.Details</t>
-  </si>
-  <si>
-    <t>"Hey Boss, we've unpacked your Stash. Thats a pretty fine toy they've let you keep there."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Неплохую такую вещицу вам оставили."</t>
-  </si>
-  <si>
-    <t>CommanderGearEventVeteran.Description.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventVeteran.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventVeteran.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>CommanderGearEventVeteran.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>CommanderGearEventVeteran.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>event with box CommanderGearEventOfficer.Description.Details</t>
-  </si>
-  <si>
-    <t>"You get a message from your Chief MechTech [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]]:\r\n\r\n\"Commander {Commander.LastName}, we have managed to re-assemble that mech you had shipped up here. What a beauty she is. Those are some strings you must have pulled with your contacts back home.\""</t>
-  </si>
-  <si>
-    <t>"Вы получили сообщение от главного теха, [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Яна]]:\n\n\"Командир {Commander.LastName}, мы смогли собрать заново меха, что в привезли. Этот мех прекрасен. Видимо, у вас хорошие связи там, дома.\""</t>
-  </si>
-  <si>
-    <t>event with box CommanderGearEventOfficer.Description.Name</t>
-  </si>
-  <si>
-    <t>event with box CommanderGearEventOfficer.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>event with box CommanderGearEventOfficer.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>event with box CommanderGearEventOfficer.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]] continues: \"Either way, Commander. When you've got some time, check it out in the Mechbay, and we can look it over, or mix it up a little from stock configuration.\"\r\n\r\n\r\nYou reply: \"I'll be right along, Yang. Keep up the good work.\"\r\n\r\n\r\n"</t>
-  </si>
-  <si>
-    <t>"[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Ян]]: \"Как бы там ни было, командир, когда найдёте время - загляните в мехотсек, просто полюбоваться или изменить стоковую конфигурацию.\"\n\n\nВаш ответ: \"Я загляну, Ян. Так держать.\""</t>
-  </si>
-  <si>
-    <t>event with box CommanderGearEventOfficer.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>"AncestralMechLoot"</t>
-  </si>
-  <si>
-    <t>"Мех по наследству"</t>
+    <t>background_ancestry_FRR.OptionName</t>
+  </si>
+  <si>
+    <t>"The Free Rasalhague Republic"</t>
+  </si>
+  <si>
+    <t>"Свободная Республика Расальхаг"</t>
+  </si>
+  <si>
+    <t>background_ancestry_FRR.OptionDescription</t>
+  </si>
+  <si>
+    <t>background_ancestry_FRR.BioDescription</t>
+  </si>
+  <si>
+    <t>"You were born and raised in the Free Rasalhague Republic. MechWarriors who hail from the short-lived Republic are fiercely independent, and often find themselves at odds with others. Despite frequent arguments and disagreements, they are invaluable lancemates.\r\n"</t>
+  </si>
+  <si>
+    <t>"Вы родились и выросли в Свободной Республике Расальхаг. Мехвоины из этой недолго просуществовавшей Республики - агрессивно независимы и часто враждуют с другими. Несмотря на частые споры и разногласия, они являются бесценными товарищами в бою.\r\n"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"Do a little video piracy. As a treat."</t>
+  </si>
+  <si>
+    <t>"Немного позаниматься видеопиратством. Ради развлечения."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>"[Commander: Dishonest]"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>CommanderGearEventMerchant.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"As you're browsing the various commercial networks, you're struck with an epiphany. Why sell just &lt;i&gt;one&lt;/i&gt; copy of the holovids? Oh ho ho, delightfully devilish, {COMMANDER.FirstName}. Surely there wouldn't be an kind of anti-piracy systems in place for a series enjoyed mostly by [[DM.BaseDescriptionDefs[LorePeriphery],Periphery]] yokels.\n\nBox set in hand, you rush down to Engineering. Farah looks less than amused as you explain the scheme to her. If her brow dropped any lower it would be touching her chin. Reluctantly, she accepts the holovids from you.\n\n\"I'll let you know when I'm done, I suppose, Commander,\" she says with an air of defeat.\n\nA few hours later and you've flooded the local market with bootleg copies of &lt;i&gt;[[DM.BaseDescriptionDefs[LoreHolovidMercenaries],MERCENARIES!]]&lt;/i&gt;\n\nSurely this won't cause problems."</t>
+  </si>
+  <si>
+    <t>"Просматривая различные коммерческие сайты, на вас снисходит озарение. Зачем продавать только одну копию головидео? Хо-хо-хо, чертяка {COMMANDER.FirstName}. Наверняка, не будет никаких анти-пиратских мер против дешевых сериалов, которые так любят деревенщины из [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]].\n\nС коробкой в руках вы спешите в инженерный отсек. Фара выглядела отнюдь не радостно, когда вы объяснили ей всю схему. Если бы она нахмурилась ещё чуть сильней, её брови бы достали до подбородка. С неохотой она принимает от вас головидео.\n\n«Видимо, я дам вам знать, когда закончу,» - произнесла она, сдавшись.\n\nПроходит пара часов и местный рынок становится наводнён нелегальными копиями [[DM.BaseDescriptionDefs[LoreHolovidMercenaries],«Наёмников»!]]\n\nНаверняка, проблем не возникнет."</t>
+  </si>
+  <si>
+    <t>"Вас прозвали «Истребитель»! Вашей фишкой было использование больших орудий для рукопашной, что было возможно благодаря миомерам тройной силы."</t>
   </si>
 </sst>
 </file>
@@ -1894,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,8 +2170,8 @@
     <col min="2" max="2" width="90.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,7 +2352,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -2099,13 +2363,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
@@ -2116,13 +2380,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
@@ -2133,13 +2397,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
@@ -2150,13 +2414,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -2167,13 +2431,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
@@ -2184,13 +2448,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
@@ -2201,13 +2465,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
@@ -2218,13 +2482,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
@@ -2235,13 +2499,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
@@ -2252,13 +2516,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>21</v>
@@ -2269,13 +2533,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -2286,13 +2550,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
@@ -2303,13 +2567,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -2320,13 +2584,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -2337,13 +2601,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
@@ -2354,13 +2618,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
@@ -2371,13 +2635,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
@@ -2388,13 +2652,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
@@ -2405,13 +2669,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -2422,13 +2686,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
@@ -2439,13 +2703,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
@@ -2456,13 +2720,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
@@ -2473,13 +2737,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
@@ -2490,13 +2754,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
@@ -2507,13 +2771,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
@@ -2524,13 +2788,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
@@ -2541,13 +2805,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
@@ -2558,13 +2822,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
@@ -2575,13 +2839,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -2592,13 +2856,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
@@ -2609,13 +2873,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
@@ -2626,13 +2890,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
@@ -2643,13 +2907,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
@@ -2660,13 +2924,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
@@ -2677,13 +2941,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
@@ -2694,13 +2958,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
@@ -2711,13 +2975,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
@@ -2728,13 +2992,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -2745,13 +3009,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
@@ -2762,13 +3026,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
@@ -2779,13 +3043,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
@@ -2796,13 +3060,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
@@ -2813,13 +3077,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
@@ -2830,13 +3094,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
@@ -2847,13 +3111,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
@@ -2864,13 +3128,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
@@ -2881,13 +3145,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
@@ -2898,13 +3162,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
@@ -2915,13 +3179,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
@@ -2932,13 +3196,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
@@ -2949,13 +3213,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
@@ -2966,13 +3230,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
@@ -2983,13 +3247,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
@@ -3000,13 +3264,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
@@ -3017,13 +3281,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
@@ -3034,13 +3298,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
@@ -3051,13 +3315,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
@@ -3068,13 +3332,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
@@ -3085,13 +3349,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
@@ -3102,13 +3366,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
@@ -3119,13 +3383,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
@@ -3136,13 +3400,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
@@ -3153,13 +3417,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
@@ -3170,13 +3434,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
@@ -3187,13 +3451,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
@@ -3204,13 +3468,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
@@ -3221,13 +3485,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
@@ -3238,13 +3502,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
@@ -3255,13 +3519,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
@@ -3272,13 +3536,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
@@ -3289,13 +3553,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
@@ -3306,13 +3570,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D83" s="1">
         <v>83</v>
@@ -3323,13 +3587,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D84" s="1">
         <v>84</v>
@@ -3340,13 +3604,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D85" s="1">
         <v>85</v>
@@ -3357,13 +3621,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D86" s="1">
         <v>86</v>
@@ -3374,13 +3638,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D87" s="1">
         <v>87</v>
@@ -3391,13 +3655,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D88" s="1">
         <v>88</v>
@@ -3408,13 +3672,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D89" s="1">
         <v>89</v>
@@ -3425,13 +3689,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D90" s="1">
         <v>90</v>
@@ -3442,13 +3706,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="D91" s="1">
         <v>91</v>
@@ -3459,13 +3723,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D92" s="1">
         <v>92</v>
@@ -3476,13 +3740,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D93" s="1">
         <v>93</v>
@@ -3493,13 +3757,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="D94" s="1">
         <v>94</v>
@@ -3510,13 +3774,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D95" s="1">
         <v>95</v>
@@ -3527,13 +3791,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D96" s="1">
         <v>96</v>
@@ -3544,13 +3808,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D97" s="1">
         <v>97</v>
@@ -3561,13 +3825,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D98" s="1">
         <v>98</v>
@@ -3578,13 +3842,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D99" s="1">
         <v>99</v>
@@ -3595,13 +3859,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D100" s="1">
         <v>100</v>
@@ -3612,13 +3876,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D101" s="1">
         <v>101</v>
@@ -3629,13 +3893,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="D102" s="1">
         <v>102</v>
@@ -3646,13 +3910,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D103" s="1">
         <v>103</v>
@@ -3663,13 +3927,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="D104" s="1">
         <v>104</v>
@@ -3680,13 +3944,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D105" s="1">
         <v>105</v>
@@ -3697,13 +3961,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D106" s="1">
         <v>106</v>
@@ -3714,13 +3978,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D107" s="1">
         <v>107</v>
@@ -3731,13 +3995,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D108" s="1">
         <v>108</v>
@@ -3748,13 +4012,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D109" s="1">
         <v>109</v>
@@ -3765,13 +4029,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D110" s="1">
         <v>110</v>
@@ -3782,13 +4046,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
@@ -3799,13 +4063,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1">
         <v>112</v>
@@ -3816,13 +4080,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="D113" s="1">
         <v>113</v>
@@ -3833,13 +4097,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D114" s="1">
         <v>114</v>
@@ -3850,13 +4114,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="D115" s="1">
         <v>115</v>
@@ -3867,13 +4131,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D116" s="1">
         <v>116</v>
@@ -3884,13 +4148,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D117" s="1">
         <v>117</v>
@@ -3901,13 +4165,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="D118" s="1">
         <v>118</v>
@@ -3918,13 +4182,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D119" s="1">
         <v>119</v>
@@ -3935,13 +4199,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -3952,13 +4216,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D121" s="1">
         <v>121</v>
@@ -3969,13 +4233,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="D122" s="1">
         <v>122</v>
@@ -3986,13 +4250,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="D123" s="1">
         <v>123</v>
@@ -4003,13 +4267,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D124" s="1">
         <v>124</v>
@@ -4020,13 +4284,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="D125" s="1">
         <v>125</v>
@@ -4037,13 +4301,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D126" s="1">
         <v>126</v>
@@ -4054,13 +4318,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D127" s="1">
         <v>127</v>
@@ -4071,13 +4335,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="D128" s="1">
         <v>128</v>
@@ -4088,13 +4352,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="D129" s="1">
         <v>129</v>
@@ -4105,13 +4369,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="D130" s="1">
         <v>130</v>
@@ -4122,13 +4386,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="D131" s="1">
         <v>131</v>
@@ -4139,13 +4403,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="D132" s="1">
         <v>132</v>
@@ -4156,13 +4420,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D133" s="1">
         <v>133</v>
@@ -4173,13 +4437,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="D134" s="1">
         <v>134</v>
@@ -4190,13 +4454,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D135" s="1">
         <v>135</v>
@@ -4207,13 +4471,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="D136" s="1">
         <v>136</v>
@@ -4224,13 +4488,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="D137" s="1">
         <v>137</v>
@@ -4241,13 +4505,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="D138" s="1">
         <v>138</v>
@@ -4258,13 +4522,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="D139" s="1">
         <v>139</v>
@@ -4275,13 +4539,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D140" s="1">
         <v>140</v>
@@ -4292,13 +4556,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="D141" s="1">
         <v>141</v>
@@ -4309,13 +4573,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="D142" s="1">
         <v>142</v>
@@ -4326,13 +4590,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D143" s="1">
         <v>143</v>
@@ -4343,13 +4607,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D144" s="1">
         <v>144</v>
@@ -4360,13 +4624,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D145" s="1">
         <v>145</v>
@@ -4377,13 +4641,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D146" s="1">
         <v>146</v>
@@ -4394,13 +4658,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D147" s="1">
         <v>147</v>
@@ -4411,13 +4675,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D148" s="1">
         <v>148</v>
@@ -4428,13 +4692,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="D149" s="1">
         <v>149</v>
@@ -4445,13 +4709,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D150" s="1">
         <v>150</v>
@@ -4462,13 +4726,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="D151" s="1">
         <v>151</v>
@@ -4479,13 +4743,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D152" s="1">
         <v>152</v>
@@ -4496,13 +4760,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="D153" s="1">
         <v>153</v>
@@ -4513,13 +4777,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="D154" s="1">
         <v>154</v>
@@ -4530,13 +4794,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="D155" s="1">
         <v>155</v>
@@ -4547,13 +4811,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D156" s="1">
         <v>156</v>
@@ -4564,13 +4828,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="D157" s="1">
         <v>157</v>
@@ -4581,13 +4845,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D158" s="1">
         <v>158</v>
@@ -4598,13 +4862,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D159" s="1">
         <v>159</v>
@@ -4615,13 +4879,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="D160" s="1">
         <v>160</v>
@@ -4632,13 +4896,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="D161" s="1">
         <v>161</v>
@@ -4649,13 +4913,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D162" s="1">
         <v>162</v>
@@ -4666,13 +4930,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D163" s="1">
         <v>163</v>
@@ -4683,13 +4947,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>404</v>
+        <v>598</v>
       </c>
       <c r="D164" s="1">
         <v>164</v>
@@ -4700,13 +4964,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="D165" s="1">
         <v>165</v>
@@ -4717,13 +4981,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D166" s="1">
         <v>166</v>
@@ -4734,13 +4998,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D167" s="1">
         <v>167</v>
@@ -4751,13 +5015,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="D168" s="1">
         <v>168</v>
@@ -4768,13 +5032,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="D169" s="1">
         <v>169</v>
@@ -4785,13 +5049,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D170" s="1">
         <v>170</v>
@@ -4802,13 +5066,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D171" s="1">
         <v>171</v>
@@ -4819,13 +5083,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="D172" s="1">
         <v>172</v>
@@ -4836,13 +5100,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="D173" s="1">
         <v>173</v>
@@ -4853,13 +5117,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D174" s="1">
         <v>174</v>
@@ -4870,13 +5134,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="D175" s="1">
         <v>175</v>
@@ -4887,13 +5151,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="D176" s="1">
         <v>176</v>
@@ -4904,13 +5168,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="D177" s="1">
         <v>177</v>
@@ -4921,13 +5185,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D178" s="1">
         <v>178</v>
@@ -4938,13 +5202,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="D179" s="1">
         <v>179</v>
@@ -4955,13 +5219,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="D180" s="1">
         <v>180</v>
@@ -4972,13 +5236,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="D181" s="1">
         <v>181</v>
@@ -4989,13 +5253,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D182" s="1">
         <v>182</v>
@@ -5006,13 +5270,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="D183" s="1">
         <v>183</v>
@@ -5023,13 +5287,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D184" s="1">
         <v>184</v>
@@ -5040,13 +5304,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D185" s="1">
         <v>185</v>
@@ -5057,13 +5321,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="D186" s="1">
         <v>186</v>
@@ -5074,13 +5338,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="D187" s="1">
         <v>187</v>
@@ -5091,13 +5355,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D188" s="1">
         <v>188</v>
@@ -5108,13 +5372,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="D189" s="1">
         <v>189</v>
@@ -5125,13 +5389,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D190" s="1">
         <v>190</v>
@@ -5142,13 +5406,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D191" s="1">
         <v>191</v>
@@ -5159,13 +5423,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>367</v>
+        <v>485</v>
       </c>
       <c r="D192" s="1">
         <v>192</v>
@@ -5176,13 +5440,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="D193" s="1">
         <v>193</v>
@@ -5193,13 +5457,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>361</v>
+        <v>491</v>
       </c>
       <c r="D194" s="1">
         <v>194</v>
@@ -5210,13 +5474,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="D195" s="1">
         <v>195</v>
@@ -5227,13 +5491,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D196" s="1">
         <v>196</v>
@@ -5244,13 +5508,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D197" s="1">
         <v>197</v>
@@ -5261,13 +5525,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D198" s="1">
         <v>198</v>
@@ -5278,13 +5542,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="D199" s="1">
         <v>199</v>
@@ -5295,13 +5559,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D200" s="1">
         <v>200</v>
@@ -5312,13 +5576,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="D201" s="1">
         <v>201</v>
@@ -5329,13 +5593,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D202" s="1">
         <v>202</v>
@@ -5346,13 +5610,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D203" s="1">
         <v>203</v>
@@ -5363,13 +5627,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="D204" s="1">
         <v>204</v>
@@ -5380,13 +5644,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D205" s="1">
         <v>205</v>
@@ -5397,13 +5661,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="D206" s="1">
         <v>206</v>
@@ -5414,13 +5678,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>369</v>
+        <v>517</v>
       </c>
       <c r="D207" s="1">
         <v>207</v>
@@ -5431,13 +5695,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D208" s="1">
         <v>208</v>
@@ -5448,13 +5712,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="D209" s="1">
         <v>209</v>
@@ -5465,13 +5729,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D210" s="1">
         <v>210</v>
@@ -5482,13 +5746,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>363</v>
+        <v>524</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>364</v>
+        <v>524</v>
       </c>
       <c r="D211" s="1">
         <v>211</v>
@@ -5499,13 +5763,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="D212" s="1">
         <v>212</v>
@@ -5516,13 +5780,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>422</v>
+        <v>529</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="D213" s="1">
         <v>213</v>
@@ -5533,13 +5797,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D214" s="1">
         <v>214</v>
@@ -5550,13 +5814,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="D215" s="1">
         <v>215</v>
@@ -5567,13 +5831,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="D216" s="1">
         <v>216</v>
@@ -5584,13 +5848,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>422</v>
+        <v>538</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>422</v>
+        <v>539</v>
       </c>
       <c r="D217" s="1">
         <v>217</v>
@@ -5601,13 +5865,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D218" s="1">
         <v>218</v>
@@ -5618,13 +5882,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>363</v>
+        <v>542</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>363</v>
+        <v>542</v>
       </c>
       <c r="D219" s="1">
         <v>219</v>
@@ -5635,13 +5899,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="D220" s="1">
         <v>220</v>
@@ -5652,13 +5916,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>422</v>
+        <v>547</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>422</v>
+        <v>548</v>
       </c>
       <c r="D221" s="1">
         <v>221</v>
@@ -5669,13 +5933,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D222" s="1">
         <v>222</v>
@@ -5686,13 +5950,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="D223" s="1">
         <v>223</v>
@@ -5703,13 +5967,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D224" s="1">
         <v>224</v>
@@ -5720,13 +5984,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D225" s="1">
         <v>225</v>
@@ -5737,13 +6001,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>366</v>
+        <v>556</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>367</v>
+        <v>557</v>
       </c>
       <c r="D226" s="1">
         <v>226</v>
@@ -5754,13 +6018,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>369</v>
+        <v>559</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="D227" s="1">
         <v>227</v>
@@ -5771,13 +6035,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D228" s="1">
         <v>228</v>
@@ -5788,13 +6052,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="D229" s="1">
         <v>229</v>
@@ -5805,13 +6069,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D230" s="1">
         <v>230</v>
@@ -5822,13 +6086,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D231" s="1">
         <v>231</v>
@@ -5839,13 +6103,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>366</v>
+        <v>568</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>367</v>
+        <v>569</v>
       </c>
       <c r="D232" s="1">
         <v>232</v>
@@ -5856,13 +6120,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="D233" s="1">
         <v>233</v>
@@ -5873,18 +6137,171 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="D234" s="1">
         <v>234</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D235" s="1">
+        <v>235</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D236" s="1">
+        <v>236</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D237" s="1">
+        <v>237</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D238" s="1">
+        <v>238</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D239" s="1">
+        <v>239</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D240" s="1">
+        <v>240</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D241" s="1">
+        <v>241</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D242" s="1">
+        <v>242</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D243" s="1">
+        <v>243</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
@@ -1332,6 +1332,9 @@
     <t>"You were \"Slayer\"! Your signatures were &lt;b&gt;large melee weapons&lt;/b&gt;, made possible by use of &lt;b&gt;TSM&lt;/b&gt;."</t>
   </si>
   <si>
+    <t>"Вас прозвали «Истребитель»! Вашей фишкой было использование больших орудий для рукопашной, что было возможно благодаря миомерам тройной силы."</t>
+  </si>
+  <si>
     <t>CommanderGearEventGladiator.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
@@ -1816,9 +1819,6 @@
   </si>
   <si>
     <t>"Просматривая различные коммерческие сайты, на вас снисходит озарение. Зачем продавать только одну копию головидео? Хо-хо-хо, чертяка {COMMANDER.FirstName}. Наверняка, не будет никаких анти-пиратских мер против дешевых сериалов, которые так любят деревенщины из [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]].\n\nС коробкой в руках вы спешите в инженерный отсек. Фара выглядела отнюдь не радостно, когда вы объяснили ей всю схему. Если бы она нахмурилась ещё чуть сильней, её брови бы достали до подбородка. С неохотой она принимает от вас головидео.\n\n«Видимо, я дам вам знать, когда закончу,» - произнесла она, сдавшись.\n\nПроходит пара часов и местный рынок становится наводнён нелегальными копиями [[DM.BaseDescriptionDefs[LoreHolovidMercenaries],«Наёмников»!]]\n\nНаверняка, проблем не возникнет."</t>
-  </si>
-  <si>
-    <t>"Вас прозвали «Истребитель»! Вашей фишкой было использование больших орудий для рукопашной, что было возможно благодаря миомерам тройной силы."</t>
   </si>
 </sst>
 </file>
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,8 +2170,8 @@
     <col min="2" max="2" width="90.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,7 +4953,7 @@
         <v>435</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>598</v>
+        <v>436</v>
       </c>
       <c r="D164" s="1">
         <v>164</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>430</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>395</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>401</v>
@@ -5015,13 +5015,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D168" s="1">
         <v>168</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>430</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>395</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>401</v>
@@ -5083,13 +5083,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D172" s="1">
         <v>172</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>430</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>395</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>386</v>
@@ -5151,13 +5151,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D176" s="1">
         <v>176</v>
@@ -5168,13 +5168,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D177" s="1">
         <v>177</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>395</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>386</v>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D180" s="1">
         <v>180</v>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D181" s="1">
         <v>181</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>395</v>
@@ -5270,13 +5270,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D183" s="1">
         <v>183</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>383</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>401</v>
@@ -5321,13 +5321,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D186" s="1">
         <v>186</v>
@@ -5338,13 +5338,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D187" s="1">
         <v>187</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>395</v>
@@ -5372,13 +5372,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D189" s="1">
         <v>189</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>383</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>401</v>
@@ -5423,13 +5423,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D192" s="1">
         <v>192</v>
@@ -5440,13 +5440,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D193" s="1">
         <v>193</v>
@@ -5457,13 +5457,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D194" s="1">
         <v>194</v>
@@ -5474,13 +5474,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D195" s="1">
         <v>195</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>383</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>401</v>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D198" s="1">
         <v>198</v>
@@ -5542,13 +5542,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D199" s="1">
         <v>199</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>395</v>
@@ -5576,13 +5576,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D201" s="1">
         <v>201</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>395</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>401</v>
@@ -5627,13 +5627,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D204" s="1">
         <v>204</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>401</v>
@@ -5661,13 +5661,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D206" s="1">
         <v>206</v>
@@ -5678,13 +5678,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D207" s="1">
         <v>207</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>395</v>
@@ -5712,13 +5712,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D209" s="1">
         <v>209</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>383</v>
@@ -5746,13 +5746,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D211" s="1">
         <v>211</v>
@@ -5763,13 +5763,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D212" s="1">
         <v>212</v>
@@ -5780,13 +5780,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D213" s="1">
         <v>213</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>395</v>
@@ -5814,13 +5814,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D215" s="1">
         <v>215</v>
@@ -5831,13 +5831,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D216" s="1">
         <v>216</v>
@@ -5848,13 +5848,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D217" s="1">
         <v>217</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>395</v>
@@ -5882,13 +5882,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D219" s="1">
         <v>219</v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D220" s="1">
         <v>220</v>
@@ -5916,13 +5916,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D221" s="1">
         <v>221</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>395</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D223" s="1">
         <v>223</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>383</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>401</v>
@@ -6001,13 +6001,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D226" s="1">
         <v>226</v>
@@ -6018,13 +6018,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D227" s="1">
         <v>227</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>395</v>
@@ -6052,13 +6052,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D229" s="1">
         <v>229</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>383</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>401</v>
@@ -6103,13 +6103,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D232" s="1">
         <v>232</v>
@@ -6120,13 +6120,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D233" s="1">
         <v>233</v>
@@ -6137,13 +6137,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D234" s="1">
         <v>234</v>
@@ -6154,13 +6154,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D235" s="1">
         <v>235</v>
@@ -6171,13 +6171,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D236" s="1">
         <v>236</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D237" s="1">
         <v>237</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>40</v>
@@ -6222,13 +6222,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D239" s="1">
         <v>239</v>
@@ -6239,13 +6239,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D240" s="1">
         <v>240</v>
@@ -6256,13 +6256,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D241" s="1">
         <v>241</v>
@@ -6273,13 +6273,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D242" s="1">
         <v>242</v>
@@ -6290,13 +6290,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D243" s="1">
         <v>243</v>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\BT Mod Files\ENOVA LOCALIZATION\Localization - копия\RogueTech\RU\RogueBackgrounds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\Mods\Core\CustomLocalization\Localization\RogueTech\RU\RogueBackgrounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="711">
   <si>
     <t>background_ancestry_Davion.BioDescription</t>
   </si>
@@ -30,54 +30,81 @@
     <t>"You were born and raised in the Federation. MechWarriors who hail from the Federated Suns tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Федерации. Мехвоины из Федеративных Солнц, как правило, обладают более отточенными навыками и лучшим снаряжением, чем их собратья из других регионов космоса. Они часто считают себя праведными воинами и поборниками свободы - иногда доходя до крайности.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Davion.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Davion],Федерации Солнц]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Davion.Description.Name</t>
   </si>
   <si>
     <t>"Davion"</t>
   </si>
   <si>
+    <t>"Дэвион"</t>
+  </si>
+  <si>
     <t>background_ancestry_Davion.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Davion],Federated Suns]] tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.\r\n\r\nThough nearly extinguished by the [[DM.Factions[faction_Kurita],Draconis Combine]] in the [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],First Succession War]], the Federated Suns - a constitutional monarchy ruled by the renowned [[DM.BaseDescriptionDefs[LoreHouseDavion],House Davion]] - has become arguably the most powerful of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]. Through skillful military campaigns and subtle diplomacy, House Davion has significantly increased the number of star systems under its control in the last two centuries."</t>
   </si>
   <si>
+    <t>"Мехвоины, родом из [[DM.Factions[faction_Davion],Федеративных Солнц]], как правило, обладают более отточенными навыками и лучшим снаряжением, чем их собратья из других регионов космоса. Они часто считают себя праведными воинами и поборниками свободы - иногда до крайности.\r\n\r\nВ своё время почти полностью уничтоженная [[DM.Factions[faction_Kurita]],Синдикатом Дракона]] в [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],Первую войну за наследство]], Федеративные Солнца - конституционная монархия, управляемая знаменитым [[DM.BaseDescriptionDefs[LoreHouseDavion],Домом Дэвион]] - позже стала, пожалуй, самой могущественной из пяти великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]]. Благодаря умелым военным кампаниям и тонкой дипломатии, Дом Дэвион за последние два столетия значительно увеличил число контролируемых им звездных систем."</t>
+  </si>
+  <si>
     <t>background_ancestry_Davion.OptionName</t>
   </si>
   <si>
     <t>"The Federated Suns (Davion)"</t>
   </si>
   <si>
+    <t>"Федерация Солнц (Дэвион)"</t>
+  </si>
+  <si>
     <t>background_ancestry_DeepPeriphery.BioDescription</t>
   </si>
   <si>
     <t>"You were born and raised in the Deep Periphery. MechWarriors that hail from the Deep Periphery are rare, but even rarer is the MechWarrior who will admit to such an origin. Beyond the outermost edges of the Periphery lie depths of space that remain uncharted and unknown to most of human civilization, littered with abandoned colonies and small outposts.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Глубокой Периферии. Мехвоины, родом оттуда, встречаются нечасто, но еще реже встречаются мехвоины, которые признаются в этом. За пределами Периферии лежат глубины космоса, которые остаются неизведанными и неизвестными для большинства человеческих цивилизаций, захламленные заброшенными колониями и небольшими аванпостами.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_DeepPeriphery.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Глубокой Периферии]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_DeepPeriphery.Description.Name</t>
   </si>
   <si>
     <t>"DeepPeriphery"</t>
   </si>
   <si>
+    <t>"Глубокая Периферия"</t>
+  </si>
+  <si>
     <t>background_ancestry_DeepPeriphery.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors that hail from the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]] are rare, but even rarer is the MechWarrior who will admit to such an origin. \r\n\r\nBeyond the outermost edges of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]] lie depths of space that remain uncharted and unknown to most of human civilization. Little is known about these regions, but they are far from uninhabited. The Deep Periphery is littered with abandoned colonies and small outposts, isolated from the rest of humanity. After the fall of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]], General [[DM.BaseDescriptionDefs[LoreKerensky],Aleksandr Kerensky]] led the remnants of the [[DM.BaseDescriptionDefs[LoreSLDF],Star League Defense Force]] into the Deep Periphery, disappearing from the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and from recorded history."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Глубокой Периферии]] встречаются редко, но ещё реже встречаются мехвоины, которые признаются в этом. \r\n\r\nЗа крайними границами [[DM.BaseDescriptionDefs[LoreRimwardPeriphery]],Периферии]] простираются глубины космоса, которые остаются неизведанными и неизвестными для большинства представителей человеческой цивилизации. Об этих регионах мало что известно, но они далеко не необитаемы. Глубокая Периферия усеяна заброшенными колониями и небольшими аванпостами, изолированными от остального человечества. После падения [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]] генерал [[DM.BaseDescriptionDefs[LoreKerensky]],Александр Керенский]] повёл остатки [[DM.BaseDescriptionDefs[LoreSLDF],Сил обороны Звездной Лиги]] в Глубокую Периферию и исчез из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], став историей."</t>
+  </si>
+  <si>
     <t>background_ancestry_DeepPeriphery.OptionName</t>
   </si>
   <si>
@@ -90,174 +117,261 @@
     <t>"Born by natural means within the [[DM.BaseDescriptionDefs[LoreClans],Clans]], your status has always been second class. However, this has done nothing to curb your ambition to become more than just a footnote in the known universe, let alone just the Clans."</t>
   </si>
   <si>
+    <t>"Рожденный естественным путем в [[DM.BaseDescriptionDefs[LoreClans],Кланах]], ваш статус всегда был второго сорта. Однако это нисколько не сдерживает вашего стремления стать чем-то большим для известной вселенной, не говоря уже о Кланах."</t>
+  </si>
+  <si>
     <t>background_ancestry_Freeborn.Description.Details</t>
   </si>
   <si>
     <t>"You were born a [[DM.BaseDescriptionDefs[LoreFreeborn],freeborn]] [[DM.BaseDescriptionDefs[LoreClans],Clan]] member."</t>
   </si>
   <si>
+    <t>"Вы родились [[DM.BaseDescriptionDefs[LoreFreeborn],вольнорожденным]] [[DM.BaseDescriptionDefs[LoreClans],кланнером]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Freeborn.Description.Name</t>
   </si>
   <si>
     <t>"Freeborn"</t>
   </si>
   <si>
+    <t>"Вольнорожденный"</t>
+  </si>
+  <si>
     <t>background_ancestry_Freeborn.OptionDescription</t>
   </si>
   <si>
     <t>"TESTING"</t>
   </si>
   <si>
+    <t>"ТЕСТИРУЮ"</t>
+  </si>
+  <si>
     <t>background_ancestry_Freeborn.OptionName</t>
   </si>
   <si>
     <t>"Clan Space (Freeborn)"</t>
   </si>
   <si>
+    <t>"Пространство Кланов (вольнорожденный)"</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.BioDescription</t>
   </si>
   <si>
     <t>"You were born and raised in the Draconis Combine. MechWarriors who hail from the Combine tend to be fierce, disciplined, and relentless fighters. Over centuries of rule, House Kurita has united the Combine into a single culture, heavily molded around medieval Japanese society.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Синдикате Дракона. Мехвоины из Синдиката обычно являются свирепыми, дисциплинированными и неумолимыми бойцами. За века своего правления Дом Курита объединил Синдикат под единой культурой, в значительной степени сформированной на основе средневекового японского общества.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_Kurita],Draconis Combine]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Kurita],Синдикате Дракона]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.Description.Name</t>
   </si>
   <si>
     <t>"Kurita"</t>
   </si>
   <si>
+    <t>"Курита"</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Kurita],Combine]] tend to be fierce, disciplined, and relentless fighters, no matter the odds they might face on the battlefield.\r\n\r\nAlthough the Draconis Combine is as ethnically diverse as any of the vast interstellar empires, it is also one of the most culturally homogenous. Over centuries of rule, the founding [[DM.BaseDescriptionDefs[LoreHouseKurita],House Kurita]] has succeeded in uniting the people of the Combine into a single culture, one heavily molded around medieval Japanese society. While some, most notably the descendants of the conquered [[DM.BaseDescriptionDefs[LoreRaselhague],Principality of Rasalhague]], continue to chafe at the uniformity of Draconis society, overall this has created a more cohesive populace and military than seen in the other Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_Kurita],Синдиката]] обычно являются свирепыми, дисциплинированными и неумолимыми бойцами, независимо от того, с какими трудностями они сталкиваются на поле боя.\r\n\r\nНесмотря на этническое разнообразие в Синдикате Дракона, как и в любой огромной межзвездной империи, оно также является одним из самых однородных в культурном отношении. За столетия правления, [[DM.BaseDescriptionDefs[LoreHouseKurita],Дому Курита]] удалось объединить народ Синдиката под единой культурой, в значительной степени сформированной на основе средневекового японского общества. Хотя некоторые, в первую очередь потомки завоеванного [[DM.BaseDescriptionDefs[LoreRaselhague]],Княжества Расальхаг]], по-прежнему недовольны единообразием общества Дракона, в целом это привело к созданию более сплоченного населения и армии, чем в других Великих домах [[DM.BaseDescriptionDefs[LoreInnerSphere]],Внутренней Сферы]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Kurita.OptionName</t>
   </si>
   <si>
     <t>"The Draconis Combine (Kurita)"</t>
   </si>
   <si>
+    <t>"Синдикат Дракона (Курита)"</t>
+  </si>
+  <si>
     <t>background_ancestry_Liao.BioDescription</t>
   </si>
   <si>
     <t>"You were born and raised in the Capellan Confederation. MechWarriors who hail from the Capellan Confederation are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them. Most Capellans take great pride in their citizenship, which must be earned through service to the state.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Капелланской Конфедерации. Мехвоины Капелланской Конфедерации - это преданные и стойкие бойцы, способные держать оборону и часто удивлять тех противников, которые совершают ошибку, недооценивая их. Большинство капелланцев гордятся своим гражданством, которое они ещё должны заслужить, работая на благо государства.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Liao.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_Liao],Capellan Confederation]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Liao],Конфедерации Капеллы]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Liao.Description.Name</t>
   </si>
   <si>
     <t>"Liao"</t>
   </si>
   <si>
+    <t>"Ляо"</t>
+  </si>
+  <si>
     <t>background_ancestry_Liao.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Liao],Capellan Confederation]] are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them.\r\n\r\nThe Capellan Confederation has suffered the most at the hands of the other [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] over the last two centuries of war, having lost nearly half of the territory it once controlled at the height of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s rule. Over time, the leadership of [[DM.BaseDescriptionDefs[LoreHouseLiao],House Liao]] has transformed the Capellan Confederation into a socialist police state with a highly regulated economy. Most Capellans take great pride in their citizenship, which must be earned through service to the state."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_Liao],Капелланской Конфедерации]] - это преданные и стойкие бойцы, способные держать строй и часто удивлять тех противников, которые совершили ошибку, недооценив их.\r\n\r\nЗа последние два столетия войны Капелланская Конфедерация больше всех пострадала от рук других [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]], потеряв почти половину территории, которую она когда-то контролировала в период расцвета [[DM.BaseDescriptionDefs[LoreStarLeague],Звездной Лиги]]. Со временем руководство [[DM.BaseDescriptionDefs[LoreHouseLiao]],Дома Ляо]] превратило Капелланскую Конфедерацию в социалистическое полицейское государство с жестко регулируемой экономикой. Большинство капелланцев гордятся своим гражданством, которое ещё нужно заслужить, трудясь на благо государства."</t>
+  </si>
+  <si>
     <t>background_ancestry_Liao.OptionName</t>
   </si>
   <si>
     <t>"The Capellan Confederation (Liao)"</t>
   </si>
   <si>
+    <t>"Конфедерация Капеллы (Ляо)"</t>
+  </si>
+  <si>
     <t>background_ancestry_Magistracy.BioDescription</t>
   </si>
   <si>
     <t>"You were born and raised in the Magistracy of Canopus. MechWarriors who hail from the Magistracy of Canopus often favor clever and unorthodox tactics on the field. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Магистрате Канопуса. Мехвоины и мехвоинессы из Магистрата Канопуса часто предпочитают умные и неординарные тактики на поле боя. Магистрат поддерживает открытое общество, обеспечивающее личную свободу всех граждан и их право жить так, как они считают нужным.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Magistracy.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_MagistracyOfCanopus],Магистрате Канопуса]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Magistracy.Description.Name</t>
   </si>
   <si>
     <t>"Magistracy"</t>
   </si>
   <si>
+    <t>"Магистрат"</t>
+  </si>
+  <si>
     <t>background_ancestry_Magistracy.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]] can run the gamut of skill and fighting styles, but they often favor clever and unorthodox tactics on the field.\r\n\r\nWhile smaller than the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Magistracy of Canopus is one of the major powers of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. The Magistracy is a matriarchal society led by a Magestrix. This is an elected position open to any woman but largely controlled by [[DM.BaseDescriptionDefs[LoreHouseCentrella],House Centrella]] due to the family's popularity. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_MagistracyOfCanopus]],Магистрата Канопуса]] могут обладать самыми разными навыками и стилями боя, но на поле боя они часто предпочитают умные и нестандартные тактики.\r\n\r\nПусть он и меньше, чем великие [[DM.BaseDescriptionDefs[LoreSuccessorState],Государства-наследники]] из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], Магистрат Канопуса является одной из крупнейших держав [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Магистрат представляет собой матриархальное общество, во главе которого стоит магистра. Это выборная должность, открытая для любой женщины, но в значительной степени контролируемая [[DM.BaseDescriptionDefs[LoreHouseCentrella]],Домом Сентрелла]] из-за популярности семьи. Магистрат поддерживает открытое общество, обеспечивающее личную свободу всех граждан и их право жить так, как они считают нужным."</t>
+  </si>
+  <si>
     <t>background_ancestry_Magistracy.OptionName</t>
   </si>
   <si>
     <t>"The Magistracy of Canopus"</t>
   </si>
   <si>
+    <t>"Магистрат Канопуса"</t>
+  </si>
+  <si>
     <t>background_ancestry_Marik.BioDescription</t>
   </si>
   <si>
     <t>"You were born and raised in the Free Worlds League. MechWarriors who hail from the Free Worlds League tend to be passionate, enduring fighters who value justice and equality above all else. The cultural diversity and independence of the Free Worlds League is at once the greatest strength of the Free Worlds League, and its greatest weaknesses.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Лиге Свободных Миров. Мехвоины Лиги, как правило, страстные, стойкие бойцы, превыше всего ценящие справедливость и равенство. Культурное разнообразие и независимость Лиги Свободных Миров - это одновременно и её величайшая сила, и величайшая слабость.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Marik.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_Marik],Free Worlds League]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Marik],Лиге Свободных Миров]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Marik.Description.Name</t>
   </si>
   <si>
     <t>"Marik"</t>
   </si>
   <si>
+    <t>"Марик"</t>
+  </si>
+  <si>
     <t>background_ancestry_Marik.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Marik],Free Worlds League]] tend to be passionate, enduring fighters who value justice and equality above all else.\r\n\r\nThe oldest, and theoretically most democratic, of the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Free Worlds League is actually a broad coalition of many minor noble houses. For most of the League's history, it has been ruled under martial law by a Captain-General, who by tradition is from [[DM.BaseDescriptionDefs[LoreHouseMarik],House Marik]]. The cultural diversity and relative independence of its component regions are at once the greatest strength of the Free Worlds League, and its greatest weaknesses."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_Marik]],Лиги Свободных Миров]], как правило, страстные, стойкие бойцы, которые превыше всего ценят справедливость и равенство.\r\n\r\nСамая старая и теоретически самая демократичная из великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]] [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], Лига Свободных Миров на самом деле представляет собой коалицию многих мелких знатных домов. На протяжении большей части истории Лиги она управлялась на основе военного положения капитан-генералом, который по традиции является представителем [[DM.BaseDescriptionDefs[LoreHouseMarik],Дома Марик]]. Культурное разнообразие и относительная независимость входящих в нее регионов являются одновременно и величайшей силой Лиги, и ее слабостью."</t>
+  </si>
+  <si>
     <t>background_ancestry_Marik.OptionName</t>
   </si>
   <si>
     <t>"The Free Worlds League (Marik)"</t>
   </si>
   <si>
+    <t>"Лига Свободных Миров (Марик)"</t>
+  </si>
+  <si>
     <t>background_ancestry_Periphery.BioDescription</t>
   </si>
   <si>
     <t>"You were born and raised in the Periphery. There is no easy way to characterize MechWarriors hailing from the Periphery - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors. The Periphery is the galaxy's frontier, and petty politics and piracy rule the region."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли на Периферии. Мехвоинов из Периферии охарактеризовать нелегко - они могут быть кем угодно, от мелких головорезов до безжалостных тактиков и опытных и благородных воинов. Периферия - это граница галактики, где правит мелочная политика и пиратство."</t>
+  </si>
+  <si>
     <t>background_ancestry_Periphery.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.BaseDescriptionDefs[LorePeriphery], Periphery]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Periphery.Description.Name</t>
   </si>
   <si>
     <t>"Periphery"</t>
   </si>
   <si>
+    <t>"Периферия"</t>
+  </si>
+  <si>
     <t>background_ancestry_Periphery.OptionDescription</t>
   </si>
   <si>
     <t>"There is no easy way to characterize MechWarriors hailing from the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors.\r\n\r\nThe nations and minor noble houses of the Rimward Periphery have long played a role in shaping humanity - the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s downfall began in the Periphery, eventually leading to the current tattered state of these disparate star systems on the edge of known space. The Periphery is still the galaxy's frontier, where the Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] play deadly politics, petty bandit kingdoms thrive, and pirate bands prey on the minor noble houses trying to survive in this hostile environment."</t>
   </si>
   <si>
+    <t>"Нет такого одного слова, чтобы охарактеризовать мехвоинов, родом из [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Они могут быть кем угодно - от мелких бандитов до безжалостных тактиков и опытных и благородных воинов.\r\n\r\nНации и мелкие дворянские дома Окраинной Периферии давно сыграли свою роль в формировании человечества - падение [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]] началось именно на Периферии, что в итоге привело к нынешнему плачевному состоянию этих разрозненных звездных систем на краю известного космоса. Периферия по-прежнему является границей галактики, где Великие Дома [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]] играют в смертельно опасную политику, где процветают мелкие бандитские королевства, а пиратские банды охотятся на мелкие дворянские дома, пытающиеся выжить в этой враждебной среде."</t>
+  </si>
+  <si>
     <t>background_ancestry_Periphery.OptionName</t>
   </si>
   <si>
@@ -270,78 +384,117 @@
     <t>"Decades ago, your family came to the Aurigan Reach from the Lyran Commonwealth. MechWarriors who hail from the Lyran Commonwealth tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield. Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth.\r\n"</t>
   </si>
   <si>
+    <t>"Десятилетия назад ваша семья прибыла в Aurigan Reach из Лиранского Содружества. Мехвоины из Лиранского Содружества, как правило, выносливы, хорошо экипированы и обучены, хотя и заслужили репутацию людей, не отличающихся особым стратегическим мышлением на поле боя. Богатство - главная сила торговых князей Лиранского Содружества.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Steiner.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_Steiner],Lyran Commonwealth]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Steiner],Лиранском Содружестве]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Steiner.Description.Name</t>
   </si>
   <si>
     <t>"Steiner"</t>
   </si>
   <si>
+    <t>"Штайнер"</t>
+  </si>
+  <si>
     <t>background_ancestry_Steiner.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_Steiner],Lyran Commonwealth]] tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield.\r\n\r\nWealth is the greatest strength of the merchant princes of the Lyran Commonwealth, ruled by [[DM.BaseDescriptionDefs[LoreHouseSteiner],House Steiner]]. Despite a number of humiliating defeats in the first two [[DM.BaseDescriptionDefs[LoreSuccessionWars],Succession Wars]], the Lyran Commonwealth has bounced back thanks to the combined strength of its economy (the biggest of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]) and its control of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]'s largest functioning BattleMech factories. What the Lyran Commonwealth may lack in military prowess, it makes up for with raw numbers and industrial scale."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_Steiner],Лиранского Содружества]], как правило, выносливы, хорошо экипированы и обучены, хотя и заслужили репутацию не особо стратегически мыслящих на поле боя.\r\n\r\nБлагосостояние - главная сила торговых князей Лиранского Содружества, управляемого [[DM.BaseDescriptionDefs[LoreHouseSteiner],Домом Штайнер]]. Несмотря на ряд унизительных поражений в первых двух [[DM.BaseDescriptionDefs[LoreSuccessionWars]],Наследных войнах]], Лиранское Содружество вырвалось вперед благодаря совокупной мощи своей экономики (самой большой среди пяти великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]]) и контролю над крупнейшими действующими заводами боевых мехов во [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сфере]]. То, чего Лиранскому Содружеству, возможно, не хватает в военной доблести, оно компенсирует численностью и промышленными масштабами."</t>
+  </si>
+  <si>
     <t>background_ancestry_Steiner.OptionName</t>
   </si>
   <si>
     <t>"The Lyran Commonwealth (Steiner)"</t>
   </si>
   <si>
+    <t>"Лиранское Содружество (Штайнер)"</t>
+  </si>
+  <si>
     <t>background_ancestry_Taurians.BioDescription</t>
   </si>
   <si>
     <t>"Decades ago, your family came to the Aurigan Reach from the Taurian Concordat. MechWarriors who hail from the Taurian Concordat tend to be stubborn and aggressive but are nonetheless skilled and perceptive combatants. Founded as a constitutional monarchy under the leadership of House Calderon, the Taurian Concordat is the strongest military power of the Rimward Periphery.\r\n"</t>
   </si>
   <si>
+    <t>"Десятилетия назад ваша семья прибыла в Aurigan Reach из Таурианского Конкордата. Мехвоины оттуда, как правило, упрямы и агрессивны, но, тем не менее, являются опытными и проницательными бойцами. Основанный как конституционная монархия под руководством Дома Кальдерон, Таурианский Конкордат является сильнейшей военной державой Окраинной Периферии.\r\n"</t>
+  </si>
+  <si>
     <t>background_ancestry_Taurians.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_TaurianConcordat],Таурианском Конкордате]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Taurians.Description.Name</t>
   </si>
   <si>
     <t>"Taurians"</t>
   </si>
   <si>
+    <t>"Таурианцы"</t>
+  </si>
+  <si>
     <t>background_ancestry_Taurians.OptionDescription</t>
   </si>
   <si>
     <t>"MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. \r\n\r\nFounded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]]."</t>
   </si>
   <si>
+    <t>"Мехвоины из [[DM.Factions[faction_TaurianConcordat],Таурианского Конкордата]], как правило, упрямы и агрессивны. Они могут быстро разгневаться, но, тем не менее, являются опытными и проницательными бойцами.\r\n\r\nОснованный как конституционная монархия под руководством [[DM.BaseDescriptionDefs[LoreHouseCalderon]],Дома Кальдерон]], Таурианский Конкордат является сильнейшей военной державой [[DM.BaseDescriptionDefs[LoreRimwardPeriphery]],Окраинной Периферии]]. Это также одно из старейших сохранившихся поселений человеческой цивилизации, что сформировалось задолго до создания [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]]. Граждане таурианцы пользуются широкими свободами, гарантированными Уставом Конкордата, и гордятся тем, что защищают эти свободы, неся обязательную службу. Таурианский Конкордат долгое время находился во враждебных отношениях со [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферой]], особенно с [[DM.Factions[faction_Davion],Федеративными Солнцами]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_Taurians.OptionName</t>
   </si>
   <si>
     <t>"The Taurian Concordat"</t>
   </si>
   <si>
+    <t>"Таурианский Конкордат"</t>
+  </si>
+  <si>
     <t>background_ancestry_TestTubeBaby.BioDescription</t>
   </si>
   <si>
     <t>"You were created a [[DM.BaseDescriptionDefs[LoreTrueborn],trueborn]] member of the [[DM.BaseDescriptionDefs[LoreClans],Clans]]. Washed out from the eugenics program, you are still determined to earn your place in the Remembrance."</t>
   </si>
   <si>
+    <t>"Вы были созданы [[DM.BaseDescriptionDefs[LoreTrueborn],вернорожденным]] членом [[DM.BaseDescriptionDefs[LoreClans],Кланов]]. Изгнанные из программы евгеники, вы всё ещё полны решимости заслужить своё место в Предании."</t>
+  </si>
+  <si>
     <t>background_ancestry_TestTubeBaby.Description.Details</t>
   </si>
   <si>
     <t>"You were created a [[DM.BaseDescriptionDefs[LoreTrueborn],trueborn]] member of the [[DM.BaseDescriptionDefs[LoreClans],Clans]].\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorAll],All Skills]].\nCannot command [[DM.BaseDescriptionDefs[ConceptVehicle],vehicles]]."</t>
   </si>
   <si>
+    <t>"Вы были созданы [[DM.BaseDescriptionDefs[LoreTrueborn],вернорожденным]] членом [[DM.BaseDescriptionDefs[LoreClans],Кланов]].\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorAll],ко всем навыкам]].\nНе будет управлять [[DM.BaseDescriptionDefs[ConceptVehicle],транспортными средствами]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_TestTubeBaby.Description.Name</t>
   </si>
   <si>
     <t>"Trueborn"</t>
   </si>
   <si>
+    <t>"Вернорождённый"</t>
+  </si>
+  <si>
     <t>background_ancestry_TestTubeBaby.OptionDescription</t>
   </si>
   <si>
@@ -351,30 +504,45 @@
     <t>"A Clan Laboratory (Trueborn)"</t>
   </si>
   <si>
+    <t>"Лаборатория Кланов (вернорожденный)"</t>
+  </si>
+  <si>
     <t>background_career_banzai.BioDescription</t>
   </si>
   <si>
     <t>"After years of working for Dr. Banzai, you have stuck out on your own and were given one of Team Banzai's treasured Hatchetmen as a reward for exceptional service.\r\n"</t>
   </si>
   <si>
+    <t>"После многих лет работы на доктора Банзая, вы положительно отличились и получили в награду за службу одну из сокровищ команды Банзая - Hatchetman.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_banzai.Description.Details</t>
   </si>
   <si>
     <t>"[[DM.BaseDescriptionDefs[LoreTeamBanzai],Team Banzai]] has the nicest toys!\nQuirks: [[DM.BaseDescriptionDefs[QuirkGladiator],Gladiator]], [[DM.BaseDescriptionDefs[QuirkPainShunt],Pain Shunt]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Neural Implants]]\nUnit: random [[DM.BaseDescriptionDefs[LoreHatchetmanRT],Hatchetman]]"</t>
   </si>
   <si>
+    <t>"[[DM.BaseDescriptionDefs[LoreTeamBanzai],Команда Банзай]] имеет самые классные игрушки!\nЧерты: [[DM.BaseDescriptionDefs[QuirkGladiator],Гладиатор]], [[DM.BaseDescriptionDefs[QuirkPainShunt],Шунтирование]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Нейроимплантанты]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreHatchetmanRT],Hatchetman]]"</t>
+  </si>
+  <si>
     <t>background_career_banzai.Description.Name</t>
   </si>
   <si>
     <t>"Team Banzai Test Pilot"</t>
   </si>
   <si>
+    <t>"Пилот-испытатель команды Банзая"</t>
+  </si>
+  <si>
     <t>background_career_banzai.OptionDescription</t>
   </si>
   <si>
     <t>"Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
   </si>
   <si>
+    <t>"Устав жить под чужим гнетом, вы примкнули к местной пиратской банде в [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Это была неуправляемая, но эффективная команда - бродя по Периферии, вы могли постоянно нападать на плохо защищенные торговые караваны и склады снабжения. Хотя рейды иногда перерастали в бои, вы быстро поняли, что для успешного пиратства нужно оказаться в нужном месте, в нужное время, с нужными угрозами и хорошей демонстрацией силы.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
     <t>background_career_banzai.OptionName</t>
   </si>
   <si>
@@ -384,24 +552,36 @@
     <t>"Desperate to escape your past, you roamed the Rimward Periphery as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you have been able to eke out a decent living thus far.\r\n"</t>
   </si>
   <si>
+    <t>"Отчаянно желая убежать от своего прошлого, вы скитались по Окраинной Периферии как фрилансер, подписываясь на любое мало-мальское дело, что можно было найти для мехвоина. И параллельно с привыканием к странствующему образу жизни, вы обнаружили, что от такой жизни в кармане лишь тяжелеет.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_freelancer.Description.Details</t>
   </si>
   <si>
     <t>"Someone always needs some work done.\nQuirks: [[DM.BaseDescriptionDefs[QuirkDrunk],Drunk]], [[DM.BaseDescriptionDefs[QuirkReckless],Reckless]]\nUnit: random [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]]"</t>
   </si>
   <si>
+    <t>"Всегда нужен тот, кто берёт и делает.\nЧерты: [[DM.BaseDescriptionDefs[QuirkDrunk],Пьянь]], [[DM.BaseDescriptionDefs[QuirkReckless],Безрассудство]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]]"</t>
+  </si>
+  <si>
     <t>background_career_freelancer.Description.Name</t>
   </si>
   <si>
     <t>"Freelancer"</t>
   </si>
   <si>
+    <t>"Фрилансер"</t>
+  </si>
+  <si>
     <t>background_career_freelancer.OptionDescription</t>
   </si>
   <si>
     <t>"You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
   </si>
   <si>
+    <t>"Вы скитались по [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]] в качестве фрилансера, подписываясь на любые контракты в качестве наемного мехвоина. Это была одинокая жизнь. Но когда вы освоились с кочующим образом жизни, вы обнаружили, что можете прилично зарабатывать, помогая жителям приграничья.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
     <t>background_career_freelancer.OptionName</t>
   </si>
   <si>
@@ -411,24 +591,36 @@
     <t>"Eager to escape your past, you took your Blackjack and your skills as a MechWarrior to the famed arena planet of Solaris VII. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\r\n"</t>
   </si>
   <si>
+    <t>"Стремясь убежать от своего прошлого, вы взяли свой Blackjack и свои навыки мехвоина на знаменитую планету-арену Солярис VII. Там вы зарабатывали на жизнь как гладиатор, сражаясь для публики на небольших аренах, перебиваясь от чека до чека.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_gladiator.Description.Details</t>
   </si>
   <si>
     <t>"A [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris 7]] Gladiator, ready to rumble.\nQuirks: [[DM.BaseDescriptionDefs[QuirkGladiator],Gladiator]], [[DM.BaseDescriptionDefs[QuirkHonest],Honest]]\nEquipment: assorted [[DM.BaseDescriptionDefs[StarterBundleGladiator],gladiator equipment]]."</t>
   </si>
   <si>
+    <t>"Гладиатор [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris 7]], готовый к бою.\nЧерты: [[DM.BaseDescriptionDefs[QuirkGladiator], Гладиатор]], [[DM.BaseDescriptionDefs[QuirkHonest], Честный]]\nЭкипировка: набор [[DM.BaseDescriptionDefs[StarterBundleGladiator], гладиаторского снаряжения]]."</t>
+  </si>
+  <si>
     <t>background_career_gladiator.Description.Name</t>
   </si>
   <si>
     <t>"Solaris Gladiator"</t>
   </si>
   <si>
+    <t>"Гладиатор Соляриса"</t>
+  </si>
+  <si>
     <t>background_career_gladiator.OptionDescription</t>
   </si>
   <si>
     <t>"You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
   </si>
   <si>
+    <t>"Вы отправились на знаменитую планету-арену [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. Там вы зарабатывали на жизнь как гладиатор, сражаясь для толпы на небольших аренах, перебиваясь от чека до чека.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
+  </si>
+  <si>
     <t>background_career_gladiator.OptionName</t>
   </si>
   <si>
@@ -438,24 +630,36 @@
     <t>"Following a disastrous mission that saw the rest of your unit all but wiped out, you picked up what was left to start anew. It wasn't easy as a lone battlesuit trooper, but you had experience and grit enough to make a name for yourself and pull a company together.\r\n"</t>
   </si>
   <si>
+    <t>"После катастрофы на одной из миссий, в ходе которой остатки вашего подразделения были практически стёрты с лица земли, вы подобрали то, что осталось, чтобы начать все заново. Одинокому бойцу в боевой броне пришлось нелегко, но у вас хватило опыта и упорства, чтобы сделать себе имя и собрать компанию воедино.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_infantry.Description.Details</t>
   </si>
   <si>
     <t>"For a battle armor pilot, war always brings a paycheck.\nQuirks: [[DM.BaseDescriptionDefs[QuirkBrave],Brave]], [[DM.BaseDescriptionDefs[QuirkDependable],Dependable]].\nUnit: random [[DM.BaseDescriptionDefs[ConceptBattleArmor],battle armor]] squad\nEquipment: assorted battle armor weapons"</t>
   </si>
   <si>
+    <t>"Для пилота боевой брони война всегда приносит зарплату.\nЧерты: [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]], [[DM.BaseDescriptionDefs[QuirkDependable],Надёжность]].\nЮнит: случайный отряд [[DM.BaseDescriptionDefs[ConceptBattleArmor], в боевой броне]]\nОснащение: различное оружие для боевой брони"</t>
+  </si>
+  <si>
     <t>background_career_infantry.Description.Name</t>
   </si>
   <si>
     <t>"Battlesuit Infantry"</t>
   </si>
   <si>
+    <t>"Боевая пехота"</t>
+  </si>
+  <si>
     <t>background_career_infantry.OptionDescription</t>
   </si>
   <si>
     <t>"Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
   </si>
   <si>
+    <t>"Не будучи уверенным в своих перспективах, вы отправились в [[DM.BaseDescriptionDefs[LoreCoromodir]],Коромодир]], столицу [[DM.BaseDescriptionDefs[LoreAuriganCoalition]],Ауриганской коалиции]], и поступили на службу в армию Коалиции. Вы быстро поднялись по служебной лестнице, отличившись как надежный мехвоин. Жизнь солдата не была гламурной, но она вас вполне устраивала.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
+  </si>
+  <si>
     <t>background_career_infantry.OptionName</t>
   </si>
   <si>
@@ -465,24 +669,36 @@
     <t>"You took to plying yourself as a mercenary and found yourself traveling the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]. While you're not the best pilot, you've been lucky enough to make it this far and a gift from a distant relative might prove to be the break you were looking for.\r\n"</t>
   </si>
   <si>
+    <t>"Вы стали наемником и пустились в путешествие по [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сфере]]. Хотя вы и не самый лучший пилот, вам в достаточной мере везло проделать такой путь, а ещё подарок от дальнего родственника может оказаться именно тем переломным моментом, который вы искали.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_inheritor.Description.Details</t>
   </si>
   <si>
     <t>"It belonged in a museum, but now it's yours.\nQuirks: [[DM.BaseDescriptionDefs[QuirkLucky],Lucky]], [[DM.BaseDescriptionDefs[QuirkNoble],Noble]]\nUnit: random rare 'Mech"</t>
   </si>
   <si>
+    <t>"Ему место в музее, но теперь он ваш.\nЧерты: [[DM.BaseDescriptionDefs[QuirkLucky],Удача]], [[DM.BaseDescriptionDefs[QuirkNoble],Аристократия]]\nЮнит: случайный редкий мех"</t>
+  </si>
+  <si>
     <t>background_career_inheritor.Description.Name</t>
   </si>
   <si>
     <t>"Inheritor"</t>
   </si>
   <si>
+    <t>"Наследник"</t>
+  </si>
+  <si>
     <t>background_career_inheritor.OptionDescription</t>
   </si>
   <si>
     <t>"It may have been years since you last spoke to your great-uncle but you must have left an impression or you were simply the only one left in the family. While his passing didn't leave you with his money; it did leave you with some information on his business contacts, his prized 'Mech freshly pulled out of mothballs, and a request to make a name for yourself."</t>
   </si>
   <si>
+    <t>"Прошли годы с тех пор, как вы в последний раз общались со своим двоюродным дедом, но вы, должно быть, оставили о себе хорошее впечатление или просто были единственным, кто остался в семье. Хотя его смерть не принесла вам его денег, она оставила вам некоторую информацию о его деловых контактах, его наградной мех, только что вытащенный из нафталина, и наказ прославиться."</t>
+  </si>
+  <si>
     <t>background_career_inheritor.OptionName</t>
   </si>
   <si>
@@ -492,24 +708,36 @@
     <t>"Eager to get away from your past and make a name for yourself, you joined up with a minor mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\r\n"</t>
   </si>
   <si>
+    <t>"Стремясь уйти от прошлого и заявить о себе, вы присоединились к небольшому подразделению наемников. Интеграция в сплоченную команду заняла некоторое время, но в конце концов вы доказали свою состоятельность и стали частью семьи.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_mercenary.Description.Details</t>
   </si>
   <si>
     <t>"For a seasoned mercenary, war pays well.\nQuirks: [[DM.BaseDescriptionDefs[QuirkAthletic],Athletic]], [[DM.BaseDescriptionDefs[QuirkMechWarrior],MechWarrior]]\nUnit: random [[DM.BaseDescriptionDefs[StarterBundleMercenary],advanced unit]]&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"Для опытного наемника война хорошо оплачивается.\nЧерты: [[DM.BaseDescriptionDefs[QuirkAthletic],Атлетичность]], [[DM.BaseDescriptionDefs[QuirkMechWarrior],Мехвоин]]\nЮнит: случайный [[DM.BaseDescriptionDefs[StarterBundleMercenary],продвинутый юнит]]"</t>
+  </si>
+  <si>
     <t>background_career_mercenary.Description.Name</t>
   </si>
   <si>
     <t>"Mercenary"</t>
   </si>
   <si>
+    <t>"Наёмник"</t>
+  </si>
+  <si>
     <t>background_career_mercenary.OptionDescription</t>
   </si>
   <si>
     <t>"Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
   </si>
   <si>
+    <t>"Стремясь уйти ото всего этого, вы присоединились к небольшому наёмному подразделению [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]]. Интеграция в сплоченную команду заняла какое-то время, но в итоге вы доказали свою состоятельность и стали частью семьи.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
     <t>background_career_mercenary.OptionName</t>
   </si>
   <si>
@@ -519,24 +747,36 @@
     <t>"You've spent most of your lift running some kind of grift. Hell, even getting MechWarrior training was something of a happy accident. A shame that your Lyran mentor at the time wasn't too thrilled when you tried to pay him D-Bills. Once all that was settled (it wasn't), you left (fled) your way to brighter prospects, sprinkling a little cash here and there to grease the wheels and buy your way to the head of a small mercenary company. What is it they say? War is business?\r\n"</t>
   </si>
   <si>
+    <t>"Вы потратили большую часть своих подъёмных проворачивая различные аферы. Черт, да даже попадание в программу подготовки мехвоинов было чем-то вроде счастливой случайности. Жаль только, что ваш лиранский наставник был не особо рад, когда вы попытались заплатить ему не Це-Биллами, а Де-Биллами. Но когда всё утряслось (не утряслось), вы оставили (сбежали) свой криминальный путь ради более ярких перспектив, подкидывая деньжат тут и там, чтобы «смазать колёса» и купить себе путь к месту главы небольшого наемного подразделения. Как там говорится? Война - это бизнес?\r\n"</t>
+  </si>
+  <si>
     <t>background_career_merchant_guard.Description.Details</t>
   </si>
   <si>
     <t>"There's always money in the banana stand.\nQuirks: [[DM.BaseDescriptionDefs[QuirkDishonest],Dishonest]], [[DM.BaseDescriptionDefs[QuirkMerchant],Merchant]]\nEquipment: 3 million [[DM.BaseDescriptionDefs[LoreCBill],C-Bills]] (or local equivalent)"</t>
   </si>
   <si>
+    <t>"В ларьке с горячими пирожками всегда есть деньги.\nЧерты: [[DM.BaseDescriptionDefs[QuirkDishonest],Непорядочность]], [[DM.BaseDescriptionDefs[QuirkMerchant],Торговец]]\nОборудование: 3 миллиона [[DM.BaseDescriptionDefs[LoreCBill],C-bills]] (или местный эквивалент)"</t>
+  </si>
+  <si>
     <t>background_career_merchant_guard.Description.Name</t>
   </si>
   <si>
     <t>"Very Legitimate Merchant"</t>
   </si>
   <si>
+    <t>"Очень законопослушный торговец"</t>
+  </si>
+  <si>
     <t>background_career_merchant_guard.OptionDescription</t>
   </si>
   <si>
     <t>"You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
   </si>
   <si>
+    <t>"Вы поступили на работу охранником в небольшую гильдию торговцев, обеспечивая безопасность их караванов, совершавших торговые рейсы между [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферой]] и [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Периферией]]. Это была в основном безмятежная жизнь, но вам также удалось применить свои навыки мехвоина в случайных стычках с пиратами и несговорчивыми местными властями.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
+  </si>
+  <si>
     <t>background_career_merchant_guard.OptionName</t>
   </si>
   <si>
@@ -546,18 +786,27 @@
     <t>"The school of hard knocks is for people who think that the only way to the top of the food chain is brute force. Officer training school is for the people who &lt;i&gt;know&lt;/i&gt; the only way to the top of the food chain is brute force &lt;i&gt;applied by people under your command&lt;/i&gt;. You graduated, did a brief stint in the organised military, dropped out, had a jaunt through the private sector, and now you find yourself at the head of your own mercenary company, with a whole slew of people ready to do the brute force for you.\r\n"</t>
   </si>
   <si>
+    <t>"Школа тяжелых ударов - для тех, кто считает, что единственный путь к вершине пищевой цепи - это грубая сила. Школа подготовки офицеров - для тех, кто знает, что единственный путь к вершине пищевой цепи - это грубая сила, применяемая людьми под твоим командованием. Вы закончили школу, немного послужили в вооруженных силах, бросили, поработали в частном секторе, а теперь оказались во главе собственной компании наемников, с целым штатом людей, готовых применить грубую силу вместо вас.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_pirate.Description.Details</t>
   </si>
   <si>
     <t>"Somebody's gotta keep the kids in line.\nQuirks: [[DM.BaseDescriptionDefs[QuirkCommand],Commander]], [[DM.BaseDescriptionDefs[QuirkOfficer],Officer]]\nUnit: choice of [[DM.BaseDescriptionDefs[StarterBundleOfficer],Command Vehicle]]"</t>
   </si>
   <si>
+    <t>"Кто-то должен держать детей в узде.\nЧерты: [[DM.BaseDescriptionDefs[QuirkCommand],Командующий]], [[DM.BaseDescriptionDefs[QuirkOfficer],Офицер]]\nЮнит: [[DM.BaseDescriptionDefs[StarterBundleOfficer],Командный транспорт]]"</t>
+  </si>
+  <si>
     <t>background_career_pirate.Description.Name</t>
   </si>
   <si>
     <t>"Officer"</t>
   </si>
   <si>
+    <t>"Офицер"</t>
+  </si>
+  <si>
     <t>background_career_pirate.OptionDescription</t>
   </si>
   <si>
@@ -570,48 +819,72 @@
     <t>"In the Clans' mad scramble to find suitable pilots for the ProtoMech project, you were among those selected for experimentation. While you failed to meet the frankly absurd conditions of the program, you became adept at piloting the unusual machines. Discarded once you were deemed useless, you took to the great expanse of space and landed yourself a comfortable job at the head of a mercenary company, ready to put your unconventional skills to use.\r\n"</t>
   </si>
   <si>
+    <t>"В ходе отчаянных поисков подходящих пилотов для проекта «Протомех» вы оказались в числе тех, кто был отобран для экспериментов. Несмотря на несоблюдение откровенно абсурдных условий программы, вы стали искусным пилотом этих необычных машин. Но когда вы перестали быть нужным, от вас избавились, и вы отправились покорять просторы космоса и нашли себе подходящую работу главы компании наёмников, место, где ваши нестандартные навыки вновь пойдут в дело.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_protomech.Description.Details</t>
   </si>
   <si>
     <t>"They're 'Mechs! But &lt;i&gt;smaller!&lt;/i&gt;\nQuirks: [[DM.BaseDescriptionDefs[QuirkMechWarrior],MechWarrior]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Neural Implants]]\nUnit: random [[DM.BaseDescriptionDefs[ConceptProtoMech],ProtoMech]]"</t>
   </si>
   <si>
+    <t>"Это мехи! Но маленькие!\nЧерты: [[DM.BaseDescriptionDefs[QuirkMechWarrior],Мехвоин]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Нейроимплантаты]]\nЮнит: случайный [[DM.BaseDescriptionDefs[ConceptProtoMech],протомех]]"</t>
+  </si>
+  <si>
     <t>background_career_protomech.Description.Name</t>
   </si>
   <si>
     <t>"ProtoMech Test Subject"</t>
   </si>
   <si>
+    <t>"Испытатель протомехов"</t>
+  </si>
+  <si>
     <t>background_career_protomech.OptionDescription</t>
   </si>
   <si>
     <t>"You were an attempt by the science caste to convert a mechwarrior to a protomech pilot."</t>
   </si>
   <si>
+    <t>"Вы были попыткой касты учёных превратить мехвоина в пилота протомеха."</t>
+  </si>
+  <si>
     <t>background_career_protomech.OptionName</t>
   </si>
   <si>
     <t>"ProtoMech Pilot Test Subject"</t>
   </si>
   <si>
+    <t>"Пилот-испытатель протомехов"</t>
+  </si>
+  <si>
     <t>background_career_soldier.BioDescription</t>
   </si>
   <si>
     <t>"You signed up for your local militia as soon as you came of age. While it wasn't glamorous, the life of a soldier suited you just fine. Things took a turn for the worse several years deep, however, and you found yourself burnt out on a gruelling campaign against local pirates who were conspicuously more armed than intelligence would've had you believe. You toughed through it, but swore you'd never commit to ops that you weren't in control of any longer, and founded your own mercenary company far away from the little speck you once called home.\r\n"</t>
   </si>
   <si>
+    <t>"Вы записались в местное ополчение, как только достигли совершеннолетия. Жизнь солдата не была гламурной, но вполне устраивала вас. Однако через несколько лет все пошло наперекосяк, и вы поняли, что перегорели, во время изнурительной кампании против местных пиратов, которые оказались вооружены гораздо лучше, чем можно было предположить по данным разведки. Вы выстояли, но поклялись, что больше никогда не будете участвовать в операциях, которые не контролируете, и основали собственную компанию наемников, подальше от маленького городка, который вы когда-то звали домом.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_soldier.Description.Details</t>
   </si>
   <si>
     <t>"War. War never changes. But, by God, do we wish it did.\nQuirks: [[DM.BaseDescriptionDefs[QuirkBrave],Brave]], [[DM.BaseDescriptionDefs[QuirkMilitary],Ex-Military]]\nEquipment: assorted [[DM.BaseDescriptionDefs[StarterBundleSoldier],LosTech weaponry]]"</t>
   </si>
   <si>
+    <t>"Война. Война никогда не меняется. Но, ей-богу, лучше бы она изменилась.\nЧерты: [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]], [[DM.BaseDescriptionDefs[QuirkMilitary],Бывший военный]]\nЭкипировка: набор [[DM.BaseDescriptionDefs[StarterBundleSoldier],лостех оружия]]"</t>
+  </si>
+  <si>
     <t>background_career_soldier.Description.Name</t>
   </si>
   <si>
     <t>"Enlisted MechWarrior"</t>
   </si>
   <si>
+    <t>"Солдат"</t>
+  </si>
+  <si>
     <t>background_career_soldier.OptionDescription</t>
   </si>
   <si>
@@ -624,18 +897,27 @@
     <t>"Through many years of exceptional service, you found yourself shortlisted for a strike against Clan Smoke Jaguar - Operation DAMOCLES. Along with three other Second Star League veterans, you fought your way through the Smoke Jaguar chain of command, salvaging what 'Mechs you could along the way. In the final confrontation with the would-be leader of the Clan, your salvaged 'Mech was destroyed, but you were ultimately successful. Now, with your Bushwacker in tow, you think it's time for something a little quieter.\r\n"</t>
   </si>
   <si>
+    <t>"Благодаря многолетней службе вы попали в список участников операции «ДАМОКЛ», направленной против клана Дымчатого Ягуара. Вместе с тремя другими ветеранами Второй Звездной Лиги вы пробились через командный состав Дымчатого Ягуара, забирая по пути все возможные мехи. В финальной схватке с предполагаемым лидером клана, ваш трофейный мех был уничтожен, но в итоге вы победили. Теперь, со своим Bushwacker на буксире, вы считаете, что настало время для чего-то более спокойного.\r\n"</t>
+  </si>
+  <si>
     <t>background_career_veteran.Description.Details</t>
   </si>
   <si>
     <t>"You survived [[DM.BaseDescriptionDefs[LoreDAMOCLES],Operation DAMOCLES]]. The rest is child's play.\nQuirks: [[DM.BaseDescriptionDefs[QuirkMilitary],Ex-Military]], [[DM.BaseDescriptionDefs[QuirkLucky],Lucky]]\nUnit: random [[DM.BaseDescriptionDefs[LoreBushwacker],Bushwacker]]"</t>
   </si>
   <si>
+    <t>"Вы выжили в [[DM.BaseDescriptionDefs[LoreDAMOCLES],Операции «ДАМОКЛ»]]. Всё остальное теперь - детские игры.\nЧерты: [[DM.BaseDescriptionDefs[QuirkMilitary],Бывший военный]], [[DM.BaseDescriptionDefs[QuirkLucky],Везение]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreBushwacker],Bushwacker]]"</t>
+  </si>
+  <si>
     <t>background_career_veteran.Description.Name</t>
   </si>
   <si>
     <t>"Commando Veteran"</t>
   </si>
   <si>
+    <t>"Ветеран спецназа"</t>
+  </si>
+  <si>
     <t>background_career_veteran.OptionDescription</t>
   </si>
   <si>
@@ -648,24 +930,36 @@
     <t>"When you were young, you were always fascinated with space. Either you spent your life amongst the stars, or you wished you could.\r\n"</t>
   </si>
   <si>
+    <t>"Ещё с юности вы были очарованы космосом. Вы либо провели свою жизнь среди звезд, либо мечтали об этом.\r\n"</t>
+  </si>
+  <si>
     <t>background_youth_accident.Description.Details</t>
   </si>
   <si>
     <t>"Space has always called to you.\nQuirks: [[DM.BaseDescriptionDefs[QuirkHonest],Honest]], [[DM.BaseDescriptionDefs[QuirkSpacer],Spacer]]"</t>
   </si>
   <si>
+    <t>"Космос всегда влек вас.\nЧерты: [[DM.BaseDescriptionDefs[QuirkHonest],Честность]], [[DM.BaseDescriptionDefs[QuirkSpacer],Космонавт]]"</t>
+  </si>
+  <si>
     <t>background_youth_accident.Description.Name</t>
   </si>
   <si>
     <t>"Space"</t>
   </si>
   <si>
+    <t>"Космос"</t>
+  </si>
+  <si>
     <t>background_youth_accident.OptionDescription</t>
   </si>
   <si>
     <t>"The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.\r\n\r\nAfter selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
   </si>
   <si>
+    <t>"Остальные члены вашей семьи погибли в результате несчастного случая на [[DM.BaseDescriptionDefs[LoreJumpShip],прыгуне]], после которого вы обнаружили, что они не оставили после себя ничего, кроме кучи долгов.\r\n\r\nПродав все, чтобы расплатиться с долгами, вы отправились в самостоятельное плавание, имея в распоряжении только родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]].\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
     <t>background_youth_accident.OptionName</t>
   </si>
   <si>
@@ -675,54 +969,81 @@
     <t>"For almost all your life, you've been drawn to games of chance. Be it simple monetary gambling, or risking your life on the field of battle.\r\n"</t>
   </si>
   <si>
+    <t>"Почти всю жизнь вас привлекали азартные игры, будь то простая денежная игра или риск расстаться с жизнью на поле боя.\r\n"</t>
+  </si>
+  <si>
     <t>background_youth_bankrupt.Description.Details</t>
   </si>
   <si>
     <t>"You and old Lady Luck have a complicated relationship.\nQuirks: [[DM.BaseDescriptionDefs[QuirkJinxed],Jinxed]], [[DM.BaseDescriptionDefs[QuirkLucky],Lucky]]"</t>
   </si>
   <si>
+    <t>"У вас со старушкой госпожой Удачей сложные отношения.\nЧерты: [[DM.BaseDescriptionDefs[QuirkJinxed],Невезение]], [[DM.BaseDescriptionDefs[QuirkLucky],Везение]]"</t>
+  </si>
+  <si>
     <t>background_youth_bankrupt.Description.Name</t>
   </si>
   <si>
     <t>"Gambler"</t>
   </si>
   <si>
+    <t>"Азартный игрок"</t>
+  </si>
+  <si>
     <t>background_youth_bankrupt.OptionDescription</t>
   </si>
   <si>
     <t>"As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.\r\n\r\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
   </si>
   <si>
+    <t>"По мере взросления, вы наблюдали, как состояние, доход и влияние вашей семьи постепенно уменьшались - пока не осталось ничего. Ваши родители, доведенные до отчаяния, покончили с собой.\r\n\r\nНе имея ничего, кроме родового [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]], вы отправились искать новой жизни для себя.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
     <t>background_youth_bankrupt.OptionName</t>
   </si>
   <si>
     <t>"Gambling"</t>
   </si>
   <si>
+    <t>"Азартные игры"</t>
+  </si>
+  <si>
     <t>background_youth_betrayed.BioDescription</t>
   </si>
   <si>
     <t>"In your spare time, you used to live and breathe technology. Whether you were tinkering with various systems, or scouring through every TechManual under the sun, you always found the technology that made the universe ticks to be fascinating.\r\n"</t>
   </si>
   <si>
+    <t>"В свое свободное время вы жили и дышали технологиями. Возились ли вы с электроникой или перечитывали все технические руководства, что видел свет, вы всегда находили технологии, что заставляют вселенную работать, увлекательными.\r\n"</t>
+  </si>
+  <si>
     <t>background_youth_betrayed.Description.Details</t>
   </si>
   <si>
     <t>"Hardware and software both have always seemed so simple.\nQuirks: [[DM.BaseDescriptionDefs[QuirkLosTech],LosTech Experience]], [[DM.BaseDescriptionDefs[QuirkTech],Technician]]"</t>
   </si>
   <si>
+    <t>"Аппаратное и программное обеспечение всегда давались легко.\nЧерты: [[DM.BaseDescriptionDefs[QuirkLosTech],Знаток лостеха]], [[DM.BaseDescriptionDefs[QuirkTech],Тех]]"</t>
+  </si>
+  <si>
     <t>background_youth_betrayed.Description.Name</t>
   </si>
   <si>
     <t>"Tech"</t>
   </si>
   <si>
+    <t>"Техника"</t>
+  </si>
+  <si>
     <t>background_youth_betrayed.OptionDescription</t>
   </si>
   <si>
     <t>"Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.\r\n\r\nWith nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
   </si>
   <si>
+    <t>"Вашу семью предали и лишили власти. Вы одолели предателей, но были единственным выжившим членом вашего дома. \r\n\r\nИмея при себе только фамильный [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]], вы отправились искать новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
+  </si>
+  <si>
     <t>background_youth_betrayed.OptionName</t>
   </si>
   <si>
@@ -735,24 +1056,36 @@
     <t>"You have ever been looking to the past, perhaps to a fault. Any period of history, be it pre-spaceflight or as recent as the Age of War, has always piqued your interest. Despite not having a formal education in the field, your knowledge of some eras rivals even the most accredited historians.\r\n"</t>
   </si>
   <si>
+    <t>"Вы всегда стремились в прошлое, возможно, даже очень. Любой период истории, будь то до космических полетов или совсем недавняя Эра войн, всегда вызывала у вас интерес. Несмотря на отсутствие формального образования в этой области, ваши знания о некоторых эрах превосходят знания даже самых признанных историков.\r\n"</t>
+  </si>
+  <si>
     <t>background_youth_exile.Description.Details</t>
   </si>
   <si>
     <t>"A long time ago, you used to read of times long ago.\nQuirks: [[DM.BaseDescriptionDefs[QuirkBookish],Bookish]], [[DM.BaseDescriptionDefs[QuirkLosTech],LosTech Experience]]"</t>
   </si>
   <si>
+    <t>"Давным-давно вы читали о временах давно минувших.\nЧерты: [[DM.BaseDescriptionDefs[QuirkBookish],Любовь к книгам]], [[DM.BaseDescriptionDefs[QuirkLosTech],Знаток лостеха]]"</t>
+  </si>
+  <si>
     <t>background_youth_exile.Description.Name</t>
   </si>
   <si>
     <t>"History"</t>
   </si>
   <si>
+    <t>"История"</t>
+  </si>
+  <si>
     <t>background_youth_exile.OptionDescription</t>
   </si>
   <si>
     <t>"Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.\r\n\r\nYou stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
   </si>
   <si>
+    <t>"Когда-то вы были многообещающим молодым отпрыском своей семьи, но совершили непростительный проступок и были приговорены к пожизненному изгнанию.\r\n\r\nВы похитили родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] и отправились на поиски новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
     <t>background_youth_exile.OptionName</t>
   </si>
   <si>
@@ -762,52 +1095,76 @@
     <t>"In your youth, while others your age had myriad interests, you fought tooth and nail to justify your own existence. Life was tough, so you had to be tougher.\r\n"</t>
   </si>
   <si>
+    <t>"В молодости, когда у других людей вашего возраста был миллиард различных увлечений, вы упорно боролись за свое существование. Жизнь была суровой, а вам приходилось быть ещё суровее.\r\n"</t>
+  </si>
+  <si>
     <t>background_youth_loner.Description.Details</t>
   </si>
   <si>
     <t>"You blazed a trail through life, sticking to the only guns you could trust — your own.\nQuirks: [[DM.BaseDescriptionDefs[QuirkReckless],Reckless]], [[DM.BaseDescriptionDefs[QuirkBrave],Brave]]"</t>
   </si>
   <si>
+    <t>"Вы прокладывали свой путь по жизни, держась за единственное, чему вы могли доверять, - за самого себя.\nЧерты: [[DM.BaseDescriptionDefs[QuirkReckless],Безрассудство]], [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]]"</t>
+  </si>
+  <si>
     <t>background_youth_loner.Description.Name</t>
   </si>
   <si>
     <t>"Loner"</t>
   </si>
   <si>
+    <t>"Одиночка"</t>
+  </si>
+  <si>
     <t>background_youth_loner.OptionDescription</t>
   </si>
   <si>
     <t>"As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.\r\n\r\nFinally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
   </si>
   <si>
+    <t>"Будучи наследником знатной семьи, вы росли ни в чем не нуждаясь. И, как выяснилось... вы не смогли вынести изнеженной дворянской жизни.\r\n\r\nВ итоге, однажды ночью вы украли родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] и отправились на поиски новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
+  </si>
+  <si>
     <t>background_youth_loner.OptionName</t>
   </si>
   <si>
     <t>"Survival"</t>
   </si>
   <si>
+    <t>"Выживач"</t>
+  </si>
+  <si>
     <t>backgroundquestion_ancestry.Description.Name</t>
   </si>
   <si>
     <t>"You were born in..."</t>
   </si>
   <si>
+    <t>"Вы родились в..."</t>
+  </si>
+  <si>
     <t>backgroundquestion_career.Description.Name</t>
   </si>
   <si>
     <t>"Coming of age you choose the career of..."</t>
   </si>
   <si>
+    <t>"Повзрослев, вы выбрали карьеру..."</t>
+  </si>
+  <si>
     <t>backgroundquestion_youth.Description.Name</t>
   </si>
   <si>
     <t>"In your youth you had interest in..."</t>
   </si>
   <si>
+    <t>"В молодости, вы всегда интересовались..."</t>
+  </si>
+  <si>
     <t>CommanderGearEventBanzai.Description.Details</t>
   </si>
   <si>
-    <t>"You Reall worked with Dr. Banzai and they even gave you one these fine toys?."</t>
+    <t>"\"I thought you were joking when you said you worked for [[DM.BaseDescriptionDefs[LoreTeamBanzai],Team Banzai]]!\" Yang blurts out, noting your amused expression as you look up from your datapad. You crack a small grin.\n\n\"Your old ride's waiting for you in the 'Mech Bay, Boss,\" he informs you with no small amount of huffiness."</t>
   </si>
   <si>
     <t>CommanderGearEventBanzai.Description.Name</t>
@@ -816,24 +1173,36 @@
     <t>"Commander Gear"</t>
   </si>
   <si>
+    <t>"Командирское снаряжение"</t>
+  </si>
+  <si>
     <t>CommanderGearEventBanzai.outcome_0.Options0.Details</t>
   </si>
   <si>
     <t>"proceed"</t>
   </si>
   <si>
+    <t>"продолжить"</t>
+  </si>
+  <si>
     <t>CommanderGearEventBanzai.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"Go check out your 'Mech."</t>
   </si>
   <si>
+    <t>"Вперёд, зацени свой мех."</t>
+  </si>
+  <si>
     <t>CommanderGearEventBanzai.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"With that grin still on your face, you follow Yang to the 'Mech Bay. It's sure been a while since you saw your 'Mech."</t>
   </si>
   <si>
+    <t>"С ухмылкой на лице вы следуете за Яном в ангар мехов. Давненько уже вы не видели свой мех."</t>
+  </si>
+  <si>
     <t>CommanderGearEventBanzai.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
@@ -843,7 +1212,7 @@
     <t>CommanderGearEventCorsair.Description.Details</t>
   </si>
   <si>
-    <t>"Tally-ho thats some fine stashed loot ya got here, Boss."</t>
+    <t>"While your last raid concluded hours ago, you've barely made a dent in sifting through the spoils. You stand on the far side of the &lt;i&gt;Argo&lt;/i&gt;'s 'Mech Bay, tapping entries into a datapad as all hands ferry weaponry, shells, and slabs of BattleMech armor off the carcasses of your rivals' 'Mechs.\n\n\"Hey, Boss,\" comes Yang's voice.\n\nYou look up from the pad and see him walking over, wiping greasy hands on a rag at his belt.\n\n\"One of these 'Mechs is in pretty good shape. We could get her runnin' again instead of needing to salvage her.\""</t>
   </si>
   <si>
     <t>CommanderGearEventCorsair.Description.Name</t>
@@ -855,25 +1224,34 @@
     <t>"Lets open the toys."</t>
   </si>
   <si>
+    <t>"Давайте-ка заценим игрушки."</t>
+  </si>
+  <si>
     <t>CommanderGearEventCorsair.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"Make it so."</t>
   </si>
   <si>
+    <t>"Пусть будет так."</t>
+  </si>
+  <si>
     <t>CommanderGearEventCorsair.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"You nod in the affirmative. \"Sounds good to me. Let's see exactly what old Bobbert was throwing at us.\"\n\nReadying the 'Mech takes another few hours, as Yang tosses out wrecked components and complains about \"inelegant\" workmanship. The irony is apparently lost on him as he crams the chassis full of rat's nests of his own design."</t>
   </si>
   <si>
+    <t>"Вы утвердительно киваете. «Звучит хорошо. Давайте конкретно взглянем на то, что именно подкинул нам старина Бобберт.»\n\nПодготовка меха занимает еще несколько часов, за это время Ян избавился от нескольких разбитых компонентов и проел все уши про «неэлегантное качество сборки». Ирония ситуации, по-видимому, ускользнула от него, пока он продолжал начинять шасси самодельными поделками."</t>
+  </si>
+  <si>
     <t>CommanderGearEventCorsair.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>CommanderGearEventFreelancer.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. Your Hunchback was pretty shot up but we've got it back in working Order, best go over and check it's right."</t>
+    <t>"As you make plans to retire for the evening, Yang catches you in the hallway outside your quarters. He seems out of breath and covered in a thin film of engine grease and sweat.\n\n\"Hey Boss,\" he begins, idly wiping his hands on his overalls, \"we're done with the last of our checks. Your [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]] was pretty shot up, but she's all squeaky clean now.\"\n\nSeeing the tiredness vanish from your face, Yang claps a greasy hand on your shoulder. \"That's the spirit! Come check her out!\""</t>
   </si>
   <si>
     <t>CommanderGearEventFreelancer.Description.Name</t>
@@ -888,19 +1266,25 @@
     <t>"To the 'Mech Bay!"</t>
   </si>
   <si>
+    <t>"В ангар мехов!"</t>
+  </si>
+  <si>
     <t>CommanderGearEventFreelancer.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"You follow Yang to the 'Mech Bay as he rattles off all the advanced techniques and procedures used to restore your 'Mech to fighting shape."</t>
   </si>
   <si>
+    <t>"Пока вы следуете за Яном в ангар мехов, тот почти успел перечислить все передовые методы и процедуры, используемые для восстановления вашего меха до боевой формы."</t>
+  </si>
+  <si>
     <t>CommanderGearEventFreelancer.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>CommanderGearEventGladiator.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. Thats some juicy toys you got off-planet here."</t>
+    <t>"\"Hey Boss, I got that crate of old Solaris gear you had sent up,\" Yang says as he walks onto the bridge. There's an air of apprehension hovering over him.\n\n\"Alright,\" you say, a smirk on your face, \"out with it.\"\n\nYang glances around tentatively, then clears his throat and speaks. \"You had a different callsign back in your gladiator days, right? What was it? I might have seen a few of your matches.\""</t>
   </si>
   <si>
     <t>CommanderGearEventGladiator.Description.Name</t>
@@ -915,12 +1299,18 @@
     <t>"You were \"Dragonforce\"! You were known for using &lt;b&gt;handheld flamers&lt;/b&gt; and &lt;b&gt;industrial TSM&lt;/b&gt;."</t>
   </si>
   <si>
+    <t>"Вас прозвали «Сила дракона»! Вы были известны тем, что использовали ручные огнемёты и промышленные миомеры тройной силы."</t>
+  </si>
+  <si>
     <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"As you make your way down to the cargo bays, you open up a little more to Yang about your past, including your callsign and who your main rivals were.\n\n\"That was you?\" he asks, somewhat bewildered. \"Well, I can see why you moved on.\""</t>
   </si>
   <si>
+    <t>"Когда вы спускаетесь в грузовые отсеки, вы рассказываете Яну немного больше о своем прошлом, включая ваш позывной и то, кем были ваши главные соперники.\n\n«Так это были вы?» - спросил он, несколько озадаченный. «Что ж, понятно, почему вы ушли.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
@@ -933,6 +1323,9 @@
     <t>"You were \"Slayer\"! Your signatures were &lt;b&gt;large melee weapons&lt;/b&gt;, made possible by use of &lt;b&gt;TSM&lt;/b&gt;."</t>
   </si>
   <si>
+    <t>"Вас прозвали «Истребитель»! Вашей фишкой было использование больших орудий для рукопашной, что было возможно благодаря миомерам тройной силы."</t>
+  </si>
+  <si>
     <t>CommanderGearEventGladiator.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
@@ -948,6 +1341,9 @@
     <t>"You were \"Iron Maiden\"! Your 'Mechs were adorned with &lt;b&gt;spiked armor&lt;/b&gt; and fitted with &lt;b&gt;MASC&lt;/b&gt;."</t>
   </si>
   <si>
+    <t>"Вас прозвали «Железной девой»! Ваши мехи были украшены шипастой бронёй и снабжены MASC."</t>
+  </si>
+  <si>
     <t>CommanderGearEventGladiator.outcome_2_0.Options2.0.Details</t>
   </si>
   <si>
@@ -963,6 +1359,9 @@
     <t>"You were \"Megadeth\"! Your 'Mech carried &lt;b&gt;Thunderbolt missiles&lt;/b&gt;."</t>
   </si>
   <si>
+    <t>"Вас прозвали «Мегасмерть»! Ваш мех был вооружён ракетами Thunderbolt."</t>
+  </si>
+  <si>
     <t>CommanderGearEventGladiator.outcome_3_0.Options3.0.Details</t>
   </si>
   <si>
@@ -978,12 +1377,18 @@
     <t>"Check out the new toys."</t>
   </si>
   <si>
+    <t>"Заценить новые игрушки."</t>
+  </si>
+  <si>
     <t>CommanderGearEventInfantry.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"You follow Yang down to the cargo bays, passing MechTechs hurrying in the other direction on various jobs.\n\n\"Y'know, Boss,\" Yang begins as you round a corner, \"I've always wondered why an infantryman would want to lead a group of Mechjocks. Haven't you spent the last few years tryin' to avoid being stepped on by 'em?\"\n\nYou blink at the unexpected question, taking some time to mull it over. \"I guess I just wanted to turn the tables. Now I'm the one higher up and they're the ones dancing to my tune.\"\n\nYang chuckles quietly. \"I can respect that, Boss. I can respect that.\""</t>
   </si>
   <si>
+    <t>"Вы следуете за Яном вниз к грузовым отсекам, проходя мимо техов, спешащих в другом направлении по разным делам.\n\n«Знаете, босс,»- начал Ян, когда вы завернули за угол, «мне всегда было интересно, почему пехотинец захотел возглавить группу мехводов. Разве вы не провели последние несколько лет, пытаясь не быть раздавленными ими?»\n\nВы моргаете от неожиданного вопроса и некоторое время обдумываете его. «Полагаю, я просто захотел обернуть ситуацию. Теперь я - тот, кто сверху, а они пляшут под мою дудку.»\n\nЯн тихо хихикает. «Достойно уважения, босс. Такое я уважаю.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventInfantry.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
@@ -996,19 +1401,25 @@
     <t>"Check out the \"little treasure\"."</t>
   </si>
   <si>
+    <t>"Заценить «маленькое сокровище»."</t>
+  </si>
+  <si>
     <t>CommanderGearEventInheritor.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"You and Yang make your way to the 'Mech Bay in silence. Once you arrive, you're greeted with the sight of an oddly familiar BattleMech. Familiar, yet you can't quite remember why."</t>
   </si>
   <si>
+    <t>"Вы и Ян молча добираетесь до ангара мехов. По прибытии вас встречает странно знакомый боевой мех. Знакомый, но вы не можете вспомнить, откуда."</t>
+  </si>
+  <si>
     <t>CommanderGearEventInheritor.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>CommanderGearEventMercenary.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. Some toys from your Old Unit, eh?."</t>
+    <t>"You meet Yang in the 'Mech Bay, as discussed over the intercom. He's waiting by the large bulkhead doors, datapad in hand. As you approach, he glances up and offers a short wave.\n\n\"Hey Boss. The care package from your old unit arrived an hour or so ago,\" he says, gesturing vaguely into the 'Mech Bay. \"Wanna take a look?\""</t>
   </si>
   <si>
     <t>CommanderGearEventMercenary.Description.Name</t>
@@ -1023,19 +1434,25 @@
     <t>"See what your old pals sent you."</t>
   </si>
   <si>
+    <t>"Посмотреть, что вам прислали ваши старые приятели."</t>
+  </si>
+  <si>
     <t>CommanderGearEventMercenary.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"You nod in the affirmative and Yang turns to lead you to the bay containing the ride in question."</t>
   </si>
   <si>
+    <t>"Вы утвердительно киваете, и Ян ведёт вас к отсеку, в котором находится обсуждаемая машина."</t>
+  </si>
+  <si>
     <t>CommanderGearEventMercenary.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>CommanderGearEventMerchant.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. 3 Mill straight to our Funds? No wonder we got an Argo."</t>
+    <t>"\"No,\" Darius says, firmly. His jaw is set as he folds his arms and stares pointedly at you over the holographic display in the command center.\n\n\"Oh, c'mon!\" You protest. \"It's a &lt;i&gt;small&lt;/i&gt; risk, sure, but the pay-off is absolutely worth it!\"\n\nYou and Darius have been arguing back and forth for the last fifteen minutes. You're convinced that you can flip this wayward shipment of &lt;i&gt;[[DM.BaseDescriptionDefs[LoreHolovidMercenaries],MERCENARIES!]]&lt;/i&gt; before anybody in the crew finds out about it. Darius, on the other hand, is not.\n\n\"Yang'll throw a fit if he hears about this. You know that,\" Darius reiterates. \"You're playing with fire here.\"\n\n\"And? Three &lt;i&gt;million&lt;/i&gt;, Darius.\"\n\nEventually, he sighs and throws up his hands. \"Fine, go ahead, but don't whine to me if this comes back to bite us.\""</t>
   </si>
   <si>
     <t>CommanderGearEventMerchant.Description.Name</t>
@@ -1050,22 +1467,31 @@
     <t>"Trawl the local network for buyers."</t>
   </si>
   <si>
+    <t>"Прочесать местную сеть в поисках покупателей."</t>
+  </si>
+  <si>
     <t>CommanderGearEventMerchant.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"Your listing for the holovid series lasts a whole two hours at the outrageous price before you get your first bite. It seems that entertainment is pretty hard to come by in this system, or perhaps you found a very dedicated collector.\n\nWith the utmost secrecy, you organise a dead drop to prevent anybody in the crew from learning of the deed and cash out."</t>
   </si>
   <si>
+    <t>"Торги по продаже серии головидео провисели два часа по возмутительно высокой цене, прежде чем хоть кто-то клюнул. Похоже, сфера развлечений не такая уж и прибыльная в этой системе, и вам, вероятно, повезло, что нашёлся какой-то преданный коллекционер.\n\nВ обстановке строжайшей секретности вы организуете «закладку», чтобы никто из экипажа не узнал о сделке и не получил деньги."</t>
+  </si>
+  <si>
     <t>CommanderGearEventMerchant.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>"Option 1"</t>
   </si>
   <si>
+    <t>"Вариант 1"</t>
+  </si>
+  <si>
     <t>CommanderGearEventOfficer.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. This [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] should really help to get this company off the ground."</t>
+    <t>"As you cut the connection to your last client, Yang bursts into the command center.  He looks out of breath, \n\n\"There's a problem, Boss,\" he says, leaning on a nearby console to catch his breath.\r\n\r\n\n\n\"Go on,\" you instruct, quirking a brow.\r\n\r\n\n\nHe goes on to explain the dilemma - while, yes, your old command vehicle was still around, there's been no small amount of confusion on the ground.  Records have been lost, found, copied wrong, lost again, copied from the copies, et cetera.\n\n  \"So, the short of it is,\" Yang concludes, \"they have an [[DM.MechDefs[vehicledef_AWACS],AWACS Command VTOL]] and an [[DM.MechDefs[vehicledef_MOBILEHQ_C3M],C3 Mobile HQ truck]], but they don't know which one actually belongs to you. The way I see it, we can just pick the one we want and they'll be none the wiser!"</t>
   </si>
   <si>
     <t>CommanderGearEventOfficer.Description.Name</t>
@@ -1080,6 +1506,9 @@
     <t>"Take the AWACS."</t>
   </si>
   <si>
+    <t>"Взять AWACS."</t>
+  </si>
+  <si>
     <t>CommanderGearEventOfficer.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
@@ -1095,6 +1524,9 @@
     <t>"\"Well, I'm not about to look a gift [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] in the mouth,\" you say. \"Grab Sumire to load it up onto the Leopard and bring it back up the Argo.\"\n\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\nYou wait.\n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.\n\nAn hour or so later and you find yourself the proud owner of an Oracle Mobile HQ."</t>
   </si>
   <si>
+    <t>"«Ну, я не собираюсь заглядывать дарёному [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] в рот,» - говорите вы. «Захвати Сумир и вместе погрузите его на Леопард, а затем домой на Арго.»\n\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель мобильного штаба Oracle."</t>
+  </si>
+  <si>
     <t>CommanderGearEventOfficer.outcome_0_0.Options1.0.Name</t>
   </si>
   <si>
@@ -1104,7 +1536,10 @@
     <t>CommanderGearEventOfficer.outcome_1.Options1.Name</t>
   </si>
   <si>
-    <t>"Take the Oracle."</t>
+    <t>"Take the Mobile HQ."</t>
+  </si>
+  <si>
+    <t>"Взять мобильный штаб."</t>
   </si>
   <si>
     <t>CommanderGearEventProtomech.outcome_0.Options0.Details</t>
@@ -1116,19 +1551,25 @@
     <t>"See it through."</t>
   </si>
   <si>
+    <t>"Осмотреть."</t>
+  </si>
+  <si>
     <t>CommanderGearEventProtomech.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"\"Thanks for the heads up, Yang,\" you say. The feeling isn't pleasant, but you feel a small amount of empathy for the machines. In a way, they were discarded just as much as you were. \"Let me know when they're ready.\"\n\nYang nods and turns to leave. He pauses to clap a hand on your shoulder. \"Will do, Boss,\" he answers, \"will do.\""</t>
   </si>
   <si>
+    <t>"«Спасибо, что предупредил, Ян,» - говорите вы. Ощущение не из приятных, но вы даже несколько сочувствуете машинам. В каком-то смысле, они были выброшены так же, как и вы. «Дай знать, когда они будут готовы.»\n\nЯн кивает и поворачивается, чтобы уйти. Он притормаживает, оборачивается и хлопает вас по плечу. «Всё будет сделано, босс,» - отвечает он, - «всё будет.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventProtomech.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>CommanderGearEventSoldier.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. Thats a lot of Ammo you've brought with you."</t>
+    <t>"You approach the location of the dead drop with Yang and Sumire in tow. Both of them seem somewhat anxious, a stark comparison to your relative nonchalance.\n\n\"Dead drops like this always make me uncomfortable,\" Yang complains, his head on a swivel.\n\n\"You get used to them after a while,\" Sumire says, \"especially with the amount I get sent on.\"\n\n\"Well, I'm not you, in case you hadn't noticed,\" comes Yang's reply.\n\n\"Can it, you two,\" you butt in.\n\nA small collection of crates sit neatly bundled at the precise location given, a locator beacon slowly blinking atop the pile.\n\nDespite being long removed from the jarhead life, your making friends with the quartermaster sure has paid off. This is the third package of goods that's been 'misplaced', and you're certainly not going to start complaining about them now.\n\nOnly one question remains - what goodies did you ask for this time?"</t>
   </si>
   <si>
     <t>CommanderGearEventSoldier.Description.Name</t>
@@ -1140,18 +1581,27 @@
     <t>"[Energy Weapons]"</t>
   </si>
   <si>
+    <t>"[Энергетическое вооружение]"</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"Two Snub-Nose PPCs with double heat sinks."</t>
   </si>
   <si>
+    <t>"Две Snub-Nose PPC с двойными радиаторами."</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"Before you commit to hauling the crates onto the Leopard to bring home, you figure it can't hurt to check on the goods.\n\nApproaching the crate on top of the stack, you dial the code you'd been given into the keypad. With a satisfying click, the locking mechanism releases and the lid cracks open.\n\nInside you find neatly packaged - with notably more care given than you've seen most military equipment subject to - a pair of BattleMech [[DM.BaseDescriptionDefs[LoreSNPPC],Snub-Nose PPCs]]. Inspecting another crate reveals something even more intriguing - Star League era [[DM.BaseDescriptionDefs[LoreDHS],double heat sinks]]!\n\n\"Nice,\" you say to yourself, clicking the crates back closed. \"Alright, let's get this all onto the Leopard and get out of here.\""</t>
   </si>
   <si>
+    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованные - заметно бережнее, чем обычно пакуют военное оборудование - пару [[DM.BaseDescriptionDefs[LoreSNPPC],Snub-Nose PPCs]] для мехов. При осмотре другого ящика обнаруживается нечто еще более интригующее - [[DM.BaseDescriptionDefs[LoreDHS]],двойные охладители]] времён Звездной Лиги!\n\n«Нормально,» - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
@@ -1161,18 +1611,27 @@
     <t>"[Ballistic Weapons]"</t>
   </si>
   <si>
+    <t>"[Баллистическое оружие]"</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_1.Options1.Name</t>
   </si>
   <si>
     <t>"An Ultra AC/5 with ammo."</t>
   </si>
   <si>
+    <t>"Ультра-автопушка UAC/5 с боеприпасами."</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
     <t>"Before you commit to hauling the crates onto the Leopard to bring home, you figure it can't hurt to check on the goods.\n\nApproaching the crate on top of the stack, you dial the code you'd been given into the keypad. With a satisfying click, the locking mechanism releases and the lid cracks open.\n\nInside you find neatly packaged - with notably more care given than you've seen most military equipment subject to - a Star League era [[DM.BaseDescriptionDefs[LoreUAC],Ultra AC/5]]. In one of the accompanying crates, you find ammo for the weapon.\n\n\"Nice,\" you say to yourself, clicking the crates back closed. \"Alright, let's get this all onto the Leopard and get out of here.\""</t>
   </si>
   <si>
+    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованную - заметно бережнее, чем обычно пакуют военное оборудование - [[DM.BaseDescriptionDefs[LoreUAC],Ultra AC/5]] времён Звездной Лиги. В одном из соседних ящиков вы находите и патроны к ней.\n\n«Нормально», - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_1_0.Options1.0.Name</t>
   </si>
   <si>
@@ -1182,25 +1641,34 @@
     <t>"[Missile Weapons]"</t>
   </si>
   <si>
+    <t>"[Ракетное вооружение]"</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_2.Options2.Name</t>
   </si>
   <si>
     <t>"Two LRM-15 launchers and Artemis IV FCS with ammo."</t>
   </si>
   <si>
+    <t>"Две установки LRM-15 и Artemis IV FCS с боеприпасами."</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_2_0.Options2.0.Details</t>
   </si>
   <si>
     <t>"Before you commit to hauling the crates onto the Leopard to bring home, you figure it can't hurt to check on the goods.\n\nApproaching the crate on top of the stack, you dial the code you'd been given into the keypad. With a satisfying click, the locking mechanism releases and the lid cracks open.\n\nInside you find neatly packaged - with notably more care given than you've seen most military equipment subject to - an [[DM.BaseDescriptionDefs[LoreLRM],LRM-15]] launcher and paired [[DM.BaseDescriptionDefs[LoreArtemisIV],Artemis IV FCS]]. A second, identical crate sits next to it. In one of the smaller accompanying crates, you find ammo for the weapons.\n\n\"Nice,\" you say to yourself, clicking the crates back closed. \"Alright, let's get this all onto the Leopard and get out of here.\""</t>
   </si>
   <si>
+    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованную - заметно бережнее, чем обычно пакуют военное оборудование - пусковую установку [[DM.BaseDescriptionDefs[LoreLRM],LRM-15]] и к ней - [[DM.BaseDescriptionDefs[LoreArtemisIV],Artemis IV FCS]]. Рядом - ещё один ящик, точно такой же. В соседнем ящике поменьше вы находите и боеприпасы к ним.\n\n«Нормально,» - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventSoldier.outcome_2_0.Options2.0.Name</t>
   </si>
   <si>
     <t>CommanderGearEventVeteran.Description.Details</t>
   </si>
   <si>
-    <t>"Hey Boss, we've unpacked your Stash. Thats a pretty fine toy they've let you keep there."</t>
+    <t>"It's been several years since you'd felt this ready to get back into the cockpit. You thought that [[DM.BaseDescriptionDefs[LoreDAMOCLES],DAMOCLES]] would've been enough excitement for a lifetime, and yet you find yourself once more itching to climb into the pilot seat. As you pace back and forth outside the 'Mech Bay, flanked by armored windows showcasing the inky black, Yang's voice catches your attention.\n\n\"Hey, Boss. She's out of [[DM.BaseDescriptionDefs[LoreColdStorage],mothball]],\" he informs you, \"all ready to go.\"\n\nYour pacing abruptly stops and a small smile graces your face. Yang seems to have noticed, since he wears one of his own.\n\n\"Well?\" He asks, \"are you just gonna stand there grinnin' or are you gonna come check her out?\""</t>
   </si>
   <si>
     <t>CommanderGearEventVeteran.Description.Name</t>
@@ -1215,12 +1683,18 @@
     <t>"Reunite with your old friend."</t>
   </si>
   <si>
+    <t>"Воссоединиться со своим старым другом."</t>
+  </si>
+  <si>
     <t>CommanderGearEventVeteran.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"The 'Mech Bay is as stuffy and noisy as you remember them always being. However, your mind is focused solely on one thing: your 'Mech. Walking at a brisk stride you pass the bustling MechTechs, deftly step around various coolant spills and flying sparks until finally you behold her - your Bushwacker. She looks just as beautiful as the day you left her.\n\n\"I hope she didn't mind being kept in the broom closet all that time,\" you remark.\n\nYang shrugs. \"Eh. She had to come out eventually.\""</t>
   </si>
   <si>
+    <t>"В ангаре мехов так же душно и шумно, как и всегда. Однако все ваши мысли сосредоточены лишь на одном: на вашем мехе. Бодрым шагом вы проходите мимо суетящихся техов, ловко обходя лужи пролитого хладагента и летящие искры, пока, наконец, не видите его - своего Bushwacker. Он выглядит так же прекрасно, как и в день, когда вы оставили его.\n\n«Надеюсь, он не возражал поторчать в чулане всё это время,» - комментируете вы.\n\nЯн пожимает плечами. «Да не. Он всё равно рано ли поздно бы вышел.»"</t>
+  </si>
+  <si>
     <t>CommanderGearEventVeteran.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
@@ -1230,6 +1704,9 @@
     <t>"You get a message from your Chief MechTech [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]]:\r\n\r\n\"Commander {Commander.LastName}, we have managed to re-assemble that mech you had shipped up here. What a beauty she is. Those are some strings you must have pulled with your contacts back home.\""</t>
   </si>
   <si>
+    <t>"Вы получаете сообщение от вашего главного мехтеха, [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Яна]]:\r\n\r\n«Командующий {Commander.LastName}, нам удалось пересобрать мех, который вы прислали нам. Получился просто красавец. Вы, должно быть, потянули за правильные нитки с вашими контактами на родине.»"</t>
+  </si>
+  <si>
     <t>event with box CommanderGearEventOfficer.Description.Name</t>
   </si>
   <si>
@@ -1242,6 +1719,9 @@
     <t>"Sweet."</t>
   </si>
   <si>
+    <t>"Класс."</t>
+  </si>
+  <si>
     <t>event with box CommanderGearEventOfficer.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
@@ -1254,24 +1734,36 @@
     <t>"AncestralMechLoot"</t>
   </si>
   <si>
+    <t>"Мех по наследству"</t>
+  </si>
+  <si>
     <t>background_ancestry_FRR.Description.Details</t>
   </si>
   <si>
     <t>"You were born and raised in the [[DM.Factions[faction_Rasalhague],Free Rasalhague Republic]]."</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в [[DM.Factions[faction_Rasalhague],Свободной Республике Расальхаг]]."</t>
+  </si>
+  <si>
     <t>background_ancestry_FRR.Description.Name</t>
   </si>
   <si>
     <t>"Rasalhague"</t>
   </si>
   <si>
+    <t>"Расальхаг"</t>
+  </si>
+  <si>
     <t>background_ancestry_FRR.OptionName</t>
   </si>
   <si>
     <t>"The Free Rasalhague Republic"</t>
   </si>
   <si>
+    <t>"Свободная Республика Расальхаг"</t>
+  </si>
+  <si>
     <t>background_ancestry_FRR.OptionDescription</t>
   </si>
   <si>
@@ -1281,18 +1773,27 @@
     <t>"You were born and raised in the Free Rasalhague Republic. MechWarriors who hail from the short-lived Republic are fiercely independent, and often find themselves at odds with others. Despite frequent arguments and disagreements, they are invaluable lancemates.\r\n"</t>
   </si>
   <si>
+    <t>"Вы родились и выросли в Свободной Республике Расальхаг. Мехвоины из этой недолго просуществовавшей Республики - агрессивно независимы и часто враждуют с другими. Несмотря на частые споры и разногласия, они являются бесценными товарищами в бою.\r\n"</t>
+  </si>
+  <si>
     <t>CommanderGearEventMerchant.outcome_1.Options1.Name</t>
   </si>
   <si>
     <t>"Do a little video piracy. As a treat."</t>
   </si>
   <si>
+    <t>"Немного позаниматься видеопиратством. Ради развлечения."</t>
+  </si>
+  <si>
     <t>CommanderGearEventMerchant.outcome_1.Options1.Details</t>
   </si>
   <si>
     <t>"[Commander: Dishonest]"</t>
   </si>
   <si>
+    <t>"[Командир: непорядочность]"</t>
+  </si>
+  <si>
     <t>CommanderGearEventMerchant.outcome_1_0.Options1.0.Name</t>
   </si>
   <si>
@@ -1302,18 +1803,27 @@
     <t>"As you're browsing the various commercial networks, you're struck with an epiphany. Why sell just &lt;i&gt;one&lt;/i&gt; copy of the holovids? Oh ho ho, delightfully devilish, {COMMANDER.FirstName}. Surely there wouldn't be an kind of anti-piracy systems in place for a series enjoyed mostly by [[DM.BaseDescriptionDefs[LorePeriphery],Periphery]] yokels.\n\nBox set in hand, you rush down to Engineering. Farah looks less than amused as you explain the scheme to her. If her brow dropped any lower it would be touching her chin. Reluctantly, she accepts the holovids from you.\n\n\"I'll let you know when I'm done, I suppose, Commander,\" she says with an air of defeat.\n\nA few hours later and you've flooded the local market with bootleg copies of &lt;i&gt;[[DM.BaseDescriptionDefs[LoreHolovidMercenaries],MERCENARIES!]]&lt;/i&gt;\n\nSurely this won't cause problems."</t>
   </si>
   <si>
+    <t>"Просматривая различные коммерческие сайты, на вас снисходит озарение. Зачем продавать только одну копию головидео? Хо-хо-хо, чертяка {COMMANDER.FirstName}. Наверняка, не будет никаких анти-пиратских мер против дешевых сериалов, которые так любят деревенщины из [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]].\n\nС коробкой в руках вы спешите в инженерный отсек. Фара выглядела отнюдь не радостно, когда вы объяснили ей всю схему. Если бы она нахмурилась ещё чуть сильней, её брови бы достали до подбородка. С неохотой она принимает от вас головидео.\n\n«Видимо, я дам вам знать, когда закончу,» - произнесла она, сдавшись.\n\nПроходит пара часов и местный рынок становится наводнён нелегальными копиями [[DM.BaseDescriptionDefs[LoreHolovidMercenaries],«Наёмников»!]]\n\nНаверняка, проблем не возникнет."</t>
+  </si>
+  <si>
     <t>background_career_flight_school.Description.Details</t>
   </si>
   <si>
     <t>"You were born to fly!\nQuirks: [[DM.BaseDescriptionDefs[QuirkDisgraced],Disgraced]], [[DM.BaseDescriptionDefs[QuirkBrave],Brave]]\nUnit: choice of random [[DM.BaseDescriptionDefs[LoreLAM],Land-Air 'Mech]] or random [[DM.BaseDescriptionDefs[LoreVTOL],VTOL]]"</t>
   </si>
   <si>
+    <t>"Вы рождены, чтобы летать!\nЧерты: [[DM.BaseDescriptionDefs[QuirkDisgraced],Бесчестность]], [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]]\nЮнит: на выбор случайный [[DM.BaseDescriptionDefs[LoreLAM],мех «земля-воздух»]] или случайный [[DM.BaseDescriptionDefs[LoreVTOL],VTOL]]"</t>
+  </si>
+  <si>
     <t>background_career_flight_school.Description.Name</t>
   </si>
   <si>
     <t>"Flight School Instructor"</t>
   </si>
   <si>
+    <t>"Инструктор лётной школы"</t>
+  </si>
+  <si>
     <t>background_career_flight_school.OptionName</t>
   </si>
   <si>
@@ -1329,33 +1839,51 @@
     <t>"You knew you would fly someday; the only question was how to get there. A chance barfight with a visiting TDF Air Chief led to the opportunity to train in air combat. You took to it as you knew you would, putting up with any draconian policy if it meant more airtime. Eventually, though, your ego got you in enough trouble to ground you from combat-readiness, and you were relegated to the position of Instructor. It took four more years of kowtowing and favors, but you got all the parts in place—nobody expected you to commandeer a bird while quitting the job, but nobody could stop you, either."</t>
   </si>
   <si>
+    <t>"Ты знал, что когда-нибудь полетишь; вопрос был только, как приблизить этот день. Случайная драка в баре с местным начальником авиационной службы дала возможность потренироваться в воздушном бою. Ты принял это как должное, смирившись с любой драконовской политикой, если это означало больше лётного времени. Однако в конце концов твоё эго доставило тебе столько неприятностей, что ты так и не добрался до готовности к боевым вылетам, и тебя понизили до должности инструктора. Потребовалось ещё четыре года пресмыкательств и одолжений, но ты собрал всё необходимое — никто не ожидал, что увольняясь с работы, ты прикомандируешь сам себе (присвоишь) одну из птичек, но уже никто не мог тебя остановить."</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"You stole a LAM??"</t>
   </si>
   <si>
+    <t>"Вы где-то украли LAM??"</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_1.Options1.Name</t>
   </si>
   <si>
     <t>"You stole a VTOL??"</t>
   </si>
   <si>
+    <t>"Вы где-то украли VTOL??"</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_0.Options0.Details</t>
   </si>
   <si>
     <t>"[Can Pilot 'Mechs]"</t>
   </si>
   <si>
+    <t>"[Может пилотировать мехи]"</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_1.Options1.Details</t>
   </si>
   <si>
     <t>"[Can Pilot Vehicles]"</t>
   </si>
   <si>
+    <t>"[Может пилотировать транспорт]"</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
+    <t>"Командирский лут"</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_0_0.Options1.0.Name</t>
   </si>
   <si>
@@ -1365,6 +1893,9 @@
     <t>"Within, as promised, is the bird that brought you here. You lay a hand on the sleek armor panels, and a smile touches your lips. \"I assure you, it was entirely legal. Technically.\""</t>
   </si>
   <si>
+    <t>"Внутри, как и было обещано, птичка, что принесла вас сюда. Вы проводите рукой по холодной, гладкой, бронированной панели обшивки, и улыбка касается ваших губ. «Уверяю вас, это было совершенно законно. Технически»."</t>
+  </si>
+  <si>
     <t>CommanderGearEventFlight.outcome_0_0.Options1.0.Details</t>
   </si>
   <si>
@@ -1374,6 +1905,9 @@
     <t>"I am Trueborn, I will not pilot this"</t>
   </si>
   <si>
+    <t>"Я - вернорожденный, я не стану это пилотировать"</t>
+  </si>
+  <si>
     <t>CommanderGearEventOfficer.outcome_3.Options3.Name</t>
   </si>
   <si>
@@ -1386,6 +1920,12 @@
     <t>CommanderGearEventOfficer.outcome_3.Options3.Details</t>
   </si>
   <si>
+    <t>"Take the MHQ."</t>
+  </si>
+  <si>
+    <t>"Взять MHQ."</t>
+  </si>
+  <si>
     <t>CommanderGearEventOfficer.outcome_1_0.Options1.0.Name</t>
   </si>
   <si>
@@ -1398,7 +1938,10 @@
     <t>CommanderGearEventOfficer.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
-    <t>"\"Well, I'm not about to look a gift [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] in the mouth,\" you say. \"Grab Sumire to load it up onto the Leopard and bring it back up the Argo.\"\n\r\n\r\n\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.  \n\nYou wait.  \n\nA few seconds later he walks back through and out the other door in the direction of the bridge.  He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.\n\n  An hour or so later and you find yourself the proud owner of an Oracle Mobile HQ."</t>
+    <t>"\"Well, I'm not about to look a gift [[DM.MechDefs[vehicledef_MOBILEHQ_C3M],Mobile HQ]] in the mouth,\" you say. \"Grab Sumire to load it up onto the Leopard and bring it back up the Argo.\"\n\r\n\r\n\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.  \n\nYou wait.  \n\nA few seconds later he walks back through and out the other door in the direction of the bridge.  He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.\n\n  An hour or so later and you find yourself the proud owner of an Mobile HQ."</t>
+  </si>
+  <si>
+    <t>"«Ну, я не собираюсь заглядывать дарёному [[DM.MechDefs[vehicledef_MOBILEHQ_C3M],мобильному штабу]] в рот», — говорите вы. «Захвати Сумир и вместе погрузите его на Леопард, а затем домой на Арго.»\n\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель мобильного штаба."</t>
   </si>
   <si>
     <t>CommanderGearEventOfficer.outcome_2_0.Options2.0.Details</t>
@@ -1410,7 +1953,7 @@
     <t>CommanderGearEventOfficer.outcome_3_0.Options3.0.Details</t>
   </si>
   <si>
-    <t>"\"The records were not lost, there never were any records of this MOBILE HQ belonging to me.  I am a Trueborn clan warrior and I will not be seen dead piloting that thing.  But, I am not about to look a gift MOBILE HQ in the mouth,\" you say. \"Grab Sumire to load up the [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] onto the Leopard and bring it back up the Argo.\"\r\n\r\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\n  You wait.  \n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.  \n\nAn hour or so later and you find your company the proud owner of an Oracle Mobile HQ."</t>
+    <t>"\"The records were not lost, there never were any records of this MOBILE HQ belonging to me.  I am a Trueborn clan warrior and I will not be seen dead piloting that thing.  But, I am not about to look a gift MOBILE HQ in the mouth,\" you say. \"Grab Sumire to load up the [[DM.MechDefs[vehicledef_MOBILEHQ_C3M],Mobile HQ]] onto the Leopard and bring it back up the Argo.\"\r\n\r\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\n  You wait.  \n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.  \n\nAn hour or so later and you find your company the proud owner of a Mobile HQ."</t>
   </si>
   <si>
     <t>background_career_sales_rep.Description.Details</t>
@@ -1419,12 +1962,18 @@
     <t>"Those aren't bullet holes! They're &lt;i&gt;speed holes&lt;/i&gt;!\nQuirks: [[DM.BaseDescriptionDefs[QuirkJinxed],Jinxed]], [[DM.BaseDescriptionDefs[QuirkMerchant],Merchant]]\nUnit: random [[DM.BaseDescriptionDefs[LoreQuikscell],Quicsell]] 'Mech\nEquipment: assorted Quicsell gear"</t>
   </si>
   <si>
+    <t>"Это не пулевые, а вентиляционные отверстия!\nЧерты: [[DM.BaseDescriptionDefs[QuirkJinxed],Невезение]], [[DM.BaseDescriptionDefs[QuirkMerchant],Торговец]]\nЮнит: случайный мех [[DM.BaseDescriptionDefs[LoreQuikscell],Quicsell]]\nСнаряжение: различное снаряжение Quicsell"</t>
+  </si>
+  <si>
     <t>background_career_sales_rep.Description.Name</t>
   </si>
   <si>
     <t>"Quicsell Sales Rep"</t>
   </si>
   <si>
+    <t>"Торговый представитель Quicsell"</t>
+  </si>
+  <si>
     <t>background_career_sales_rep.OptionName</t>
   </si>
   <si>
@@ -1434,24 +1983,36 @@
     <t>"When you lucked into a well paying sales job, you were ecstatic. You should have read the fine print. Turns out the Quicsell corperation wants you to do a live demonstration of some of their equipment."</t>
   </si>
   <si>
+    <t>"Когда вам посчастливилось получить высокооплачиваемую работу в отделе продаж, вы были в восторге. Хотя следовало бы прочитать дополнительные условия, написанные мелким шрифтом. Оказывается, корпорация Quicsell хочет, чтобы вы проводили наглядную демонстрацию их оборудования."</t>
+  </si>
+  <si>
     <t>background_career_sales_rep.BioDescription</t>
   </si>
   <si>
     <t>"You're not entirely sure how a \"sales rep\" job turned into a \"walking demonstration\", but here you are. It's been several years now since you got swindled into peddling Quicsell products, but at least the \"aggressive sales pitches\" you're mandated to undergo are entertaining."</t>
   </si>
   <si>
+    <t>"Вы не вполне понимаете, как работа «торгового представителя» превратилась в «наглядную демонстрацию», но вот вы здесь. Прошло уже несколько лет с тех пор, как вас обманом заставили продавать продукцию Quicsell, но, по крайней мере, «агрессивные рекламные кампании», которые вам приходится проводить, несколько развлекают."</t>
+  </si>
+  <si>
     <t>background_career_corsair.Description.Details</t>
   </si>
   <si>
     <t>"Ah, but you &lt;i&gt;have&lt;/i&gt; heard of me!\nQuirks: [[DM.BaseDescriptionDefs[QuirkAssassin],Assassin]], [[DM.BaseDescriptionDefs[QuirkCriminal],Criminal]]\nUnit: random [[DM.BaseDescriptionDefs[ConceptPirateMech],pirate BattleMech]]"</t>
   </si>
   <si>
+    <t>"А, так вы всё же &lt;i&gt;слышали&lt;/i&gt; обо мне!\nЧерты: [[DM.BaseDescriptionDefs[QuirkAssassin],Убийца]], [[DM.BaseDescriptionDefs[QuirkCriminal],Связи с преступностью]]\nЮнит: случайный [[DM.BaseDescriptionDefs[ConceptPirateMech],пиратский боевой мех]]"</t>
+  </si>
+  <si>
     <t>background_career_corsair.Description.Name</t>
   </si>
   <si>
     <t>"Corsair"</t>
   </si>
   <si>
+    <t>"Корсар"</t>
+  </si>
+  <si>
     <t>background_career_corsair.OptionName</t>
   </si>
   <si>
@@ -1470,595 +2031,130 @@
     <t>"Rise above the label of a mere pirate or outcast; arm yourself against rival clans!\nQuirks: [[DM.BaseDescriptionDefs[QuirkAssassin],Assassin]], [[DM.BaseDescriptionDefs[QuirkCriminal],Criminal]]\nUnit: 'Command Mech'\nEquipment: assorted Quicksell 'Clan' Gear"</t>
   </si>
   <si>
+    <t>"Поднимитесь выше ярлыка простого пирата или изгоя; вооружайтесь и дайте отпор кланам-соперникам!\nЧерты: [[DM.BaseDescriptionDefs[QuirkAssassin],Убийца]], [[DM.BaseDescriptionDefs[QuirkCriminal],Связи с преступностью]]\nЮнит: «Командирский мех»\nСнаряжение: разное клановое от Quicksell"</t>
+  </si>
+  <si>
     <t>background_career_clan_corgi.Description.Name</t>
   </si>
   <si>
     <t>"Quicsell 'Clan'"</t>
   </si>
   <si>
+    <t>"Клановый Quicsell"</t>
+  </si>
+  <si>
     <t>background_career_clan_corgi.OptionName</t>
   </si>
   <si>
     <t>"Quicsell Clan Beginnings"</t>
   </si>
   <si>
+    <t>"Quicsell кланового происхождения"</t>
+  </si>
+  <si>
     <t>background_career_clan_corgi.OptionDescription</t>
   </si>
   <si>
     <t>"After enduring years of assaults from different clans due to our outcast status, you and your fellow Darkcaste brethren forge a strategy."</t>
   </si>
   <si>
+    <t>"После многих лет нападок со стороны разных кланов из-за нашего статуса изгоев, вы и ваши собратья из Тёмной касты разрабатываете стратегию."</t>
+  </si>
+  <si>
     <t>background_career_clan_corgi.BioDescription</t>
   </si>
   <si>
     <t>"AAfter struggling to acquire quality mechs from reputable sources, you found yourself compelled to turn to the Quicsell Company. Promised equipment and mechs designed to mimic Clan technology, backed by demonstrations from their existing products, you struck a deal. Committing a significant portion of your hard-earned pirate loot, you were at last equipped with the mechs and gear essential for survival and retaliation."</t>
   </si>
   <si>
+    <t>"После долгих поисков качественных мехов у проверенных поставщиков вы были вынуждены обратиться в компанию Quicsell. Вам пообещали оборудование и мехи, подражающие технологиям Кланов, подкреплённые демонстрацией их существующей продукции, и вы заключили сделку. Выложив значительную часть своей с трудом заработанной пиратской добычи, вы наконец-то получили мехи и снаряжение, необходимые для выживания и возмездия."</t>
+  </si>
+  <si>
     <t>faction_BerganIndustries.Description</t>
   </si>
   <si>
     <t>"Bergan Industries was an advanced manufacturing facility, producing such equipment as the Royal variant of the venerable Locust BattleMech for the Star League Defense Force.  Bergan Industries has manufacturing centers on Alshain, Ares, New Earth and New Oslo.  After the Ghost Bears absorbed the Free Rasalhague Republic, Bergan Industries opened new plants on Thule and Rasalhague.  Bergan Industries became a huge part of the Ghost Bear's industrial base. They invested heavily in the company, and this investment allowed Bergan to expand into some other realms."</t>
   </si>
   <si>
-    <t>"Вы родились и выросли в Федерации. Мехвоины из Федеративных Солнц, как правило, обладают более отточенными навыками и лучшим снаряжением, чем их собратья из других регионов космоса. Они часто считают себя праведными воинами и поборниками свободы - иногда доходя до крайности.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Davion],Федерации Солнц]]."</t>
-  </si>
-  <si>
-    <t>"Дэвион"</t>
-  </si>
-  <si>
-    <t>"Мехвоины, родом из [[DM.Factions[faction_Davion],Федеративных Солнц]], как правило, обладают более отточенными навыками и лучшим снаряжением, чем их собратья из других регионов космоса. Они часто считают себя праведными воинами и поборниками свободы - иногда до крайности.\r\n\r\nВ своё время почти полностью уничтоженная [[DM.Factions[faction_Kurita]],Синдикатом Дракона]] в [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],Первую войну за наследство]], Федеративные Солнца - конституционная монархия, управляемая знаменитым [[DM.BaseDescriptionDefs[LoreHouseDavion],Домом Дэвион]] - позже стала, пожалуй, самой могущественной из пяти великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]]. Благодаря умелым военным кампаниям и тонкой дипломатии, Дом Дэвион за последние два столетия значительно увеличил число контролируемых им звездных систем."</t>
-  </si>
-  <si>
-    <t>"Федерация Солнц (Дэвион)"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в Глубокой Периферии. Мехвоины, родом оттуда, встречаются нечасто, но еще реже встречаются мехвоины, которые признаются в этом. За пределами Периферии лежат глубины космоса, которые остаются неизведанными и неизвестными для большинства человеческих цивилизаций, захламленные заброшенными колониями и небольшими аванпостами.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Глубокой Периферии]]."</t>
-  </si>
-  <si>
-    <t>"Глубокая Периферия"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Глубокой Периферии]] встречаются редко, но ещё реже встречаются мехвоины, которые признаются в этом. \r\n\r\nЗа крайними границами [[DM.BaseDescriptionDefs[LoreRimwardPeriphery]],Периферии]] простираются глубины космоса, которые остаются неизведанными и неизвестными для большинства представителей человеческой цивилизации. Об этих регионах мало что известно, но они далеко не необитаемы. Глубокая Периферия усеяна заброшенными колониями и небольшими аванпостами, изолированными от остального человечества. После падения [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]] генерал [[DM.BaseDescriptionDefs[LoreKerensky]],Александр Керенский]] повёл остатки [[DM.BaseDescriptionDefs[LoreSLDF],Сил обороны Звездной Лиги]] в Глубокую Периферию и исчез из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], став историей."</t>
-  </si>
-  <si>
-    <t>"Рожденный естественным путем в [[DM.BaseDescriptionDefs[LoreClans],Кланах]], ваш статус всегда был второго сорта. Однако это нисколько не сдерживает вашего стремления стать чем-то большим для известной вселенной, не говоря уже о Кланах."</t>
-  </si>
-  <si>
-    <t>"Вы родились [[DM.BaseDescriptionDefs[LoreFreeborn],вольнорожденным]] [[DM.BaseDescriptionDefs[LoreClans],клановцем]]."</t>
-  </si>
-  <si>
-    <t>"Вольнорожденный"</t>
-  </si>
-  <si>
-    <t>"Пространство Кланов (вольнорожденный)"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в Синдикате Дракона. Мехвоины из Синдиката обычно являются свирепыми, дисциплинированными и неумолимыми бойцами. За века своего правления Дом Курита объединил Синдикат под единой культурой, в значительной степени сформированной на основе средневекового японского общества.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Kurita],Синдикате Дракона]]."</t>
-  </si>
-  <si>
-    <t>"Курита"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.Factions[faction_Kurita],Синдиката]] обычно являются свирепыми, дисциплинированными и неумолимыми бойцами, независимо от того, с какими трудностями они сталкиваются на поле боя.\r\n\r\nНесмотря на этническое разнообразие в Синдикате Дракона, как и в любой огромной межзвездной империи, оно также является одним из самых однородных в культурном отношении. За столетия правления, [[DM.BaseDescriptionDefs[LoreHouseKurita],Дому Курита]] удалось объединить народ Синдиката под единой культурой, в значительной степени сформированной на основе средневекового японского общества. Хотя некоторые, в первую очередь потомки завоеванного [[DM.BaseDescriptionDefs[LoreRaselhague]],Княжества Расальхаг]], по-прежнему недовольны единообразием общества Дракона, в целом это привело к созданию более сплоченного населения и армии, чем в других Великих домах [[DM.BaseDescriptionDefs[LoreInnerSphere]],Внутренней Сферы]]."</t>
-  </si>
-  <si>
-    <t>"Синдикат Дракона (Курита)"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в Капелланской Конфедерации. Мехвоины Капелланской Конфедерации - это преданные и стойкие бойцы, способные держать оборону и часто удивлять тех противников, которые совершают ошибку, недооценивая их. Большинство капелланцев гордятся своим гражданством, которое они ещё должны заслужить, работая на благо государства.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Liao],Конфедерации Капеллы]]."</t>
-  </si>
-  <si>
-    <t>"Ляо"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.Factions[faction_Liao],Капелланской Конфедерации]] - это преданные и стойкие бойцы, способные держать строй и часто удивлять тех противников, которые совершили ошибку, недооценив их.\r\n\r\nЗа последние два столетия войны Капелланская Конфедерация больше всех пострадала от рук других [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]], потеряв почти половину территории, которую она когда-то контролировала в период расцвета [[DM.BaseDescriptionDefs[LoreStarLeague],Звездной Лиги]]. Со временем руководство [[DM.BaseDescriptionDefs[LoreHouseLiao]],Дома Ляо]] превратило Капелланскую Конфедерацию в социалистическое полицейское государство с жестко регулируемой экономикой. Большинство капелланцев гордятся своим гражданством, которое ещё нужно заслужить, трудясь на благо государства."</t>
-  </si>
-  <si>
-    <t>"Конфедерация Капеллы (Ляо)"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в Магистрате Канопуса. Мехвоины и мехвоинессы из Магистрата Канопуса часто предпочитают умные и неординарные тактики на поле боя. Магистрат поддерживает открытое общество, обеспечивающее личную свободу всех граждан и их право жить так, как они считают нужным.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_MagistracyOfCanopus],Магистрате Канопуса]]."</t>
-  </si>
-  <si>
-    <t>"Магистрат"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.Factions[faction_MagistracyOfCanopus]],Магистрата Канопуса]] могут обладать самыми разными навыками и стилями боя, но на поле боя они часто предпочитают умные и нестандартные тактики.\r\n\r\nПусть он и меньше, чем великие [[DM.BaseDescriptionDefs[LoreSuccessorState],Государства-наследники]] из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], Магистрат Канопуса является одной из крупнейших держав [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Магистрат представляет собой матриархальное общество, во главе которого стоит магистра. Это выборная должность, открытая для любой женщины, но в значительной степени контролируемая [[DM.BaseDescriptionDefs[LoreHouseCentrella]],Домом Сентрелла]] из-за популярности семьи. Магистрат поддерживает открытое общество, обеспечивающее личную свободу всех граждан и их право жить так, как они считают нужным."</t>
-  </si>
-  <si>
-    <t>"Магистрат Канопуса"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в Лиге Свободных Миров. Мехвоины Лиги, как правило, страстные, стойкие бойцы, превыше всего ценящие справедливость и равенство. Культурное разнообразие и независимость Лиги Свободных Миров - это одновременно и её величайшая сила, и величайшая слабость.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Marik],Лиге Свободных Миров]]."</t>
-  </si>
-  <si>
-    <t>"Марик"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.Factions[faction_Marik]],Лиги Свободных Миров]], как правило, страстные, стойкие бойцы, которые превыше всего ценят справедливость и равенство.\r\n\r\nСамая старая и теоретически самая демократичная из великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]] [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]], Лига Свободных Миров на самом деле представляет собой коалицию многих мелких знатных домов. На протяжении большей части истории Лиги она управлялась на основе военного положения капитан-генералом, который по традиции является представителем [[DM.BaseDescriptionDefs[LoreHouseMarik],Дома Марик]]. Культурное разнообразие и относительная независимость входящих в нее регионов являются одновременно и величайшей силой Лиги, и ее слабостью."</t>
-  </si>
-  <si>
-    <t>"Лига Свободных Миров (Марик)"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли на Периферии. Мехвоинов из Периферии охарактеризовать нелегко - они могут быть кем угодно, от мелких головорезов до безжалостных тактиков и опытных и благородных воинов. Периферия - это граница галактики, где правит мелочная политика и пиратство."</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]]."</t>
-  </si>
-  <si>
-    <t>"Периферия"</t>
-  </si>
-  <si>
-    <t>"Нет такого одного слова, чтобы охарактеризовать мехвоинов, родом из [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Они могут быть кем угодно - от мелких бандитов до безжалостных тактиков и опытных и благородных воинов.\r\n\r\nНации и мелкие дворянские дома Окраинной Периферии давно сыграли свою роль в формировании человечества - падение [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]] началось именно на Периферии, что в итоге привело к нынешнему плачевному состоянию этих разрозненных звездных систем на краю известного космоса. Периферия по-прежнему является границей галактики, где Великие Дома [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]] играют в смертельно опасную политику, где процветают мелкие бандитские королевства, а пиратские банды охотятся на мелкие дворянские дома, пытающиеся выжить в этой враждебной среде."</t>
-  </si>
-  <si>
-    <t>"Десятилетия назад ваша семья прибыла в Aurigan Reach из Лиранского Содружества. Мехвоины из Лиранского Содружества, как правило, выносливы, хорошо экипированы и обучены, хотя и заслужили репутацию людей, не отличающихся особым стратегическим мышлением на поле боя. Богатство - главная сила торговых князей Лиранского Содружества.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Steiner],Лиранском Содружестве]]."</t>
-  </si>
-  <si>
-    <t>"Штайнер"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.Factions[faction_Steiner],Лиранского Содружества]], как правило, выносливы, хорошо экипированы и обучены, хотя и заслужили репутацию не особо стратегически мыслящих на поле боя.\r\n\r\nБлагосостояние - главная сила торговых князей Лиранского Содружества, управляемого [[DM.BaseDescriptionDefs[LoreHouseSteiner],Домом Штайнер]]. Несмотря на ряд унизительных поражений в первых двух [[DM.BaseDescriptionDefs[LoreSuccessionWars]],Наследных войнах]], Лиранское Содружество вырвалось вперед благодаря совокупной мощи своей экономики (самой большой среди пяти великих [[DM.BaseDescriptionDefs[LoreSuccessorState],Государств-наследников]]) и контролю над крупнейшими действующими заводами боевых мехов во [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сфере]]. То, чего Лиранскому Содружеству, возможно, не хватает в военной доблести, оно компенсирует численностью и промышленными масштабами."</t>
-  </si>
-  <si>
-    <t>"Лиранское Содружество (Штайнер)"</t>
-  </si>
-  <si>
-    <t>"Десятилетия назад ваша семья прибыла в Aurigan Reach из Таурианского Конкордата. Мехвоины оттуда, как правило, упрямы и агрессивны, но, тем не менее, являются опытными и проницательными бойцами. Основанный как конституционная монархия под руководством Дома Кальдерон, Таурианский Конкордат является сильнейшей военной державой Окраинной Периферии.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_TaurianConcordat],Таурианском Конкордате]]."</t>
-  </si>
-  <si>
-    <t>"Таурианцы"</t>
-  </si>
-  <si>
-    <t>"Мехвоины из [[DM.Factions[faction_TaurianConcordat],Таурианского Конкордата]], как правило, упрямы и агрессивны. Они могут быстро разгневаться, но, тем не менее, являются опытными и проницательными бойцами.\r\n\r\nОснованный как конституционная монархия под руководством [[DM.BaseDescriptionDefs[LoreHouseCalderon]],Дома Кальдерон]], Таурианский Конкордат является сильнейшей военной державой [[DM.BaseDescriptionDefs[LoreRimwardPeriphery]],Окраинной Периферии]]. Это также одно из старейших сохранившихся поселений человеческой цивилизации, что сформировалось задолго до создания [[DM.BaseDescriptionDefs[LoreStarLeague]],Звездной Лиги]]. Граждане таурианцы пользуются широкими свободами, гарантированными Уставом Конкордата, и гордятся тем, что защищают эти свободы, неся обязательную службу. Таурианский Конкордат долгое время находился во враждебных отношениях со [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферой]], особенно с [[DM.Factions[faction_Davion],Федеративными Солнцами]]."</t>
-  </si>
-  <si>
-    <t>"Таурианский Конкордат"</t>
-  </si>
-  <si>
-    <t>"Вы были созданы [[DM.BaseDescriptionDefs[LoreTrueborn],вернорожденным]] членом [[DM.BaseDescriptionDefs[LoreClans],Кланов]]. Изгнанные из программы евгеники, вы всё ещё полны решимости заслужить своё место в Предании."</t>
-  </si>
-  <si>
-    <t>"Вы были созданы [[DM.BaseDescriptionDefs[LoreTrueborn],вернорожденным]] членом [[DM.BaseDescriptionDefs[LoreClans],Кланов]].\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorAll],ко всем навыкам]].\nНе будет управлять [[DM.BaseDescriptionDefs[ConceptVehicle],транспортными средствами]]."</t>
-  </si>
-  <si>
-    <t>"Вернорождённый"</t>
-  </si>
-  <si>
-    <t>"Лаборатория Кланов (вернорожденный)"</t>
-  </si>
-  <si>
-    <t>"После многих лет работы на доктора Банзая, вы положительно отличились и получили в награду за службу одну из сокровищ команды Банзая - Hatchetman.\r\n"</t>
-  </si>
-  <si>
-    <t>"[[DM.BaseDescriptionDefs[LoreTeamBanzai],Команда Банзай]] имеет самые классные игрушки!\nСклонности: [[DM.BaseDescriptionDefs[QuirkGladiator],Гладиатор]], [[DM.BaseDescriptionDefs[QuirkPainShunt],Шунтирование]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Нейроимплантанты]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreHatchetmanRT],Hatchetman]]"</t>
-  </si>
-  <si>
-    <t>"Пилот-испытатель команды Банзая"</t>
-  </si>
-  <si>
-    <t>"Устав жить под чужим гнетом, вы примкнули к местной пиратской банде в [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]]. Это была неуправляемая, но эффективная команда - бродя по Периферии, вы могли постоянно нападать на плохо защищенные торговые караваны и склады снабжения. Хотя рейды иногда перерастали в бои, вы быстро поняли, что для успешного пиратства нужно оказаться в нужном месте, в нужное время, с нужными угрозами и хорошей демонстрацией силы.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"Отчаянно желая убежать от своего прошлого, вы скитались по Окраинной Периферии как фрилансер, подписываясь на любое мало-мальское дело, что можно было найти для мехвоина. И параллельно с привыканием к странствующему образу жизни, вы обнаружили, что от такой жизни в кармане лишь тяжелеет.\r\n"</t>
-  </si>
-  <si>
-    <t>"Всегда нужен тот, кто берёт и делает.\nСклонности: [[DM.BaseDescriptionDefs[QuirkDrunk],Пьянь]], [[DM.BaseDescriptionDefs[QuirkReckless],Безрассудство]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]]"</t>
-  </si>
-  <si>
-    <t>"Фрилансер"</t>
-  </si>
-  <si>
-    <t>"Вы скитались по [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Окраинной Периферии]] в качестве фрилансера, подписываясь на любые контракты в качестве наемного мехвоина. Это была одинокая жизнь. Но когда вы освоились с кочующим образом жизни, вы обнаружили, что можете прилично зарабатывать, помогая жителям приграничья.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"Стремясь убежать от своего прошлого, вы взяли свой Blackjack и свои навыки мехвоина на знаменитую планету-арену Солярис VII. Там вы зарабатывали на жизнь как гладиатор, сражаясь для публики на небольших аренах, перебиваясь от чека до чека.\r\n"</t>
-  </si>
-  <si>
-    <t>"Гладиатор [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris 7]], готовый к бою.\nСклонности: [[DM.BaseDescriptionDefs[QuirkGladiator], Гладиатор]], [[DM.BaseDescriptionDefs[QuirkHonest], Честный]]\nЭкипировка: набор [[DM.BaseDescriptionDefs[StarterBundleGladiator], гладиаторского снаряжения]]."</t>
-  </si>
-  <si>
-    <t>"Гладиатор Соляриса"</t>
-  </si>
-  <si>
-    <t>"Вы отправились на знаменитую планету-арену [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. Там вы зарабатывали на жизнь как гладиатор, сражаясь для толпы на небольших аренах, перебиваясь от чека до чека.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
-  </si>
-  <si>
-    <t>"После катастрофы на одной из миссий, в ходе которой остатки вашего подразделения были практически стёрты с лица земли, вы подобрали то, что осталось, чтобы начать все заново. Одинокому бойцу в боевой броне пришлось нелегко, но у вас хватило опыта и упорства, чтобы сделать себе имя и собрать компанию воедино.\r\n"</t>
-  </si>
-  <si>
-    <t>"Для пилота боевой брони война всегда приносит зарплату.\nСклонности: [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]], [[DM.BaseDescriptionDefs[QuirkDependable],Надёжность]].\nЮнит: случайный отряд [[DM.BaseDescriptionDefs[ConceptBattleArmor], в боевой броне]]\nОснащение: различное оружие для боевой брони"</t>
-  </si>
-  <si>
-    <t>"Боевая пехота"</t>
-  </si>
-  <si>
-    <t>"Не будучи уверенным в своих перспективах, вы отправились в [[DM.BaseDescriptionDefs[LoreCoromodir]],Коромодир]], столицу [[DM.BaseDescriptionDefs[LoreAuriganCoalition]],Ауриганской коалиции]], и поступили на службу в армию Коалиции. Вы быстро поднялись по служебной лестнице, отличившись как надежный мехвоин. Жизнь солдата не была гламурной, но она вас вполне устраивала.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]"</t>
-  </si>
-  <si>
-    <t>"Вы стали наемником и пустились в путешествие по [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сфере]]. Хотя вы и не самый лучший пилот, вам в достаточной мере везло проделать такой путь, а ещё подарок от дальнего родственника может оказаться именно тем переломным моментом, который вы искали.\r\n"</t>
-  </si>
-  <si>
-    <t>"Ему место в музее, но теперь он ваш.\nСклонности: [[DM.BaseDescriptionDefs[QuirkLucky],Удача]], [[DM.BaseDescriptionDefs[QuirkNoble],Аристократия]]\nЮнит: случайный редкий мех"</t>
-  </si>
-  <si>
-    <t>"Наследник"</t>
-  </si>
-  <si>
-    <t>"Прошли годы с тех пор, как вы в последний раз общались со своим двоюродным дедом, но вы, должно быть, оставили о себе хорошее впечатление или просто были единственным, кто остался в семье. Хотя его смерть не принесла вам его денег, она оставила вам некоторую информацию о его деловых контактах, его наградной мех, только что вытащенный из нафталина, и наказ прославиться."</t>
-  </si>
-  <si>
-    <t>"Стремясь уйти от прошлого и заявить о себе, вы присоединились к небольшому подразделению наемников. Интеграция в сплоченную команду заняла некоторое время, но в конце концов вы доказали свою состоятельность и стали частью семьи.\r\n"</t>
-  </si>
-  <si>
-    <t>"Для опытного наемника война хорошо оплачивается.\nСклонности: [[DM.BaseDescriptionDefs[QuirkAthletic],Атлетичность]], [[DM.BaseDescriptionDefs[QuirkMechWarrior],Мехвоин]]\nЮнит: случайный [[DM.BaseDescriptionDefs[StarterBundleMercenary],продвинутый юнит]]"</t>
-  </si>
-  <si>
-    <t>"Наёмник"</t>
-  </si>
-  <si>
-    <t>"Стремясь уйти ото всего этого, вы присоединились к небольшому наёмному подразделению [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]]. Интеграция в сплоченную команду заняла какое-то время, но в итоге вы доказали свою состоятельность и стали частью семьи.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"Вы потратили большую часть своих подъёмных проворачивая различные аферы. Черт, да даже попадание в программу подготовки мехвоинов было чем-то вроде счастливой случайности. Жаль только, что ваш лиранский наставник был не особо рад, когда вы попытались заплатить ему не Це-Биллами, а Де-Биллами. Но когда всё утряслось (не утряслось), вы оставили (сбежали) свой криминальный путь ради более ярких перспектив, подкидывая деньжат тут и там, чтобы «смазать колёса» и купить себе путь к месту главы небольшого наемного подразделения. Как там говорится? Война - это бизнес?\r\n"</t>
-  </si>
-  <si>
-    <t>"В ларьке с горячими пирожками всегда есть деньги.\nСклонности: [[DM.BaseDescriptionDefs[QuirkDishonest],Непорядочность]], [[DM.BaseDescriptionDefs[QuirkMerchant],Торговец]]\nОборудование: 3 миллиона [[DM.BaseDescriptionDefs[LoreCBill],C-bills]] (или местный эквивалент)"</t>
-  </si>
-  <si>
-    <t>"Очень законопослушный торговец"</t>
-  </si>
-  <si>
-    <t>"Вы поступили на работу охранником в небольшую гильдию торговцев, обеспечивая безопасность их караванов, совершавших торговые рейсы между [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферой]] и [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Периферией]]. Это была в основном безмятежная жизнь, но вам также удалось применить свои навыки мехвоина в случайных стычках с пиратами и несговорчивыми местными властями.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]"</t>
-  </si>
-  <si>
-    <t>"Школа тяжелых ударов - для тех, кто считает, что единственный путь к вершине пищевой цепи - это грубая сила. Школа подготовки офицеров - для тех, кто знает, что единственный путь к вершине пищевой цепи - это грубая сила, применяемая людьми под твоим командованием. Вы закончили школу, немного послужили в вооруженных силах, бросили, поработали в частном секторе, а теперь оказались во главе собственной компании наемников, с целым штатом людей, готовых применить грубую силу вместо вас.\r\n"</t>
-  </si>
-  <si>
-    <t>"Кто-то должен держать детей в узде.\nСклонности: [[DM.BaseDescriptionDefs[QuirkCommand],Командующий]], [[DM.BaseDescriptionDefs[QuirkOfficer],Офицер]]\nЮнит: [[DM.BaseDescriptionDefs[StarterBundleOfficer],Командный транспорт]]"</t>
-  </si>
-  <si>
-    <t>"Офицер"</t>
-  </si>
-  <si>
-    <t>"В ходе отчаянных поисков подходящих пилотов для проекта «Протомех» вы оказались в числе тех, кто был отобран для экспериментов. Несмотря на несоблюдение откровенно абсурдных условий программы, вы стали искусным пилотом этих необычных машин. Но когда вы перестали быть нужным, от вас избавились, и вы отправились покорять просторы космоса и нашли себе подходящую работу главы компании наёмников, место, где ваши нестандартные навыки вновь пойдут в дело.\r\n"</t>
-  </si>
-  <si>
-    <t>"Это мехи! Но маленькие!\nСклонности: [[DM.BaseDescriptionDefs[QuirkMechWarrior],Мехвоин]], [[DM.BaseDescriptionDefs[QuirkNeuralImplants],Нейроимплантаты]]\nЮнит: случайный [[DM.BaseDescriptionDefs[ConceptProtoMech],протомех]]"</t>
-  </si>
-  <si>
-    <t>"Испытатель протомехов"</t>
-  </si>
-  <si>
-    <t>"Вы были попыткой касты учёных превратить мехвоина в пилота протомеха."</t>
-  </si>
-  <si>
-    <t>"Пилот-испытатель протомехов"</t>
-  </si>
-  <si>
-    <t>"Вы записались в местное ополчение, как только достигли совершеннолетия. Жизнь солдата не была гламурной, но вполне устраивала вас. Однако через несколько лет все пошло наперекосяк, и вы поняли, что перегорели, во время изнурительной кампании против местных пиратов, которые оказались вооружены гораздо лучше, чем можно было предположить по данным разведки. Вы выстояли, но поклялись, что больше никогда не будете участвовать в операциях, которые не контролируете, и основали собственную компанию наемников, подальше от маленького городка, который вы когда-то звали домом.\r\n"</t>
-  </si>
-  <si>
-    <t>"Война. Война никогда не меняется. Но, ей-богу, лучше бы она изменилась.\nСклонности: [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]], [[DM.BaseDescriptionDefs[QuirkMilitary],Бывший военный]]\nЭкипировка: набор [[DM.BaseDescriptionDefs[StarterBundleSoldier],лостех оружия]]"</t>
-  </si>
-  <si>
-    <t>"Солдат"</t>
-  </si>
-  <si>
-    <t>"Благодаря многолетней службе вы попали в список участников операции «ДАМОКЛ», направленной против клана Дымчатого Ягуара. Вместе с тремя другими ветеранами Второй Звездной Лиги вы пробились через командный состав Дымчатого Ягуара, забирая по пути все возможные мехи. В финальной схватке с предполагаемым лидером клана, ваш трофейный мех был уничтожен, но в итоге вы победили. Теперь, со своим Bushwacker на буксире, вы считаете, что настало время для чего-то более спокойного.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы выжили в [[DM.BaseDescriptionDefs[LoreDAMOCLES],Операции «ДАМОКЛ»]]. Всё остальное теперь - детские игры.\nСклонности: [[DM.BaseDescriptionDefs[QuirkMilitary],Бывший военный]], [[DM.BaseDescriptionDefs[QuirkLucky],Везение]]\nЮнит: случайный [[DM.BaseDescriptionDefs[LoreBushwacker],Bushwacker]]"</t>
-  </si>
-  <si>
-    <t>"Ветеран спецназа"</t>
-  </si>
-  <si>
-    <t>"Ещё с юности вы были очарованы космосом. Вы либо провели свою жизнь среди звезд, либо мечтали об этом.\r\n"</t>
-  </si>
-  <si>
-    <t>"Космос всегда влек вас.\nСклонности: [[DM.BaseDescriptionDefs[QuirkHonest],Честность]], [[DM.BaseDescriptionDefs[QuirkSpacer],Космонавт]]"</t>
-  </si>
-  <si>
-    <t>"Космос"</t>
-  </si>
-  <si>
-    <t>"Остальные члены вашей семьи погибли в результате несчастного случая на [[DM.BaseDescriptionDefs[LoreJumpShip],прыгуне]], после которого вы обнаружили, что они не оставили после себя ничего, кроме кучи долгов.\r\n\r\nПродав все, чтобы расплатиться с долгами, вы отправились в самостоятельное плавание, имея в распоряжении только родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]].\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"Почти всю жизнь вас привлекали азартные игры, будь то простая денежная игра или риск расстаться с жизнью на поле боя.\r\n"</t>
-  </si>
-  <si>
-    <t>"У вас со старушкой госпожой Удачей сложные отношения.\nСклонности: [[DM.BaseDescriptionDefs[QuirkJinxed],Невезение]], [[DM.BaseDescriptionDefs[QuirkLucky],Везение]]"</t>
-  </si>
-  <si>
-    <t>"Азартный игрок"</t>
-  </si>
-  <si>
-    <t>"По мере взросления, вы наблюдали, как состояние, доход и влияние вашей семьи постепенно уменьшались - пока не осталось ничего. Ваши родители, доведенные до отчаяния, покончили с собой.\r\n\r\nНе имея ничего, кроме родового [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]], вы отправились искать новой жизни для себя.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"Азартные игры"</t>
-  </si>
-  <si>
-    <t>"В свое свободное время вы жили и дышали технологиями. Возились ли вы с электроникой или перечитывали все технические руководства, что видел свет, вы всегда находили технологии, что заставляют вселенную работать, увлекательными.\r\n"</t>
-  </si>
-  <si>
-    <t>"Аппаратное и программное обеспечение всегда давались легко.\nСклонности: [[DM.BaseDescriptionDefs[QuirkLosTech],Знаток лостеха]], [[DM.BaseDescriptionDefs[QuirkTech],Тех]]"</t>
-  </si>
-  <si>
-    <t>"Техника"</t>
-  </si>
-  <si>
-    <t>"Вашу семью предали и лишили власти. Вы одолели предателей, но были единственным выжившим членом вашего дома. \r\n\r\nИмея при себе только фамильный [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]], вы отправились искать новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]"</t>
-  </si>
-  <si>
-    <t>"Вы всегда стремились в прошлое, возможно, даже очень. Любой период истории, будь то до космических полетов или совсем недавняя Эра войн, всегда вызывала у вас интерес. Несмотря на отсутствие формального образования в этой области, ваши знания о некоторых эрах превосходят знания даже самых признанных историков.\r\n"</t>
-  </si>
-  <si>
-    <t>"Давным-давно вы читали о временах давно минувших.\nСклонности: [[DM.BaseDescriptionDefs[QuirkBookish],Любовь к книгам]], [[DM.BaseDescriptionDefs[QuirkLosTech],Знаток лостеха]]"</t>
-  </si>
-  <si>
-    <t>"История"</t>
-  </si>
-  <si>
-    <t>"Когда-то вы были многообещающим молодым отпрыском своей семьи, но совершили непростительный проступок и были приговорены к пожизненному изгнанию.\r\n\r\nВы похитили родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] и отправились на поиски новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"В молодости, когда у других людей вашего возраста был миллиард различных увлечений, вы упорно боролись за свое существование. Жизнь была суровой, а вам приходилось быть ещё суровее.\r\n"</t>
-  </si>
-  <si>
-    <t>"Вы прокладывали свой путь по жизни, держась за единственное, чему вы могли доверять, - за самого себя.\nОсобенности: [[DM.BaseDescriptionDefs[QuirkReckless],Безрассудство]], [[DM.BaseDescriptionDefs[QuirkBrave],Смелость]]"</t>
-  </si>
-  <si>
-    <t>"Одиночка"</t>
-  </si>
-  <si>
-    <t>"Будучи наследником знатной семьи, вы росли ни в чем не нуждаясь. И, как выяснилось... вы не смогли вынести изнеженной дворянской жизни.\r\n\r\nВ итоге, однажды ночью вы украли родовой [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] и отправились на поиски новой жизни.\r\n\r\n+1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]"</t>
-  </si>
-  <si>
-    <t>"Выживач"</t>
-  </si>
-  <si>
-    <t>"Вы родились в..."</t>
-  </si>
-  <si>
-    <t>"Повзрослев, вы выбрали карьеру..."</t>
-  </si>
-  <si>
-    <t>"В молодости, вы всегда интересовались..."</t>
-  </si>
-  <si>
-    <t>"Вы действительно работали с Dr. Banzai? И они даже дали вам одну из их прекрасных игрушек?"</t>
-  </si>
-  <si>
-    <t>"Командирское снаряжение"</t>
-  </si>
-  <si>
-    <t>"продолжить"</t>
-  </si>
-  <si>
-    <t>"Вперёд, зацени свой мех."</t>
-  </si>
-  <si>
-    <t>"С ухмылкой на лице вы следуете за Яном в ангар мехов. Давненько уже вы не видели свой мех."</t>
-  </si>
-  <si>
-    <t>"Хо-хо! Поглядите-ка, а тут у нас приличная добыча припрятана, кэп."</t>
-  </si>
-  <si>
-    <t>"Давайте-ка заценим игрушки."</t>
-  </si>
-  <si>
-    <t>"Вы утвердительно киваете. «Звучит хорошо. Давайте конкретно взглянем на то, что именно подкинул нам старина Бобберт.»\n\nПодготовка меха занимает еще несколько часов, за это время Ян избавился от нескольких разбитых компонентов и проел все уши про «неэлегантное качество сборки». Ирония ситуации, по-видимому, ускользнула от него, пока он продолжал начинять шасси самодельными поделками."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Ваш Hunchback был в довольно плачевном состоянии, но мы привели его в порядок. Лучше зайдите посмотрите сами."</t>
-  </si>
-  <si>
-    <t>"В ангар мехов!"</t>
-  </si>
-  <si>
-    <t>"Пока вы следуете за Яном в ангар мехов, тот почти успел перечислить все передовые методы и процедуры, используемые для восстановления вашего меха до боевой формы."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Неплохие такие игрушки вы прихватили с планеты."</t>
-  </si>
-  <si>
-    <t>"Вас прозвали «Сила дракона»! Вы были известны тем, что использовали ручные огнемёты и промышленные миомеры тройной силы."</t>
-  </si>
-  <si>
-    <t>"Когда вы спускаетесь в грузовые отсеки, вы рассказываете Яну немного больше о своем прошлом, включая ваш позывной и то, кем были ваши главные соперники.\n\n«Так это были вы?» - спросил он, несколько озадаченный. «Что ж, понятно, почему вы ушли.»"</t>
-  </si>
-  <si>
-    <t>"Вас прозвали «Истребитель»! Вашей фишкой было использование больших орудий для рукопашной, что было возможно благодаря миомерам тройной силы."</t>
-  </si>
-  <si>
-    <t>"Вас прозвали «Железной девой»! Ваши мехи были украшены шипастой бронёй и снабжены MASC."</t>
-  </si>
-  <si>
-    <t>"Вас прозвали «Мегасмерть»! Ваш мех был вооружён ракетами Thunderbolt."</t>
-  </si>
-  <si>
-    <t>"Заценить новые игрушки."</t>
-  </si>
-  <si>
-    <t>"Вы следуете за Яном вниз к грузовым отсекам, проходя мимо техов, спешащих в другом направлении по разным делам.\n\n«Знаете, босс,»- начал Ян, когда вы завернули за угол, «мне всегда было интересно, почему пехотинец захотел возглавить группу мехводов. Разве вы не провели последние несколько лет, пытаясь не быть раздавленными ими?»\n\nВы моргаете от неожиданного вопроса и некоторое время обдумываете его. «Полагаю, я просто захотел обернуть ситуацию. Теперь я - тот, кто сверху, а они пляшут под мою дудку.»\n\nЯн тихо хихикает. «Достойно уважения, босс. Такое я уважаю.»"</t>
-  </si>
-  <si>
-    <t>"Заценить «маленькое сокровище»."</t>
-  </si>
-  <si>
-    <t>"Вы и Ян молча добираетесь до ангара мехов. По прибытии вас встречает странно знакомый боевой мех. Знакомый, но вы не можете вспомнить, откуда."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Пара игрушек из прошлого подразделения, да?"</t>
-  </si>
-  <si>
-    <t>"Посмотреть, что вам прислали ваши старые приятели."</t>
-  </si>
-  <si>
-    <t>"Вы утвердительно киваете, и Ян ведёт вас к отсеку, в котором находится обсуждаемая машина."</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. 3 миллиона прямиком на наш счет? Неудивительно, что мы смогли позволить себе Арго."</t>
-  </si>
-  <si>
-    <t>"Прочесать местную сеть в поисках покупателей."</t>
-  </si>
-  <si>
-    <t>"Торги по продаже серии головидео провисели два часа по возмутительно высокой цене, прежде чем хоть кто-то клюнул. Похоже, сфера развлечений не такая уж и прибыльная в этой системе, и вам, вероятно, повезло, что нашёлся какой-то преданный коллекционер.\n\nВ обстановке строжайшей секретности вы организуете «закладку», чтобы никто из экипажа не узнал о сделке и не получил деньги."</t>
-  </si>
-  <si>
-    <t>"Вариант 1"</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Этот [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]] реально поможет нам быть на высоте ;)"</t>
-  </si>
-  <si>
-    <t>"Взять AWACS."</t>
-  </si>
-  <si>
-    <t>"«Ну, я не собираюсь заглядывать дарёному VTOL'у в рот,» - говорите вы. «Захвати Сумир и вместе погрузите [[DM.MechDefs[vehicledef_AWACS],AWACS]] на Леопард, а затем домой на Арго.»\r\n\r\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель командирского VTOL AWACS."</t>
-  </si>
-  <si>
-    <t>"«Ну, я не собираюсь заглядывать дарёному [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] в рот,» - говорите вы. «Захвати Сумир и вместе погрузите его на Леопард, а затем домой на Арго.»\n\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель мобильного штаба Oracle."</t>
-  </si>
-  <si>
-    <t>"Взять Oracle."</t>
-  </si>
-  <si>
-    <t>"«Спасибо, что предупредил, Ян,» - говорите вы. Ощущение не из приятных, но вы даже несколько сочувствуете машинам. В каком-то смысле, они были выброшены так же, как и вы. «Дай знать, когда они будут готовы.»\n\nЯн кивает и поворачивается, чтобы уйти. Он притормаживает, оборачивается и хлопает вас по плечу. «Всё будет сделано, босс,» - отвечает он, - «всё будет.»"</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Да у вас целая гора боеприпасов!"</t>
-  </si>
-  <si>
-    <t>"[Энергетическое вооружение]"</t>
-  </si>
-  <si>
-    <t>"Две Snub-Nose PPC с двойными радиаторами."</t>
-  </si>
-  <si>
-    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованные - заметно бережнее, чем обычно пакуют военное оборудование - пару [[DM.BaseDescriptionDefs[LoreSNPPC],Snub-Nose PPCs]] для мехов. При осмотре другого ящика обнаруживается нечто еще более интригующее - [[DM.BaseDescriptionDefs[LoreDHS]],двойные охладители]] времён Звездной Лиги!\n\n«Нормально,» - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
-  </si>
-  <si>
-    <t>"[Баллистическое оружие]"</t>
-  </si>
-  <si>
-    <t>"Ультра-автопушка UAC/5 с боеприпасами."</t>
-  </si>
-  <si>
-    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованную - заметно бережнее, чем обычно пакуют военное оборудование - [[DM.BaseDescriptionDefs[LoreUAC],Ultra AC/5]] времён Звездной Лиги. В одном из соседних ящиков вы находите и патроны к ней.\n\n«Нормально», - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
-  </si>
-  <si>
-    <t>"[Ракетное вооружение]"</t>
-  </si>
-  <si>
-    <t>"Две установки LRM-15 и Artemis IV FCS с боеприпасами."</t>
-  </si>
-  <si>
-    <t>"Прежде чем погрузить ящики на «Леопард», чтобы доставить домой, вы решаете, что не повредит проверить их содержимое.\n\nПодойдя к самому верхнему ящику, вы набираете на клавиатуре код, который вам дали. С приятным щелчком запорный механизм отпирается, и крышка открывается.\n\nВнутри вы обнаруживаете аккуратно упакованную - заметно бережнее, чем обычно пакуют военное оборудование - пусковую установку [[DM.BaseDescriptionDefs[LoreLRM],LRM-15]] и к ней - [[DM.BaseDescriptionDefs[LoreArtemisIV],Artemis IV FCS]]. Рядом - ещё один ящик, точно такой же. В соседнем ящике поменьше вы находите и боеприпасы к ним.\n\n«Нормально,» - приговариваете вы сами себе, закрывая ящики. «Ну ладно, всё это - в «Леопард» и убираемся отсюда.»"</t>
-  </si>
-  <si>
-    <t>"Эй, босс, мы наконец распаковали ваш тайник. Неплохую такую вещицу вам оставили."</t>
-  </si>
-  <si>
-    <t>"Воссоединиться со своим старым другом."</t>
-  </si>
-  <si>
-    <t>"В ангаре мехов так же душно и шумно, как и всегда. Однако все ваши мысли сосредоточены лишь на одном: на вашем мехе. Бодрым шагом вы проходите мимо суетящихся техов, ловко обходя лужи пролитого хладагента и летящие искры, пока, наконец, не видите его - своего Bushwacker. Он выглядит так же прекрасно, как и в день, когда вы оставили его.\n\n«Надеюсь, он не возражал поторчать в чулане всё это время,» - комментируете вы.\n\nЯн пожимает плечами. «Да не. Он всё равно рано ли поздно бы вышел.»"</t>
-  </si>
-  <si>
-    <t>"Вы получаете сообщение от вашего главного мехтеха, [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Яна]]:\r\n\r\n«Командующий {Commander.LastName}, нам удалось пересобрать мех, который вы прислали нам. Получился просто красавец. Вы, должно быть, потянули за правильные нитки с вашими контактами на родине.»"</t>
-  </si>
-  <si>
-    <t>"Класс."</t>
-  </si>
-  <si>
-    <t>"[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Ян]] продолжает: «Как бы то ни было, командир, когда у вас будет время, загляните в ангар. осмотрим его вместе, может изменим чего.»\r\n\r\nВы отвечаете: «Скоро буду, Ян. Продолжайте в том же духе.»\r\n\r\n"</t>
-  </si>
-  <si>
-    <t>"Мех по наследству"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в [[DM.Factions[faction_Rasalhague],Свободной Республике Расальхаг]]."</t>
-  </si>
-  <si>
-    <t>"Расальхаг"</t>
-  </si>
-  <si>
-    <t>"Свободная Республика Расальхаг"</t>
-  </si>
-  <si>
-    <t>"Вы родились и выросли в Свободной Республике Расальхаг. Мехвоины из этой недолго просуществовавшей Республики - агрессивно независимы и часто враждуют с другими. Несмотря на частые споры и разногласия, они являются бесценными товарищами в бою.\r\n"</t>
-  </si>
-  <si>
-    <t>"Немного позаниматься видеопиратством. Ради развлечения."</t>
-  </si>
-  <si>
-    <t>"[Командир: Непорядочность]"</t>
-  </si>
-  <si>
-    <t>"Просматривая различные коммерческие сайты, на вас снисходит озарение. Зачем продавать только одну копию головидео? Хо-хо-хо, чертяка {COMMANDER.FirstName}. Наверняка, не будет никаких анти-пиратских мер против дешевых сериалов, которые так любят деревенщины из [[DM.BaseDescriptionDefs[LorePeriphery],Периферии]].\n\nС коробкой в руках вы спешите в инженерный отсек. Фара выглядела отнюдь не радостно, когда вы объяснили ей всю схему. Если бы она нахмурилась ещё чуть сильней, её брови бы достали до подбородка. С неохотой она принимает от вас головидео.\n\n«Видимо, я дам вам знать, когда закончу,» - произнесла она, сдавшись.\n\nПроходит пара часов и местный рынок становится наводнён нелегальными копиями [[DM.BaseDescriptionDefs[LoreHolovidMercenaries],«Наёмников»!]]\n\nНаверняка, проблем не возникнет."</t>
-  </si>
-  <si>
-    <t>"Инструктор лётной школы"</t>
-  </si>
-  <si>
-    <t>"Вы где-то украли LAM??"</t>
-  </si>
-  <si>
-    <t>"Вы где-то украли VTOL??"</t>
-  </si>
-  <si>
-    <t>"[Может пилотировать мехи]"</t>
-  </si>
-  <si>
-    <t>"[Может пилотировать транспорт]"</t>
-  </si>
-  <si>
-    <t>"Командирский лут"</t>
-  </si>
-  <si>
-    <t>"\"Well, I'm not about to look a gift [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] in the mouth,\" you say. \"Grab Sumire to load it up onto the Leopard and bring it back up the Argo.\"\n\r\n\r\n\nYang nods and walks briskly out of the room on his way to the 'Mech Bay. \n\nYou wait. \n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire.\n\n An hour or so later and you find yourself the proud owner of an Oracle Mobile HQ."</t>
-  </si>
-  <si>
-    <t>"\"The records were not lost, there never were any records of this VTOL belonging to me. I am a Trueborn clan warrior and I will not be seen dead piloting that thing. But, I am not about to look a gift VTOL in the mouth,\" you say. \"Grab Sumire to load up the [[DM.MechDefs[vehicledef_AWACS],AWACS]] onto the Leopard and bring it back up the Argo.\"\r\n\r\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\n You wait. \n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire. \n\nAn hour or so later and you find your company the proud owner of an AWACS Command VTOL."</t>
-  </si>
-  <si>
-    <t>"\"The records were not lost, there never were any records of this MOBILE HQ belonging to me. I am a Trueborn clan warrior and I will not be seen dead piloting that thing. But, I am not about to look a gift MOBILE HQ in the mouth,\" you say. \"Grab Sumire to load up the [[DM.MechDefs[vehicledef_MOBILEHQ_ACM],Oracle]] onto the Leopard and bring it back up the Argo.\"\r\n\r\nYang nods and walks briskly out of the room on his way to the 'Mech Bay.\n\n You wait. \n\nA few seconds later he walks back through and out the other door in the direction of the bridge. He looks mortified that you saw the mistake, but says nothing as he now walks in the &lt;i&gt;right&lt;/i&gt; direction to find Sumire. \n\nAn hour or so later and you find your company the proud owner of an Oracle Mobile HQ."</t>
-  </si>
-  <si>
-    <t>"Клановый Quicsell"</t>
-  </si>
-  <si>
-    <t>"Bergan Industries was an advanced manufacturing facility, producing such equipment as the Royal variant of the venerable Locust BattleMech for the Star League Defense Force. Bergan Industries has manufacturing centers on Alshain, Ares, New Earth and New Oslo. After the Ghost Bears absorbed the Free Rasalhague Republic, Bergan Industries opened new plants on Thule and Rasalhague. Bergan Industries became a huge part of the Ghost Bear's industrial base. They invested heavily in the company, and this investment allowed Bergan to expand into some other realms."</t>
+    <t>"Компания Bergan Industries была передовым производственным предприятием, выпускавшим такое оборудование, как королевский вариант почтенного боевого меха «Локуст» для Сил обороны Звёздной лиги. Производственные центры Bergan Industries расположены на Альшаине, Аресе, Новой Земле и Новом Осло. После того, как Призрачные Медведи поглотили Свободную Республику Расальхаг, Bergan Industries открыла новые заводы на Тули и Расальхаге. Bergan Industries стала важной частью промышленной базы Призрачных Медведей. Они вложили значительные средства в компанию, что позволило Bergan расширить своё присутствие в других государствах."</t>
+  </si>
+  <si>
+    <t>CommanderGearEventFlight.Description.Details</t>
+  </si>
+  <si>
+    <t>"You hurry to the 'Mech Bay to find Yang punching at his datapad by the bulkhead. As you approach, he glances up and offers a short wave.\n\n\"Hey Boss. She's all unpacked,\" he says, gesturing into the 'Mech Bay. \"A few bangs and scrapes, but I think Carrick kept his word. Nothing important's missing. You want to see for yourself?\"\n\nYou give a short nod and hurry past Yang into the bay. Sumire is loitering inside, and as you unveil your prize acquisition, her eyes go wide:"</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInfantry.Description.Details</t>
+  </si>
+  <si>
+    <t>"As you stare out the window into the black expanse, Yang clears his throat.\n\n\"Hey Boss. That crate of battle armor stuff just arrived. I'm planning to crack her open and take inventory. Figured you'd wanna know.\""</t>
+  </si>
+  <si>
+    <t>CommanderGearEventInheritor.Description.Details</t>
+  </si>
+  <si>
+    <t>"The mood on the bridge is solemn. You and Darius watch as a spokesperson on a flickering holo-vid dispassionately informs you of the death of your great-uncle, offering the bare minimum of condolences mandated by their estate.\n\nAs the recording comes to a close and the image winks out, Yang enters the room. \"Uh, hey, Boss,\" he begins, \"Sumire found the location those coordinates point to while you were busy dealing with all the paperwork. She took the Leopard out and hauled a 'Mech back with her. If I had to guess, this is what the message calls his 'favorite little treasure'.\"\n\nYou raise an eyebrow, expectantly.\n\n\"I'll be honest,\" Yang continues, \"I took a peek - it belongs in a museum.\""</t>
+  </si>
+  <si>
+    <t>CommanderGearEventProtomech.Description.Details</t>
+  </si>
+  <si>
+    <t>"Ever since you'd been informed of the accident at the facility, you've been on edge. That place and the rigorous testing regimes have a special place in your nightmares. Staring out the window of the observation pod into the inky black, you start as you hear the bulkhead door open behind you.\n\n\"Oop, sorry, Boss,\" comes Yang's voice. The door quietly hisses shut behind him, leaving the two of you in almost complete silence. At least, until he speaks again. \"We just got back with the Leopard. It's exactly as the orbital scans said - the facility's toast.\"\n\nFor a brief moment, you don't know what to feel. What happened within those walls was a deeply formative experience for you.\n\n\"But,\" Yang continues, \"we did find something — a couple of those [[DM.BaseDescriptionDefs[ConceptProtoMech],ProtoMechs]] in complete shambles. I hope you don't mind, but we brought them back with us and I've had the boys take a look at fixing them up and seeing if we can get a full squad rolling."</t>
+  </si>
+  <si>
+    <t>"«Я думал, вы шутили, когда сказали, что работали на [[DM.BaseDescriptionDefs[LoreTeamBanzai],Team Banzai]]!» — выпалил Ян, заметив ваше насмешливое выражение, когда вы оторвались от планшета. Вы слегка ухмыляетесь.\n\n«Ваша старая кляча уже в мехотсеке... босс», — сообщает он с некоторым смущением."</t>
+  </si>
+  <si>
+    <t>"Хотя ваш последний рейд завершился несколько часов назад, вы едва успели разобраться с добычей. Вы стоите в дальнем углу ангара мехов «Арго», вводя данные в планшет, пока весь экипаж перетаскивает оружие, снаряды и куски брони боевых мехов с остовов мехов ваших соперников.\n\n«Эй, босс», — раздаётся голос Яна.\n\nВы поднимаете голову и видите, как он подходит, вытирая грязные руки тряпкой о пояс.\n\n«Тут, э-э... Один из этих мехов в довольно хорошем состоянии. Мы вполне могли бы поставить его снова на ноги, вместо того чтобы разбирать.»"</t>
+  </si>
+  <si>
+    <t>"Вы уже было планировали лечь спать, как Ян находит вас в коридоре возле вашей каюты. Он, кажется, запыхался и покрыт тонким слоем машинной смазки и пота.\n\n «Эй... босс, — начинает он, вытирая руки о комбинезон, — мы закончили последнюю проверку. Твой [[DM.BaseDescriptionDefs[LoreHunchback],Hunchback]] был изрядно потрёпан, но теперь он прям блестит».\n\nВидя, что новость вас порадовала, Ян хлопает вас по плечу грязной рукой. «Ага! Пойдём, взглянем на него!»"</t>
+  </si>
+  <si>
+    <t>"«Эй, босс, я получил тот ящик со старым снаряжением для Соляриса, за которым ты посылал», — сказал Ян, поднимаясь на мостик. Он стоит, переминаясь с ноги на ногу и смотрит по сторонам так, словно хочет что-то сказать.\n\n«Ладно», — говорите вы с ухмылкой на лице, — «давай, выкладывай, что у тебя».\n\nЯн неуверенно оглядывается, затем прочищает горло и говорит: «У тебя был другой позывной, да? Когда ты был гладиатором. А какой? Кажется, я видел пару твоих поединков.»"</t>
+  </si>
+  <si>
+    <t>"Вы встречаете Яна в ангаре для мехов, как и договорились по интеркому. Он ожидает вас у высоких ворот с планшетом в руке. Когда вы подходите, он поднимает взгляд и коротко машет вам.\n\n«Эй, босс. Посылка от твоего прошлого подразделения прибыла с час тому назад», — говорит он, неопределённым жестом указывая позади себя. «Хочешь взглянуть?»"</t>
+  </si>
+  <si>
+    <t>"«Нет», — твёрдо говорит Дариус. Он стиснул зубы, скрестил руки на груди и многозначительно смотрит на вас поверх голографического дисплея в командном центре.\n\n«Ой, да ладно!» — протестуете вы. «Риск, конечно, есть, хотя и маленький, но результат абсолютно стоит того!»\n\nВаш с Дариусом спор длится вот уже 15 минут. Вы убеждены, что сможете сбыть эту левую партию сериала [[DM.BaseDescriptionDefs[LoreHolovidMercenaries],«Наёмники»!]] прежде, чем кто-либо из команды узнает об этом. Дариус же думает иначе.\n\n«Ян устроит истерику, если узнает об этом. А то и бунт», — повторяет Дариус. «Вы играете с огнём».\n\n«И? Три миллиона, Дариус.»\n\nВ конце концов он вздыхает и разводит руками. «Ладно, пробуйте, но не жалуйтесь мне, если это нам аукнется.»"</t>
+  </si>
+  <si>
+    <t>"Как только вы отключили связь с последним клиентом, в командный центр врывается Ян. Он выглядит запыхавшимся. \n\n«Есть... проблема, босс», — говорит он, опираясь маслянистой рукой на ближайшую консоль, чтобы перевести дух.\r\n\r\n\n\n«Продолжай», — говорите вы, приподняв бровь.\r\n\r\n\n\nОн объясняет возникшую дилемму: хотя ваш прошлый командирский транспорт доставлен в космопорт, там на земле царит немалая неразбериха. Записи терялись, находились, копировались с ошибками, снова терялись, копировались с копий и так далее.\n\n «Короче, если покороче, — заключает Ян, — у них на руках [[DM.MechDefs[vehicledef_AWACS],AWACS Command VTOL]] и [[DM.MechDefs[vehicledef_MOBILEHQ_C3M],C3 Mobile HQ truck]], но они не знают, какой из них принадлежит вам. Мне кажется, можно будет просто выбрать тот, который вам нужен, и они ничего не скажут против.»"</t>
+  </si>
+  <si>
+    <t>"Вы приближаетесь к тайнику вместе с Яном и Сумир. Оба выглядят несколько встревоженными, что резко контрастирует с вашим уверенным шагом.\n\n«Такие тайники всегда вызывают у меня дискомфорт», — жалуется Ян, вертя головой.\n\n«Со временем привыкаешь», — говорит Сумир, — «особенно с тем количеством, которое мне присылают».\n\n«Ты бы поосторожнее», — отвечает Ян.\n\n«Тише, вы двое», — вмешиваетесь вы.\n\nНебольшая коллекция ящиков аккуратно сложена точно там, где было указано, на одном из них медленно мигает маячок локатора.\n\nНесмотря на то, что вы давно не были морпехом, ваша дружба с интендантом определённо окупилась. Это уже третья посылка с припасами, которую они «потеряли», и вы, конечно же, к этому не имеете никакого отношения.\n\nОстается только выяснить, какое добро вы попросили на этот раз?"</t>
+  </si>
+  <si>
+    <t>"Вы уже несколько лет не ощущали себя настолько отдохнувшим и готовым вернуться в кабину. Вы думали, что после [[DM.BaseDescriptionDefs[LoreDAMOCLES],«Дамокла»]] вам хватит впечатлений на всю оставшуюся жизнь, однако — вот он вы, и вам снова не терпится сесть в кресло пилота. Пока вы расхаживаете взад-вперёд мимо входов в ангар мехов, вглядываетесь в чернильную темень сквозь коридорные окна, ваше внимание привлекает голос Яна.\n\n«Эй, босс. Вашу машину вытащили из [[DM.BaseDescriptionDefs[LoreColdStorage],холодильника]], — сообщает он, — она вся готова к действию».\n\nВаши шаги резко останавливаются, и на вашем лице появляется лёгкая улыбка. Ян, похоже, заметил её, поскольку у него у самого была такая же.\n\n«Ну, так что?» — спрашивает он. «Так и будем стоять лыбиться или пойдём посмотрим на неё?»"</t>
+  </si>
+  <si>
+    <t>"Вы спешите в ангар мехов и видите, как Ян настукивает в свой планшет у стены. Когда вы приближаетесь, он поднимает взгляд и коротко приветствует вас.\n\n«Эй, босс. Всё уже распаковано», — говорит он, указывая на один из отсеков. «Пара вмятин, пара царапин, но, похоже, Каррик сдержал слово. Ничего важного не пропало. Хотите убедиться сами?»\n\nВы киваете и спешите мимо Яна в отсек. Сумир слоняется неподалёку, и, когда вы демонстрируете свой ценное приобретение, её глаза широко раскрываются:"</t>
+  </si>
+  <si>
+    <t>"Пока вы, стоя у окна, вглядываетесь в непроглядную тьму космоса, Ян прочищает горло.\n\n«Кхм-хм, эй, босс. Тут контейнер с твоей боевой бронёй подъехал. Я собираюсь его вскрыть и провести инвентаризацию. Подумал, может тебе будет интересно поприсутствовать.»"</t>
+  </si>
+  <si>
+    <t>"На мостике царит торжественная атмосфера. Вы с Дариусом смотрите, как душеприказчик на мерцающем голографическом экране бесстрастно сообщает вам о смерти вашего двоюродного деда, выражая регламентированный минимум соболезнований.\n\nКогда запись заканчивается и изображение исчезает, в комнату входит Ян. «Аа-а, хэй, босс, — начинает он, — Сумир тут нашла место, на которое указывают эти координаты, пока вы занимались всеми документами. Она слетала на «Леопарде» и вернулась с этим мехом. Если я правильно понял, то это — то, что в сообщении он назвал своим «любимым маленьким сокровищем».\n\nВы выжидающе поднимаете бровь.\n\n«Ладно, если честно, — продолжил Ян, — я заглянул внутрь. Ему место в музее.»"</t>
+  </si>
+  <si>
+    <t>"С тех самых пор, как вам сообщили об аварии на объекте, вы были сами не свой. То место, строгие режимы и испытания занимают особое место в ваших кошмарах. Глядя из окна наблюдательной палубы в черную как смоль тьму, вы вздрогнули, услышав, как за вашей спиной открылась дверь переборки.\n\n«Ой, прости, босс», — раздаётся голос Яна. Дверь тихонько захлопывается за ним, оставляя вас двоих в почти полной тишине. По крайней мере, до тех пор, пока он не заговаривает: «Мы тут только что вернулись на «Леопарде». Всё именно так, как орбитальном сканере — лаборатории конец».\n\nНа какое-то мгновение вы не знаете, что чувствовать. То, что происходило в тех стенах, стало для вас глубоко формирующим опытом.\n\n«Однако, — продолжает Ян, — мы кое-что нашли: пару [[DM.BaseDescriptionDefs[ConceptProtoMech],протомехов]] в полуубитом состоянии. Надеюсь, ты не против, но мы привезли их с собой. Я поручил ребятам покопаться в них и посмотреть, сможем ли мы собрать полноценный отряд.»"</t>
+  </si>
+  <si>
+    <t>"«Ну, я не собираюсь заглядывать дарёному VTOL'у в рот,» - говорите вы. «Захвати Сумир и вместе погрузите [[DM.MechDefs[vehicledef_AWACS],AWACS]] на Леопард, а затем домой на Арго»\r\n\r\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nСпустя час или около и вы - счастливый обладатель командирского VTOL AWACS."</t>
+  </si>
+  <si>
+    <t>"[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Ян]] продолжает: «Как бы то ни было, командир, когда у вас будет время, загляните в ангар. осмотрим его вместе, может изменим чего»\r\n\r\nВы отвечаете: «Скоро буду, Ян. Продолжайте в том же духе»\r\n\r\n"</t>
+  </si>
+  <si>
+    <t>"«Записи не были утеряны, никаких записей об этом VTOL, принадлежащем мне, попросту не было. Я - вернорожденный воин Кланов и ноги моей не будет за штурвалом этой штуки. Но я не собираюсь заглядывать дарёному VTOL в рот», — говорите вы. «Захвати Сумир и вместе погрузите [[DM.MechDefs[vehicledef_AWACS],AWACS]] в «Леопард», а затем домой на Арго»\r\n\r\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nПримерно через час вы обнаруживаете, что ваша компания — гордый обладатель командирского VTOL AWACS."</t>
+  </si>
+  <si>
+    <t>"«Записи не были утеряны, никаких записей об этом мобильном штабе, принадлежащем мне, попросту не было. Я - вернорожденный воин Кланов и чёрта с два я буду пилотировать эту штуку. Но я не собираюсь заглядывать дарёной технике в рот», — говорите вы. «Захвати Сумир и вместе погрузите [[DM.MechDefs[vehicledef_MOBILEHQ_C3M],мобильный штаб]] в «Леопард», а затем домой на Арго»\r\n\r\nЯн коротко кивает и спешно выходит из кабинета, свернув направо, в ангар мехов.\n\nПроходит пара секунд и вы видите, как он спешно проходит мимо в противоположную сторону, к мостику за Сумир. Он выглядел раздосадованным тем, что вы заметили его, но ничего не сказал.\n\nПримерно через час вы обнаруживаете, что ваша компания — гордый обладатель передвижного штаба Mobile HQ."</t>
+  </si>
+  <si>
+    <t>"Если раньше вы ещё считались с мнением окружающих, то со временем вы попадали в шумное сборище подонков и мерзких псов, и теперь оглядываетесь на путь, который привёл вас сюда. В вашей каюте, над столом, вы храните приколотый к стене отрывок из письма, который, как вам кажется, раскрывает суть того, кем вы стали.\r\n\r\n«Сэр:\r\nЯ получил ваше сообщение за прошлый месяц, в котором вы заявляете о своём намерении выследить, запереть, искоренить и в конечном итоге уничтожить меня и мою шайку соратников. Кстати, сэр, со всем уважением заявляю, что предпочитаю, чтобы меня называли «Корсаром». Да, таковое было бы предпочтительнее для меня. Термин «пират» в наши дни весьма избит и так часто используется неправильно»\r\n"</t>
   </si>
 </sst>
 </file>
@@ -2398,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,9 +2505,9 @@
     <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -2430,13 +2526,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -2444,13 +2540,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>494</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2458,13 +2554,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -2472,13 +2568,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -2486,13 +2582,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>497</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -2500,13 +2596,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>498</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -2514,13 +2610,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>499</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -2528,13 +2624,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>9</v>
@@ -2542,13 +2638,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>499</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -2556,13 +2652,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -2570,13 +2666,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>502</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
@@ -2584,13 +2680,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>503</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
@@ -2598,13 +2694,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
@@ -2612,13 +2708,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>504</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -2626,13 +2722,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>505</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
@@ -2640,13 +2736,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>506</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
@@ -2654,13 +2750,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>507</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
@@ -2668,13 +2764,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>508</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
@@ -2682,13 +2778,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>509</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
@@ -2696,13 +2792,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>510</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>21</v>
@@ -2710,13 +2806,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>511</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -2724,13 +2820,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>512</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
@@ -2738,13 +2834,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>513</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -2752,13 +2848,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>514</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -2766,13 +2862,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
@@ -2780,13 +2876,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
@@ -2794,13 +2890,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
@@ -2808,13 +2904,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>518</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
@@ -2822,13 +2918,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>519</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -2836,13 +2932,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>520</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
@@ -2850,13 +2946,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>521</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
@@ -2864,13 +2960,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>522</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
@@ -2878,13 +2974,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>523</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
@@ -2892,13 +2988,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>524</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
@@ -2906,13 +3002,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>525</v>
+        <v>106</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
@@ -2920,13 +3016,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>526</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
@@ -2934,13 +3030,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>527</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
@@ -2948,13 +3044,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>528</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
@@ -2962,13 +3058,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>527</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -2976,13 +3072,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>529</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
@@ -2990,13 +3086,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>530</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
@@ -3004,13 +3100,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>531</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
@@ -3018,13 +3114,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>532</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
@@ -3032,13 +3128,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>533</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
@@ -3046,13 +3142,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>534</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
@@ -3060,13 +3156,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>535</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
@@ -3074,13 +3170,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>536</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
@@ -3088,13 +3184,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>537</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -3102,13 +3198,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>538</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
@@ -3116,13 +3212,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>539</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
@@ -3130,13 +3226,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>540</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
@@ -3144,13 +3240,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>541</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
@@ -3158,13 +3254,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
@@ -3172,13 +3268,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>542</v>
+        <v>160</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
@@ -3186,13 +3282,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>543</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
@@ -3200,13 +3296,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>544</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
@@ -3214,13 +3310,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>545</v>
+        <v>169</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
@@ -3228,13 +3324,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
@@ -3242,13 +3338,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>545</v>
+        <v>169</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
@@ -3256,13 +3352,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>547</v>
+        <v>176</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
@@ -3270,13 +3366,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>548</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
@@ -3284,13 +3380,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>549</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
@@ -3298,13 +3394,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>550</v>
+        <v>185</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
@@ -3312,13 +3408,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>549</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
@@ -3326,13 +3422,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>551</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
@@ -3340,13 +3436,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>552</v>
+        <v>192</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
@@ -3354,13 +3450,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>553</v>
+        <v>195</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
@@ -3368,13 +3464,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>554</v>
+        <v>198</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
@@ -3382,13 +3478,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>553</v>
+        <v>195</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
@@ -3396,13 +3492,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
@@ -3410,13 +3506,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>556</v>
+        <v>205</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
@@ -3424,13 +3520,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>557</v>
+        <v>208</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
@@ -3438,13 +3534,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>558</v>
+        <v>211</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
@@ -3452,13 +3548,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>557</v>
+        <v>208</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
@@ -3466,13 +3562,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>559</v>
+        <v>215</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
@@ -3480,13 +3576,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>560</v>
+        <v>218</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
@@ -3494,13 +3590,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>561</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
@@ -3508,13 +3604,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>562</v>
+        <v>224</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
@@ -3522,13 +3618,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>561</v>
+        <v>221</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
@@ -3536,13 +3632,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>563</v>
+        <v>228</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
@@ -3550,13 +3646,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>564</v>
+        <v>231</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
@@ -3564,13 +3660,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>565</v>
+        <v>234</v>
       </c>
       <c r="D83" s="1">
         <v>83</v>
@@ -3578,13 +3674,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>566</v>
+        <v>237</v>
       </c>
       <c r="D84" s="1">
         <v>84</v>
@@ -3592,13 +3688,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>565</v>
+        <v>234</v>
       </c>
       <c r="D85" s="1">
         <v>85</v>
@@ -3606,13 +3702,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>567</v>
+        <v>241</v>
       </c>
       <c r="D86" s="1">
         <v>86</v>
@@ -3620,13 +3716,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>568</v>
+        <v>244</v>
       </c>
       <c r="D87" s="1">
         <v>87</v>
@@ -3634,13 +3730,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>569</v>
+        <v>247</v>
       </c>
       <c r="D88" s="1">
         <v>88</v>
@@ -3648,13 +3744,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="D89" s="1">
         <v>89</v>
@@ -3662,13 +3758,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>569</v>
+        <v>247</v>
       </c>
       <c r="D90" s="1">
         <v>90</v>
@@ -3676,13 +3772,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>571</v>
+        <v>254</v>
       </c>
       <c r="D91" s="1">
         <v>91</v>
@@ -3690,13 +3786,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>572</v>
+        <v>257</v>
       </c>
       <c r="D92" s="1">
         <v>92</v>
@@ -3704,13 +3800,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>573</v>
+        <v>260</v>
       </c>
       <c r="D93" s="1">
         <v>93</v>
@@ -3718,13 +3814,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="D94" s="1">
         <v>94</v>
@@ -3732,13 +3828,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>573</v>
+        <v>260</v>
       </c>
       <c r="D95" s="1">
         <v>95</v>
@@ -3746,13 +3842,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>574</v>
+        <v>265</v>
       </c>
       <c r="D96" s="1">
         <v>96</v>
@@ -3760,13 +3856,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>575</v>
+        <v>268</v>
       </c>
       <c r="D97" s="1">
         <v>97</v>
@@ -3774,13 +3870,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>576</v>
+        <v>271</v>
       </c>
       <c r="D98" s="1">
         <v>98</v>
@@ -3788,13 +3884,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>577</v>
+        <v>274</v>
       </c>
       <c r="D99" s="1">
         <v>99</v>
@@ -3802,13 +3898,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>578</v>
+        <v>277</v>
       </c>
       <c r="D100" s="1">
         <v>100</v>
@@ -3816,13 +3912,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>579</v>
+        <v>280</v>
       </c>
       <c r="D101" s="1">
         <v>101</v>
@@ -3830,13 +3926,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>580</v>
+        <v>283</v>
       </c>
       <c r="D102" s="1">
         <v>102</v>
@@ -3844,13 +3940,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>581</v>
+        <v>286</v>
       </c>
       <c r="D103" s="1">
         <v>103</v>
@@ -3858,13 +3954,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>558</v>
+        <v>211</v>
       </c>
       <c r="D104" s="1">
         <v>104</v>
@@ -3872,13 +3968,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>581</v>
+        <v>286</v>
       </c>
       <c r="D105" s="1">
         <v>105</v>
@@ -3886,13 +3982,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>582</v>
+        <v>291</v>
       </c>
       <c r="D106" s="1">
         <v>106</v>
@@ -3900,13 +3996,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>583</v>
+        <v>294</v>
       </c>
       <c r="D107" s="1">
         <v>107</v>
@@ -3914,13 +4010,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>584</v>
+        <v>297</v>
       </c>
       <c r="D108" s="1">
         <v>108</v>
@@ -3928,13 +4024,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>550</v>
+        <v>185</v>
       </c>
       <c r="D109" s="1">
         <v>109</v>
@@ -3942,13 +4038,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>584</v>
+        <v>297</v>
       </c>
       <c r="D110" s="1">
         <v>110</v>
@@ -3956,13 +4052,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>585</v>
+        <v>302</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
@@ -3970,13 +4066,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>586</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1">
         <v>112</v>
@@ -3984,13 +4080,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>587</v>
+        <v>308</v>
       </c>
       <c r="D113" s="1">
         <v>113</v>
@@ -3998,13 +4094,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>588</v>
+        <v>311</v>
       </c>
       <c r="D114" s="1">
         <v>114</v>
@@ -4012,13 +4108,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>587</v>
+        <v>308</v>
       </c>
       <c r="D115" s="1">
         <v>115</v>
@@ -4026,13 +4122,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>589</v>
+        <v>315</v>
       </c>
       <c r="D116" s="1">
         <v>116</v>
@@ -4040,13 +4136,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>590</v>
+        <v>318</v>
       </c>
       <c r="D117" s="1">
         <v>117</v>
@@ -4054,13 +4150,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>591</v>
+        <v>321</v>
       </c>
       <c r="D118" s="1">
         <v>118</v>
@@ -4068,13 +4164,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>592</v>
+        <v>324</v>
       </c>
       <c r="D119" s="1">
         <v>119</v>
@@ -4082,13 +4178,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>593</v>
+        <v>327</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -4096,13 +4192,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>594</v>
+        <v>330</v>
       </c>
       <c r="D121" s="1">
         <v>121</v>
@@ -4110,13 +4206,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>595</v>
+        <v>333</v>
       </c>
       <c r="D122" s="1">
         <v>122</v>
@@ -4124,13 +4220,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="D123" s="1">
         <v>123</v>
@@ -4138,13 +4234,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>597</v>
+        <v>339</v>
       </c>
       <c r="D124" s="1">
         <v>124</v>
@@ -4152,13 +4248,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="D125" s="1">
         <v>125</v>
@@ -4166,13 +4262,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>598</v>
+        <v>344</v>
       </c>
       <c r="D126" s="1">
         <v>126</v>
@@ -4180,13 +4276,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>599</v>
+        <v>347</v>
       </c>
       <c r="D127" s="1">
         <v>127</v>
@@ -4194,13 +4290,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="D128" s="1">
         <v>128</v>
@@ -4208,13 +4304,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>601</v>
+        <v>353</v>
       </c>
       <c r="D129" s="1">
         <v>129</v>
@@ -4222,13 +4318,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="D130" s="1">
         <v>130</v>
@@ -4236,13 +4332,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>602</v>
+        <v>357</v>
       </c>
       <c r="D131" s="1">
         <v>131</v>
@@ -4250,13 +4346,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>603</v>
+        <v>360</v>
       </c>
       <c r="D132" s="1">
         <v>132</v>
@@ -4264,13 +4360,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>604</v>
+        <v>363</v>
       </c>
       <c r="D133" s="1">
         <v>133</v>
@@ -4278,13 +4374,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>251</v>
+        <v>365</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>605</v>
+        <v>366</v>
       </c>
       <c r="D134" s="1">
         <v>134</v>
@@ -4292,13 +4388,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>606</v>
+        <v>369</v>
       </c>
       <c r="D135" s="1">
         <v>135</v>
@@ -4306,13 +4402,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>607</v>
+        <v>372</v>
       </c>
       <c r="D136" s="1">
         <v>136</v>
@@ -4320,13 +4416,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>608</v>
+        <v>375</v>
       </c>
       <c r="D137" s="1">
         <v>137</v>
@@ -4334,13 +4430,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>258</v>
+        <v>376</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>259</v>
+        <v>377</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>609</v>
+        <v>378</v>
       </c>
       <c r="D138" s="1">
         <v>138</v>
@@ -4348,13 +4444,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>610</v>
+        <v>693</v>
       </c>
       <c r="D139" s="1">
         <v>139</v>
@@ -4362,13 +4458,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D140" s="1">
         <v>140</v>
@@ -4376,13 +4472,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>612</v>
+        <v>386</v>
       </c>
       <c r="D141" s="1">
         <v>141</v>
@@ -4390,13 +4486,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>613</v>
+        <v>389</v>
       </c>
       <c r="D142" s="1">
         <v>142</v>
@@ -4404,13 +4500,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>614</v>
+        <v>392</v>
       </c>
       <c r="D143" s="1">
         <v>143</v>
@@ -4418,13 +4514,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D144" s="1">
         <v>144</v>
@@ -4432,13 +4528,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>273</v>
+        <v>396</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="D145" s="1">
         <v>145</v>
@@ -4446,13 +4542,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D146" s="1">
         <v>146</v>
@@ -4460,13 +4556,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>275</v>
+        <v>398</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D147" s="1">
         <v>147</v>
@@ -4474,13 +4570,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="D148" s="1">
         <v>148</v>
@@ -4488,13 +4584,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>279</v>
+        <v>404</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>617</v>
+        <v>406</v>
       </c>
       <c r="D149" s="1">
         <v>149</v>
@@ -4502,13 +4598,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D150" s="1">
         <v>150</v>
@@ -4516,13 +4612,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="D151" s="1">
         <v>151</v>
@@ -4530,13 +4626,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D152" s="1">
         <v>152</v>
@@ -4544,13 +4640,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>612</v>
+        <v>386</v>
       </c>
       <c r="D153" s="1">
         <v>153</v>
@@ -4558,13 +4654,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>619</v>
+        <v>414</v>
       </c>
       <c r="D154" s="1">
         <v>154</v>
@@ -4572,13 +4668,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>289</v>
+        <v>416</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>620</v>
+        <v>417</v>
       </c>
       <c r="D155" s="1">
         <v>155</v>
@@ -4586,13 +4682,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D156" s="1">
         <v>156</v>
@@ -4600,13 +4696,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="D157" s="1">
         <v>157</v>
@@ -4614,13 +4710,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D158" s="1">
         <v>158</v>
@@ -4628,13 +4724,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D159" s="1">
         <v>159</v>
@@ -4642,13 +4738,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>296</v>
+        <v>424</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>622</v>
+        <v>425</v>
       </c>
       <c r="D160" s="1">
         <v>160</v>
@@ -4656,13 +4752,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>623</v>
+        <v>428</v>
       </c>
       <c r="D161" s="1">
         <v>161</v>
@@ -4670,13 +4766,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D162" s="1">
         <v>162</v>
@@ -4684,13 +4780,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D163" s="1">
         <v>163</v>
@@ -4698,13 +4794,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>301</v>
+        <v>431</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>302</v>
+        <v>432</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>624</v>
+        <v>433</v>
       </c>
       <c r="D164" s="1">
         <v>164</v>
@@ -4712,13 +4808,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>623</v>
+        <v>428</v>
       </c>
       <c r="D165" s="1">
         <v>165</v>
@@ -4726,13 +4822,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>304</v>
+        <v>435</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D166" s="1">
         <v>166</v>
@@ -4740,13 +4836,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D167" s="1">
         <v>167</v>
@@ -4754,13 +4850,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>306</v>
+        <v>437</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>307</v>
+        <v>438</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>625</v>
+        <v>439</v>
       </c>
       <c r="D168" s="1">
         <v>168</v>
@@ -4768,13 +4864,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>308</v>
+        <v>440</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>623</v>
+        <v>428</v>
       </c>
       <c r="D169" s="1">
         <v>169</v>
@@ -4782,13 +4878,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>309</v>
+        <v>441</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D170" s="1">
         <v>170</v>
@@ -4796,13 +4892,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>310</v>
+        <v>442</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D171" s="1">
         <v>171</v>
@@ -4810,13 +4906,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>311</v>
+        <v>443</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>312</v>
+        <v>444</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>626</v>
+        <v>445</v>
       </c>
       <c r="D172" s="1">
         <v>172</v>
@@ -4824,13 +4920,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>313</v>
+        <v>446</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>623</v>
+        <v>428</v>
       </c>
       <c r="D173" s="1">
         <v>173</v>
@@ -4838,13 +4934,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>314</v>
+        <v>447</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D174" s="1">
         <v>174</v>
@@ -4852,13 +4948,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>612</v>
+        <v>386</v>
       </c>
       <c r="D175" s="1">
         <v>175</v>
@@ -4866,13 +4962,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>627</v>
+        <v>451</v>
       </c>
       <c r="D176" s="1">
         <v>176</v>
@@ -4880,13 +4976,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>318</v>
+        <v>452</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>319</v>
+        <v>453</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>628</v>
+        <v>454</v>
       </c>
       <c r="D177" s="1">
         <v>177</v>
@@ -4894,13 +4990,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D178" s="1">
         <v>178</v>
@@ -4908,13 +5004,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>321</v>
+        <v>456</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>612</v>
+        <v>386</v>
       </c>
       <c r="D179" s="1">
         <v>179</v>
@@ -4922,13 +5018,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>629</v>
+        <v>459</v>
       </c>
       <c r="D180" s="1">
         <v>180</v>
@@ -4936,13 +5032,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>630</v>
+        <v>462</v>
       </c>
       <c r="D181" s="1">
         <v>181</v>
@@ -4950,13 +5046,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>326</v>
+        <v>463</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D182" s="1">
         <v>182</v>
@@ -4964,13 +5060,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>327</v>
+        <v>464</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>328</v>
+        <v>465</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>631</v>
+        <v>697</v>
       </c>
       <c r="D183" s="1">
         <v>183</v>
@@ -4978,13 +5074,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D184" s="1">
         <v>184</v>
@@ -4992,13 +5088,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>330</v>
+        <v>467</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D185" s="1">
         <v>185</v>
@@ -5006,13 +5102,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>331</v>
+        <v>468</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>332</v>
+        <v>469</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>632</v>
+        <v>470</v>
       </c>
       <c r="D186" s="1">
         <v>186</v>
@@ -5020,13 +5116,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>633</v>
+        <v>473</v>
       </c>
       <c r="D187" s="1">
         <v>187</v>
@@ -5034,13 +5130,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>335</v>
+        <v>474</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D188" s="1">
         <v>188</v>
@@ -5048,13 +5144,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>336</v>
+        <v>475</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>337</v>
+        <v>476</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D189" s="1">
         <v>189</v>
@@ -5062,13 +5158,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>338</v>
+        <v>477</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D190" s="1">
         <v>190</v>
@@ -5076,13 +5172,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>339</v>
+        <v>478</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D191" s="1">
         <v>191</v>
@@ -5090,13 +5186,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>340</v>
+        <v>479</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>341</v>
+        <v>480</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>635</v>
+        <v>481</v>
       </c>
       <c r="D192" s="1">
         <v>192</v>
@@ -5104,13 +5200,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>342</v>
+        <v>482</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>343</v>
+        <v>483</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>636</v>
+        <v>484</v>
       </c>
       <c r="D193" s="1">
         <v>193</v>
@@ -5118,13 +5214,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>344</v>
+        <v>485</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>637</v>
+        <v>487</v>
       </c>
       <c r="D194" s="1">
         <v>194</v>
@@ -5132,13 +5228,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>346</v>
+        <v>488</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>347</v>
+        <v>489</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>638</v>
+        <v>699</v>
       </c>
       <c r="D195" s="1">
         <v>195</v>
@@ -5146,13 +5242,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>348</v>
+        <v>490</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D196" s="1">
         <v>196</v>
@@ -5160,13 +5256,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D197" s="1">
         <v>197</v>
@@ -5174,13 +5270,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>350</v>
+        <v>492</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>351</v>
+        <v>493</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="D198" s="1">
         <v>198</v>
@@ -5188,13 +5284,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>352</v>
+        <v>495</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>640</v>
+        <v>706</v>
       </c>
       <c r="D199" s="1">
         <v>199</v>
@@ -5202,13 +5298,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>354</v>
+        <v>497</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D200" s="1">
         <v>200</v>
@@ -5216,13 +5312,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>355</v>
+        <v>498</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>356</v>
+        <v>499</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="D201" s="1">
         <v>201</v>
@@ -5230,13 +5326,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>357</v>
+        <v>501</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D202" s="1">
         <v>202</v>
@@ -5244,13 +5340,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D203" s="1">
         <v>203</v>
@@ -5258,13 +5354,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>359</v>
+        <v>503</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>360</v>
+        <v>504</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>642</v>
+        <v>505</v>
       </c>
       <c r="D204" s="1">
         <v>204</v>
@@ -5272,13 +5368,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>361</v>
+        <v>506</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D205" s="1">
         <v>205</v>
@@ -5286,13 +5382,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>362</v>
+        <v>507</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>363</v>
+        <v>508</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>363</v>
+        <v>509</v>
       </c>
       <c r="D206" s="1">
         <v>206</v>
@@ -5300,13 +5396,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>364</v>
+        <v>510</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>365</v>
+        <v>511</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>643</v>
+        <v>512</v>
       </c>
       <c r="D207" s="1">
         <v>207</v>
@@ -5314,13 +5410,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D208" s="1">
         <v>208</v>
@@ -5328,13 +5424,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>368</v>
+        <v>515</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="D209" s="1">
         <v>209</v>
@@ -5342,13 +5438,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D210" s="1">
         <v>210</v>
@@ -5356,13 +5452,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>370</v>
+        <v>517</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>645</v>
+        <v>519</v>
       </c>
       <c r="D211" s="1">
         <v>211</v>
@@ -5370,13 +5466,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>373</v>
+        <v>521</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>646</v>
+        <v>522</v>
       </c>
       <c r="D212" s="1">
         <v>212</v>
@@ -5384,13 +5480,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>375</v>
+        <v>524</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>647</v>
+        <v>525</v>
       </c>
       <c r="D213" s="1">
         <v>213</v>
@@ -5398,13 +5494,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>376</v>
+        <v>526</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D214" s="1">
         <v>214</v>
@@ -5412,13 +5508,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>377</v>
+        <v>527</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>648</v>
+        <v>529</v>
       </c>
       <c r="D215" s="1">
         <v>215</v>
@@ -5426,13 +5522,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>379</v>
+        <v>530</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>380</v>
+        <v>531</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="D216" s="1">
         <v>216</v>
@@ -5440,13 +5536,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>381</v>
+        <v>533</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>650</v>
+        <v>535</v>
       </c>
       <c r="D217" s="1">
         <v>217</v>
@@ -5454,13 +5550,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="D218" s="1">
         <v>218</v>
@@ -5468,13 +5564,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>384</v>
+        <v>537</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>385</v>
+        <v>538</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="D219" s="1">
         <v>219</v>
@@ -5482,13 +5578,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>386</v>
+        <v>540</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>652</v>
+        <v>542</v>
       </c>
       <c r="D220" s="1">
         <v>220</v>
@@ -5496,13 +5592,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>388</v>
+        <v>543</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>389</v>
+        <v>544</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>653</v>
+        <v>545</v>
       </c>
       <c r="D221" s="1">
         <v>221</v>
@@ -5510,13 +5606,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>390</v>
+        <v>546</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D222" s="1">
         <v>222</v>
@@ -5524,13 +5620,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>391</v>
+        <v>547</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>392</v>
+        <v>548</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="D223" s="1">
         <v>223</v>
@@ -5538,13 +5634,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D224" s="1">
         <v>224</v>
@@ -5552,13 +5648,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D225" s="1">
         <v>225</v>
@@ -5566,13 +5662,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>655</v>
+        <v>553</v>
       </c>
       <c r="D226" s="1">
         <v>226</v>
@@ -5580,13 +5676,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>398</v>
+        <v>555</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>656</v>
+        <v>556</v>
       </c>
       <c r="D227" s="1">
         <v>227</v>
@@ -5594,13 +5690,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>399</v>
+        <v>557</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D228" s="1">
         <v>228</v>
@@ -5608,13 +5704,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>401</v>
+        <v>559</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>657</v>
+        <v>560</v>
       </c>
       <c r="D229" s="1">
         <v>229</v>
@@ -5622,13 +5718,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>402</v>
+        <v>561</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D230" s="1">
         <v>230</v>
@@ -5636,13 +5732,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>403</v>
+        <v>562</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D231" s="1">
         <v>231</v>
@@ -5650,13 +5746,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>404</v>
+        <v>563</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>405</v>
+        <v>564</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>658</v>
+        <v>565</v>
       </c>
       <c r="D232" s="1">
         <v>232</v>
@@ -5664,13 +5760,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>406</v>
+        <v>566</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>407</v>
+        <v>567</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
       <c r="D233" s="1">
         <v>233</v>
@@ -5678,13 +5774,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>409</v>
+        <v>569</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="D234" s="1">
         <v>234</v>
@@ -5692,13 +5788,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>410</v>
+        <v>571</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>411</v>
+        <v>572</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>661</v>
+        <v>573</v>
       </c>
       <c r="D235" s="1">
         <v>235</v>
@@ -5706,13 +5802,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>412</v>
+        <v>574</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>413</v>
+        <v>575</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>662</v>
+        <v>576</v>
       </c>
       <c r="D236" s="1">
         <v>236</v>
@@ -5720,13 +5816,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>414</v>
+        <v>577</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>415</v>
+        <v>578</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>663</v>
+        <v>579</v>
       </c>
       <c r="D237" s="1">
         <v>237</v>
@@ -5734,13 +5830,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>416</v>
+        <v>580</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D238" s="1">
         <v>238</v>
@@ -5748,13 +5844,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>417</v>
+        <v>581</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>418</v>
+        <v>582</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="D239" s="1">
         <v>239</v>
@@ -5762,13 +5858,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>419</v>
+        <v>584</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>665</v>
+        <v>586</v>
       </c>
       <c r="D240" s="1">
         <v>240</v>
@@ -5776,13 +5872,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>421</v>
+        <v>587</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>422</v>
+        <v>588</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>666</v>
+        <v>589</v>
       </c>
       <c r="D241" s="1">
         <v>241</v>
@@ -5790,13 +5886,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>423</v>
+        <v>590</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>637</v>
+        <v>487</v>
       </c>
       <c r="D242" s="1">
         <v>242</v>
@@ -5804,13 +5900,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>424</v>
+        <v>591</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>425</v>
+        <v>592</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>667</v>
+        <v>593</v>
       </c>
       <c r="D243" s="1">
         <v>243</v>
@@ -5818,13 +5914,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>426</v>
+        <v>594</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>427</v>
+        <v>595</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>427</v>
+        <v>596</v>
       </c>
       <c r="D244" s="1">
         <v>244</v>
@@ -5832,13 +5928,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>668</v>
+        <v>599</v>
       </c>
       <c r="D245" s="1">
         <v>245</v>
@@ -5846,13 +5942,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>668</v>
+        <v>599</v>
       </c>
       <c r="D246" s="1">
         <v>246</v>
@@ -5860,13 +5956,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>431</v>
+        <v>601</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>432</v>
+        <v>602</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>432</v>
+        <v>602</v>
       </c>
       <c r="D247" s="1">
         <v>247</v>
@@ -5874,13 +5970,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>433</v>
+        <v>603</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>434</v>
+        <v>604</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>434</v>
+        <v>605</v>
       </c>
       <c r="D248" s="1">
         <v>248</v>
@@ -5888,13 +5984,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>435</v>
+        <v>606</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>436</v>
+        <v>607</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="D249" s="1">
         <v>249</v>
@@ -5902,13 +5998,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>437</v>
+        <v>609</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>438</v>
+        <v>610</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="D250" s="1">
         <v>250</v>
@@ -5916,13 +6012,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>439</v>
+        <v>612</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>440</v>
+        <v>613</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
       <c r="D251" s="1">
         <v>251</v>
@@ -5930,13 +6026,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>441</v>
+        <v>615</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>442</v>
+        <v>616</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="D252" s="1">
         <v>252</v>
@@ -5944,13 +6040,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>443</v>
+        <v>618</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="D253" s="1">
         <v>253</v>
@@ -5958,13 +6054,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>444</v>
+        <v>620</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="D254" s="1">
         <v>254</v>
@@ -5972,13 +6068,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>445</v>
+        <v>621</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>446</v>
+        <v>622</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>446</v>
+        <v>623</v>
       </c>
       <c r="D255" s="1">
         <v>255</v>
@@ -5986,13 +6082,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>447</v>
+        <v>624</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>446</v>
+        <v>622</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>446</v>
+        <v>623</v>
       </c>
       <c r="D256" s="1">
         <v>256</v>
@@ -6000,13 +6096,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>448</v>
+        <v>625</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>449</v>
+        <v>626</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>449</v>
+        <v>627</v>
       </c>
       <c r="D257" s="1">
         <v>257</v>
@@ -6014,13 +6110,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>450</v>
+        <v>628</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>449</v>
+        <v>626</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>449</v>
+        <v>627</v>
       </c>
       <c r="D258" s="1">
         <v>258</v>
@@ -6028,13 +6124,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>451</v>
+        <v>629</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>452</v>
+        <v>630</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="D259" s="1">
         <v>259</v>
@@ -6042,13 +6138,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>453</v>
+        <v>631</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>360</v>
+        <v>632</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>360</v>
+        <v>633</v>
       </c>
       <c r="D260" s="1">
         <v>260</v>
@@ -6056,13 +6152,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>454</v>
+        <v>634</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="D261" s="1">
         <v>261</v>
@@ -6070,13 +6166,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>455</v>
+        <v>635</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="D262" s="1">
         <v>262</v>
@@ -6084,13 +6180,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>456</v>
+        <v>636</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="D263" s="1">
         <v>263</v>
@@ -6098,13 +6194,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>457</v>
+        <v>637</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>458</v>
+        <v>638</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="D264" s="1">
         <v>264</v>
@@ -6112,13 +6208,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>459</v>
+        <v>640</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>460</v>
+        <v>641</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="D265" s="1">
         <v>265</v>
@@ -6126,13 +6222,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>461</v>
+        <v>642</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>462</v>
+        <v>643</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="D266" s="1">
         <v>266</v>
@@ -6140,13 +6236,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>463</v>
+        <v>644</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>464</v>
+        <v>645</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>464</v>
+        <v>646</v>
       </c>
       <c r="D267" s="1">
         <v>267</v>
@@ -6154,13 +6250,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>465</v>
+        <v>647</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>466</v>
+        <v>648</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>466</v>
+        <v>649</v>
       </c>
       <c r="D268" s="1">
         <v>268</v>
@@ -6168,13 +6264,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>466</v>
+        <v>648</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>466</v>
+        <v>649</v>
       </c>
       <c r="D269" s="1">
         <v>269</v>
@@ -6182,13 +6278,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>468</v>
+        <v>651</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>469</v>
+        <v>652</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>469</v>
+        <v>653</v>
       </c>
       <c r="D270" s="1">
         <v>270</v>
@@ -6196,13 +6292,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>470</v>
+        <v>654</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>471</v>
+        <v>655</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>471</v>
+        <v>656</v>
       </c>
       <c r="D271" s="1">
         <v>271</v>
@@ -6210,13 +6306,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>472</v>
+        <v>657</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>473</v>
+        <v>658</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>473</v>
+        <v>659</v>
       </c>
       <c r="D272" s="1">
         <v>272</v>
@@ -6224,13 +6320,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>474</v>
+        <v>660</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>475</v>
+        <v>661</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>475</v>
+        <v>662</v>
       </c>
       <c r="D273" s="1">
         <v>273</v>
@@ -6238,13 +6334,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>476</v>
+        <v>663</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>475</v>
+        <v>661</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>475</v>
+        <v>662</v>
       </c>
       <c r="D274" s="1">
         <v>274</v>
@@ -6252,13 +6348,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>477</v>
+        <v>664</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="D275" s="1">
         <v>275</v>
@@ -6266,13 +6362,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>478</v>
+        <v>665</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>479</v>
+        <v>666</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>479</v>
+        <v>710</v>
       </c>
       <c r="D276" s="1">
         <v>276</v>
@@ -6280,13 +6376,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>480</v>
+        <v>667</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>481</v>
+        <v>668</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>481</v>
+        <v>669</v>
       </c>
       <c r="D277" s="1">
         <v>277</v>
@@ -6294,13 +6390,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>482</v>
+        <v>670</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>483</v>
+        <v>671</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D278" s="1">
         <v>278</v>
@@ -6308,13 +6404,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>484</v>
+        <v>673</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>485</v>
+        <v>674</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>485</v>
+        <v>675</v>
       </c>
       <c r="D279" s="1">
         <v>279</v>
@@ -6322,13 +6418,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>486</v>
+        <v>676</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>487</v>
+        <v>677</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>487</v>
+        <v>678</v>
       </c>
       <c r="D280" s="1">
         <v>280</v>
@@ -6336,13 +6432,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>488</v>
+        <v>679</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>489</v>
+        <v>680</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>489</v>
+        <v>681</v>
       </c>
       <c r="D281" s="1">
         <v>281</v>
@@ -6350,16 +6446,72 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>490</v>
+        <v>682</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>491</v>
+        <v>683</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="D282" s="1">
         <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D283" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D284" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D285" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D286" s="1">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
